--- a/prices/macpherson prices 4-room.xlsx
+++ b/prices/macpherson prices 4-room.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\PycharmProjects\macpherson-bto\prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C59DA-C2C0-4E4B-A02C-2F221B2C28D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A621FA7-04D8-428D-AA15-3FE4CA26CB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A8E0B00A-A670-440C-B89D-320911B388A8}"/>
   </bookViews>
@@ -21,12 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="31">
   <si>
     <t>95A</t>
   </si>
@@ -487,12 +494,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,6 +589,12 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1990,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B15AA9-9AD1-47B6-AD7F-6A6B8F80EFA6}">
   <dimension ref="A1:BH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2002,355 +2009,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29" t="s">
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29" t="s">
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29" t="s">
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
     </row>
     <row r="2" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="81">
+      <c r="A2" s="89"/>
+      <c r="B2" s="79">
         <v>522</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="43">
         <v>524</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="61">
         <v>526</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="73">
         <v>528</v>
       </c>
-      <c r="F2" s="81">
+      <c r="F2" s="79">
         <v>550</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="43">
         <v>552</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="61">
         <v>554</v>
       </c>
-      <c r="I2" s="75">
+      <c r="I2" s="73">
         <v>556</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="60">
         <v>558</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="42">
         <v>560</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="42">
         <v>562</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>564</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="41">
         <v>566</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="41">
         <v>568</v>
       </c>
-      <c r="P2" s="43">
+      <c r="P2" s="41">
         <v>570</v>
       </c>
-      <c r="Q2" s="43">
+      <c r="Q2" s="41">
         <v>572</v>
       </c>
-      <c r="R2" s="43">
+      <c r="R2" s="41">
         <v>574</v>
       </c>
-      <c r="S2" s="63">
+      <c r="S2" s="61">
         <v>576</v>
       </c>
-      <c r="T2" s="75">
+      <c r="T2" s="73">
         <v>578</v>
       </c>
-      <c r="U2" s="62">
+      <c r="U2" s="60">
         <v>580</v>
       </c>
-      <c r="V2" s="63">
+      <c r="V2" s="61">
         <v>582</v>
       </c>
-      <c r="W2" s="46">
+      <c r="W2" s="44">
         <v>584</v>
       </c>
-      <c r="X2" s="45">
+      <c r="X2" s="43">
         <v>586</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="41">
         <v>588</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2" s="41">
         <v>590</v>
       </c>
-      <c r="AA2" s="44">
+      <c r="AA2" s="42">
         <v>592</v>
       </c>
-      <c r="AB2" s="44">
+      <c r="AB2" s="42">
         <v>594</v>
       </c>
-      <c r="AC2" s="44">
+      <c r="AC2" s="42">
         <v>596</v>
       </c>
-      <c r="AD2" s="43">
+      <c r="AD2" s="41">
         <v>598</v>
       </c>
-      <c r="AE2" s="64">
+      <c r="AE2" s="62">
         <v>600</v>
       </c>
-      <c r="AF2" s="42">
+      <c r="AF2" s="40">
         <v>602</v>
       </c>
-      <c r="AG2" s="43">
+      <c r="AG2" s="41">
         <v>604</v>
       </c>
-      <c r="AH2" s="44">
+      <c r="AH2" s="42">
         <v>606</v>
       </c>
-      <c r="AI2" s="44">
+      <c r="AI2" s="42">
         <v>608</v>
       </c>
-      <c r="AJ2" s="44">
+      <c r="AJ2" s="42">
         <v>610</v>
       </c>
-      <c r="AK2" s="44">
+      <c r="AK2" s="42">
         <v>612</v>
       </c>
-      <c r="AL2" s="45">
+      <c r="AL2" s="43">
         <v>614</v>
       </c>
-      <c r="AM2" s="46">
+      <c r="AM2" s="44">
         <v>616</v>
       </c>
-      <c r="AN2" s="46">
+      <c r="AN2" s="44">
         <v>618</v>
       </c>
-      <c r="AO2" s="47">
+      <c r="AO2" s="45">
         <v>620</v>
       </c>
-      <c r="AP2" s="42">
+      <c r="AP2" s="40">
         <v>622</v>
       </c>
-      <c r="AQ2" s="43">
+      <c r="AQ2" s="41">
         <v>624</v>
       </c>
-      <c r="AR2" s="44">
+      <c r="AR2" s="42">
         <v>626</v>
       </c>
-      <c r="AS2" s="44">
+      <c r="AS2" s="42">
         <v>628</v>
       </c>
-      <c r="AT2" s="44">
+      <c r="AT2" s="42">
         <v>630</v>
       </c>
-      <c r="AU2" s="45">
+      <c r="AU2" s="43">
         <v>632</v>
       </c>
-      <c r="AV2" s="46">
+      <c r="AV2" s="44">
         <v>634</v>
       </c>
-      <c r="AW2" s="46">
+      <c r="AW2" s="44">
         <v>636</v>
       </c>
-      <c r="AX2" s="47">
+      <c r="AX2" s="45">
         <v>638</v>
       </c>
-      <c r="AY2" s="81">
+      <c r="AY2" s="79">
         <v>640</v>
       </c>
-      <c r="AZ2" s="46">
+      <c r="AZ2" s="44">
         <v>642</v>
       </c>
-      <c r="BA2" s="46">
+      <c r="BA2" s="44">
         <v>644</v>
       </c>
-      <c r="BB2" s="45">
+      <c r="BB2" s="43">
         <v>646</v>
       </c>
-      <c r="BC2" s="87">
+      <c r="BC2" s="85">
         <v>648</v>
       </c>
-      <c r="BD2" s="87">
+      <c r="BD2" s="85">
         <v>650</v>
       </c>
-      <c r="BE2" s="44">
+      <c r="BE2" s="42">
         <v>652</v>
       </c>
-      <c r="BF2" s="44">
+      <c r="BF2" s="42">
         <v>654</v>
       </c>
-      <c r="BG2" s="44">
+      <c r="BG2" s="42">
         <v>656</v>
       </c>
-      <c r="BH2" s="64">
+      <c r="BH2" s="62">
         <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="48">
+      <c r="B3" s="63"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="46">
         <v>16</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <v>17</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31">
+      <c r="H3" s="30"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29">
         <v>3</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="29">
         <v>4</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="29">
         <v>1</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="29">
         <v>2</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="29">
         <v>6</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="29">
         <v>7</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="31">
+      <c r="S3" s="30"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="29">
         <v>15</v>
       </c>
-      <c r="Z3" s="31">
+      <c r="Z3" s="29">
         <v>9</v>
       </c>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31">
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29">
         <v>10</v>
       </c>
-      <c r="AE3" s="66">
+      <c r="AE3" s="64">
         <v>12</v>
       </c>
-      <c r="AF3" s="48">
+      <c r="AF3" s="46">
         <v>14</v>
       </c>
-      <c r="AG3" s="31">
+      <c r="AG3" s="29">
         <v>13</v>
       </c>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="48">
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="46">
         <v>5</v>
       </c>
-      <c r="AQ3" s="31">
+      <c r="AQ3" s="29">
         <v>8</v>
       </c>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="66">
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="64">
         <v>11</v>
       </c>
     </row>
@@ -2358,161 +2365,161 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="34">
+      <c r="B4" s="80"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="32">
         <v>607100</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="75">
         <v>607100</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="81">
         <v>607100</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="33">
         <v>607100</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="32">
         <v>607100</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="75">
         <v>607100</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="65">
         <v>625400</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="32">
         <v>625400</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="32">
         <v>625400</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="31">
         <v>613200</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="31">
         <v>613200</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="31">
         <v>613200</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="31">
         <v>613200</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="31">
         <v>613200</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="31">
         <v>613200</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="67">
+      <c r="S4" s="39"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="65">
         <v>613200</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="32">
         <v>613200</v>
       </c>
-      <c r="W4" s="61"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="33">
+      <c r="W4" s="59"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="31">
         <v>613200</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="31">
         <v>613200</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4" s="32">
         <v>625400</v>
       </c>
-      <c r="AB4" s="34">
+      <c r="AB4" s="32">
         <v>625400</v>
       </c>
-      <c r="AC4" s="34">
+      <c r="AC4" s="32">
         <v>613200</v>
       </c>
-      <c r="AD4" s="33">
+      <c r="AD4" s="31">
         <v>613200</v>
       </c>
-      <c r="AE4" s="68">
+      <c r="AE4" s="66">
         <v>613200</v>
       </c>
-      <c r="AF4" s="50">
+      <c r="AF4" s="48">
         <v>613200</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AG4" s="31">
         <v>613200</v>
       </c>
-      <c r="AH4" s="34">
+      <c r="AH4" s="32">
         <v>613200</v>
       </c>
-      <c r="AI4" s="34">
+      <c r="AI4" s="32">
         <v>613200</v>
       </c>
-      <c r="AJ4" s="34">
+      <c r="AJ4" s="32">
         <v>613200</v>
       </c>
-      <c r="AK4" s="34">
+      <c r="AK4" s="32">
         <v>613200</v>
       </c>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="36">
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="34">
         <v>613200</v>
       </c>
-      <c r="AO4" s="51">
+      <c r="AO4" s="49">
         <v>613200</v>
       </c>
-      <c r="AP4" s="50">
+      <c r="AP4" s="48">
         <v>613200</v>
       </c>
-      <c r="AQ4" s="33">
+      <c r="AQ4" s="31">
         <v>613200</v>
       </c>
-      <c r="AR4" s="34">
+      <c r="AR4" s="32">
         <v>601000</v>
       </c>
-      <c r="AS4" s="34">
+      <c r="AS4" s="32">
         <v>613200</v>
       </c>
-      <c r="AT4" s="34">
+      <c r="AT4" s="32">
         <v>601000</v>
       </c>
-      <c r="AU4" s="35">
+      <c r="AU4" s="33">
         <v>613200</v>
       </c>
-      <c r="AV4" s="36">
+      <c r="AV4" s="34">
         <v>613200</v>
       </c>
-      <c r="AW4" s="36">
+      <c r="AW4" s="34">
         <v>613200</v>
       </c>
-      <c r="AX4" s="51">
+      <c r="AX4" s="49">
         <v>613200</v>
       </c>
-      <c r="AY4" s="83">
+      <c r="AY4" s="81">
         <v>613200</v>
       </c>
-      <c r="AZ4" s="36">
+      <c r="AZ4" s="34">
         <v>613200</v>
       </c>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="36">
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="34">
         <v>613200</v>
       </c>
-      <c r="BD4" s="36">
+      <c r="BD4" s="34">
         <v>613200</v>
       </c>
-      <c r="BE4" s="34">
+      <c r="BE4" s="32">
         <v>601000</v>
       </c>
-      <c r="BF4" s="34">
+      <c r="BF4" s="32">
         <v>613200</v>
       </c>
-      <c r="BG4" s="34">
+      <c r="BG4" s="32">
         <v>607100</v>
       </c>
-      <c r="BH4" s="68">
+      <c r="BH4" s="66">
         <v>613200</v>
       </c>
     </row>
@@ -2520,161 +2527,161 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="38">
+      <c r="B5" s="80"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="36">
         <v>607100</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="76">
         <v>607100</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="82">
         <v>607100</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="37">
         <v>607100</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="36">
         <v>607100</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="76">
         <v>607100</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="67">
         <v>625400</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="36">
         <v>625400</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="36">
         <v>625400</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="35">
         <v>613200</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <v>613200</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="35">
         <v>613200</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="35">
         <v>613200</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="35">
         <v>613200</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="35">
         <v>613200</v>
       </c>
-      <c r="S5" s="41"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="69">
+      <c r="S5" s="39"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="67">
         <v>613200</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="36">
         <v>613200</v>
       </c>
-      <c r="W5" s="61"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="37">
+      <c r="W5" s="59"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="35">
         <v>613200</v>
       </c>
-      <c r="Z5" s="37">
+      <c r="Z5" s="35">
         <v>613200</v>
       </c>
-      <c r="AA5" s="38">
+      <c r="AA5" s="36">
         <v>625400</v>
       </c>
-      <c r="AB5" s="38">
+      <c r="AB5" s="36">
         <v>625400</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AC5" s="36">
         <v>613200</v>
       </c>
-      <c r="AD5" s="37">
+      <c r="AD5" s="35">
         <v>613200</v>
       </c>
-      <c r="AE5" s="70">
+      <c r="AE5" s="68">
         <v>613200</v>
       </c>
-      <c r="AF5" s="52">
+      <c r="AF5" s="50">
         <v>613200</v>
       </c>
-      <c r="AG5" s="37">
+      <c r="AG5" s="35">
         <v>613200</v>
       </c>
-      <c r="AH5" s="38">
+      <c r="AH5" s="36">
         <v>613200</v>
       </c>
-      <c r="AI5" s="38">
+      <c r="AI5" s="36">
         <v>613200</v>
       </c>
-      <c r="AJ5" s="38">
+      <c r="AJ5" s="36">
         <v>613200</v>
       </c>
-      <c r="AK5" s="38">
+      <c r="AK5" s="36">
         <v>613200</v>
       </c>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="40">
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="38">
         <v>613200</v>
       </c>
-      <c r="AO5" s="53">
+      <c r="AO5" s="51">
         <v>613200</v>
       </c>
-      <c r="AP5" s="52">
+      <c r="AP5" s="50">
         <v>613200</v>
       </c>
-      <c r="AQ5" s="37">
+      <c r="AQ5" s="35">
         <v>613200</v>
       </c>
-      <c r="AR5" s="38">
+      <c r="AR5" s="36">
         <v>601000</v>
       </c>
-      <c r="AS5" s="38">
+      <c r="AS5" s="36">
         <v>613200</v>
       </c>
-      <c r="AT5" s="38">
+      <c r="AT5" s="36">
         <v>601000</v>
       </c>
-      <c r="AU5" s="39">
+      <c r="AU5" s="37">
         <v>613200</v>
       </c>
-      <c r="AV5" s="40">
+      <c r="AV5" s="38">
         <v>613200</v>
       </c>
-      <c r="AW5" s="40">
+      <c r="AW5" s="38">
         <v>613200</v>
       </c>
-      <c r="AX5" s="53">
+      <c r="AX5" s="51">
         <v>613200</v>
       </c>
-      <c r="AY5" s="84">
+      <c r="AY5" s="82">
         <v>613200</v>
       </c>
-      <c r="AZ5" s="40">
+      <c r="AZ5" s="38">
         <v>613200</v>
       </c>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="60"/>
-      <c r="BC5" s="40">
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="38">
         <v>613200</v>
       </c>
-      <c r="BD5" s="40">
+      <c r="BD5" s="38">
         <v>613200</v>
       </c>
-      <c r="BE5" s="38">
+      <c r="BE5" s="36">
         <v>601000</v>
       </c>
-      <c r="BF5" s="38">
+      <c r="BF5" s="36">
         <v>613200</v>
       </c>
-      <c r="BG5" s="38">
+      <c r="BG5" s="36">
         <v>607100</v>
       </c>
-      <c r="BH5" s="70">
+      <c r="BH5" s="68">
         <v>613200</v>
       </c>
     </row>
@@ -2682,161 +2689,161 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="34">
+      <c r="B6" s="80"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="32">
         <v>604700</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="75">
         <v>604700</v>
       </c>
-      <c r="F6" s="84">
+      <c r="F6" s="82">
         <v>604700</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="37">
         <v>604700</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="36">
         <v>604700</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="76">
         <v>604700</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="67">
         <v>623000</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="36">
         <v>623000</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="36">
         <v>623000</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="35">
         <v>610800</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="35">
         <v>610800</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="35">
         <v>610800</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="35">
         <v>610800</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="35">
         <v>610800</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="31">
         <v>610800</v>
       </c>
-      <c r="S6" s="41"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="67">
+      <c r="S6" s="39"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="65">
         <v>610800</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="32">
         <v>610800</v>
       </c>
-      <c r="W6" s="61"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="33">
+      <c r="W6" s="59"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="31">
         <v>610800</v>
       </c>
-      <c r="Z6" s="37">
+      <c r="Z6" s="35">
         <v>610800</v>
       </c>
-      <c r="AA6" s="38">
+      <c r="AA6" s="36">
         <v>623000</v>
       </c>
-      <c r="AB6" s="38">
+      <c r="AB6" s="36">
         <v>623000</v>
       </c>
-      <c r="AC6" s="38">
+      <c r="AC6" s="36">
         <v>610800</v>
       </c>
-      <c r="AD6" s="37">
+      <c r="AD6" s="35">
         <v>610800</v>
       </c>
-      <c r="AE6" s="70">
+      <c r="AE6" s="68">
         <v>610800</v>
       </c>
-      <c r="AF6" s="52">
+      <c r="AF6" s="50">
         <v>610800</v>
       </c>
-      <c r="AG6" s="37">
+      <c r="AG6" s="35">
         <v>610800</v>
       </c>
-      <c r="AH6" s="38">
+      <c r="AH6" s="36">
         <v>610800</v>
       </c>
-      <c r="AI6" s="38">
+      <c r="AI6" s="36">
         <v>610800</v>
       </c>
-      <c r="AJ6" s="38">
+      <c r="AJ6" s="36">
         <v>610800</v>
       </c>
-      <c r="AK6" s="34">
+      <c r="AK6" s="32">
         <v>610800</v>
       </c>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="36">
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="34">
         <v>610800</v>
       </c>
-      <c r="AO6" s="51">
+      <c r="AO6" s="49">
         <v>610800</v>
       </c>
-      <c r="AP6" s="52">
+      <c r="AP6" s="50">
         <v>610800</v>
       </c>
-      <c r="AQ6" s="37">
+      <c r="AQ6" s="35">
         <v>610800</v>
       </c>
-      <c r="AR6" s="38">
+      <c r="AR6" s="36">
         <v>598600</v>
       </c>
-      <c r="AS6" s="38">
+      <c r="AS6" s="36">
         <v>610800</v>
       </c>
-      <c r="AT6" s="38">
+      <c r="AT6" s="36">
         <v>598600</v>
       </c>
-      <c r="AU6" s="39">
+      <c r="AU6" s="37">
         <v>610800</v>
       </c>
-      <c r="AV6" s="40">
+      <c r="AV6" s="38">
         <v>610800</v>
       </c>
-      <c r="AW6" s="40">
+      <c r="AW6" s="38">
         <v>610800</v>
       </c>
-      <c r="AX6" s="53">
+      <c r="AX6" s="51">
         <v>610800</v>
       </c>
-      <c r="AY6" s="83">
+      <c r="AY6" s="81">
         <v>610800</v>
       </c>
-      <c r="AZ6" s="36">
+      <c r="AZ6" s="34">
         <v>610800</v>
       </c>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="36">
+      <c r="BA6" s="59"/>
+      <c r="BB6" s="58"/>
+      <c r="BC6" s="34">
         <v>610800</v>
       </c>
-      <c r="BD6" s="40">
+      <c r="BD6" s="38">
         <v>610800</v>
       </c>
-      <c r="BE6" s="38">
+      <c r="BE6" s="36">
         <v>598600</v>
       </c>
-      <c r="BF6" s="38">
+      <c r="BF6" s="36">
         <v>610800</v>
       </c>
-      <c r="BG6" s="38">
+      <c r="BG6" s="36">
         <v>604700</v>
       </c>
-      <c r="BH6" s="70">
+      <c r="BH6" s="68">
         <v>610800</v>
       </c>
     </row>
@@ -2844,161 +2851,161 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="34">
+      <c r="B7" s="80"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="32">
         <v>602300</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="75">
         <v>602300</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="82">
         <v>602300</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="37">
         <v>602300</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="36">
         <v>602300</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="76">
         <v>596200</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="67">
         <v>620600</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="36">
         <v>620600</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="36">
         <v>620600</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="35">
         <v>608400</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="35">
         <v>608400</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="35">
         <v>608400</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="35">
         <v>608400</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="35">
         <v>608400</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="31">
         <v>608400</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="67">
+      <c r="S7" s="39"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="65">
         <v>608400</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="32">
         <v>608400</v>
       </c>
-      <c r="W7" s="61"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="33">
+      <c r="W7" s="59"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="31">
         <v>608400</v>
       </c>
-      <c r="Z7" s="37">
+      <c r="Z7" s="35">
         <v>608400</v>
       </c>
-      <c r="AA7" s="38">
+      <c r="AA7" s="36">
         <v>620600</v>
       </c>
-      <c r="AB7" s="38">
+      <c r="AB7" s="36">
         <v>620600</v>
       </c>
-      <c r="AC7" s="38">
+      <c r="AC7" s="36">
         <v>608400</v>
       </c>
-      <c r="AD7" s="37">
+      <c r="AD7" s="35">
         <v>608400</v>
       </c>
-      <c r="AE7" s="70">
+      <c r="AE7" s="68">
         <v>608400</v>
       </c>
-      <c r="AF7" s="52">
+      <c r="AF7" s="50">
         <v>608400</v>
       </c>
-      <c r="AG7" s="37">
+      <c r="AG7" s="35">
         <v>608400</v>
       </c>
-      <c r="AH7" s="38">
+      <c r="AH7" s="36">
         <v>608400</v>
       </c>
-      <c r="AI7" s="38">
+      <c r="AI7" s="36">
         <v>608400</v>
       </c>
-      <c r="AJ7" s="38">
+      <c r="AJ7" s="36">
         <v>608400</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="32">
         <v>608400</v>
       </c>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="36">
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="34">
         <v>608400</v>
       </c>
-      <c r="AO7" s="51">
+      <c r="AO7" s="49">
         <v>608400</v>
       </c>
-      <c r="AP7" s="52">
+      <c r="AP7" s="50">
         <v>608400</v>
       </c>
-      <c r="AQ7" s="37">
+      <c r="AQ7" s="35">
         <v>608400</v>
       </c>
-      <c r="AR7" s="38">
+      <c r="AR7" s="36">
         <v>596200</v>
       </c>
-      <c r="AS7" s="38">
+      <c r="AS7" s="36">
         <v>608400</v>
       </c>
-      <c r="AT7" s="38">
+      <c r="AT7" s="36">
         <v>596200</v>
       </c>
-      <c r="AU7" s="39">
+      <c r="AU7" s="37">
         <v>608400</v>
       </c>
-      <c r="AV7" s="40">
+      <c r="AV7" s="38">
         <v>608400</v>
       </c>
-      <c r="AW7" s="40">
+      <c r="AW7" s="38">
         <v>608400</v>
       </c>
-      <c r="AX7" s="53">
+      <c r="AX7" s="51">
         <v>608400</v>
       </c>
-      <c r="AY7" s="83">
+      <c r="AY7" s="81">
         <v>608400</v>
       </c>
-      <c r="AZ7" s="36">
+      <c r="AZ7" s="34">
         <v>608400</v>
       </c>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="60"/>
-      <c r="BC7" s="36">
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="58"/>
+      <c r="BC7" s="34">
         <v>608400</v>
       </c>
-      <c r="BD7" s="40">
+      <c r="BD7" s="38">
         <v>608400</v>
       </c>
-      <c r="BE7" s="38">
+      <c r="BE7" s="36">
         <v>596200</v>
       </c>
-      <c r="BF7" s="38">
+      <c r="BF7" s="36">
         <v>608400</v>
       </c>
-      <c r="BG7" s="38">
+      <c r="BG7" s="36">
         <v>602300</v>
       </c>
-      <c r="BH7" s="70">
+      <c r="BH7" s="68">
         <v>608400</v>
       </c>
     </row>
@@ -3006,181 +3013,181 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="81">
         <v>597500</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>597500</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>599900</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="76">
         <v>599900</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="82">
         <v>599900</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>599900</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>599900</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="76">
         <v>593800</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="67">
         <v>612100</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="36">
         <v>612100</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="36">
         <v>612100</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="35">
         <v>599900</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="35">
         <v>599900</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="35">
         <v>599900</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="35">
         <v>599900</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="35">
         <v>599900</v>
       </c>
-      <c r="R8" s="37">
+      <c r="R8" s="35">
         <v>599900</v>
       </c>
-      <c r="S8" s="34">
+      <c r="S8" s="32">
         <v>597500</v>
       </c>
-      <c r="T8" s="77">
+      <c r="T8" s="75">
         <v>597500</v>
       </c>
-      <c r="U8" s="69">
+      <c r="U8" s="67">
         <v>599900</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="36">
         <v>599900</v>
       </c>
-      <c r="W8" s="36">
+      <c r="W8" s="34">
         <v>597500</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="33">
         <v>597500</v>
       </c>
-      <c r="Y8" s="37">
+      <c r="Y8" s="35">
         <v>599900</v>
       </c>
-      <c r="Z8" s="37">
+      <c r="Z8" s="35">
         <v>599900</v>
       </c>
-      <c r="AA8" s="38">
+      <c r="AA8" s="36">
         <v>612100</v>
       </c>
-      <c r="AB8" s="38">
+      <c r="AB8" s="36">
         <v>612100</v>
       </c>
-      <c r="AC8" s="38">
+      <c r="AC8" s="36">
         <v>599900</v>
       </c>
-      <c r="AD8" s="37">
+      <c r="AD8" s="35">
         <v>599900</v>
       </c>
-      <c r="AE8" s="70">
+      <c r="AE8" s="68">
         <v>599900</v>
       </c>
-      <c r="AF8" s="52">
+      <c r="AF8" s="50">
         <v>606000</v>
       </c>
-      <c r="AG8" s="37">
+      <c r="AG8" s="35">
         <v>606000</v>
       </c>
-      <c r="AH8" s="38">
+      <c r="AH8" s="36">
         <v>606000</v>
       </c>
-      <c r="AI8" s="38">
+      <c r="AI8" s="36">
         <v>606000</v>
       </c>
-      <c r="AJ8" s="38">
+      <c r="AJ8" s="36">
         <v>606000</v>
       </c>
-      <c r="AK8" s="38">
+      <c r="AK8" s="36">
         <v>606000</v>
       </c>
-      <c r="AL8" s="35">
+      <c r="AL8" s="33">
         <v>603600</v>
       </c>
-      <c r="AM8" s="36">
+      <c r="AM8" s="34">
         <v>603600</v>
       </c>
-      <c r="AN8" s="40">
+      <c r="AN8" s="38">
         <v>606000</v>
       </c>
-      <c r="AO8" s="53">
+      <c r="AO8" s="51">
         <v>606000</v>
       </c>
-      <c r="AP8" s="52">
+      <c r="AP8" s="50">
         <v>606000</v>
       </c>
-      <c r="AQ8" s="37">
+      <c r="AQ8" s="35">
         <v>606000</v>
       </c>
-      <c r="AR8" s="38">
+      <c r="AR8" s="36">
         <v>593800</v>
       </c>
-      <c r="AS8" s="38">
+      <c r="AS8" s="36">
         <v>606000</v>
       </c>
-      <c r="AT8" s="38">
+      <c r="AT8" s="36">
         <v>593800</v>
       </c>
-      <c r="AU8" s="39">
+      <c r="AU8" s="37">
         <v>606000</v>
       </c>
-      <c r="AV8" s="40">
+      <c r="AV8" s="38">
         <v>606000</v>
       </c>
-      <c r="AW8" s="40">
+      <c r="AW8" s="38">
         <v>606000</v>
       </c>
-      <c r="AX8" s="53">
+      <c r="AX8" s="51">
         <v>606000</v>
       </c>
-      <c r="AY8" s="84">
+      <c r="AY8" s="82">
         <v>606000</v>
       </c>
-      <c r="AZ8" s="40">
+      <c r="AZ8" s="38">
         <v>606000</v>
       </c>
-      <c r="BA8" s="36">
+      <c r="BA8" s="34">
         <v>603600</v>
       </c>
-      <c r="BB8" s="35">
+      <c r="BB8" s="33">
         <v>603600</v>
       </c>
-      <c r="BC8" s="40">
+      <c r="BC8" s="38">
         <v>606000</v>
       </c>
-      <c r="BD8" s="40">
+      <c r="BD8" s="38">
         <v>606000</v>
       </c>
-      <c r="BE8" s="38">
+      <c r="BE8" s="36">
         <v>593800</v>
       </c>
-      <c r="BF8" s="38">
+      <c r="BF8" s="36">
         <v>606000</v>
       </c>
-      <c r="BG8" s="38">
+      <c r="BG8" s="36">
         <v>599900</v>
       </c>
-      <c r="BH8" s="70">
+      <c r="BH8" s="68">
         <v>606000</v>
       </c>
     </row>
@@ -3188,181 +3195,181 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="82">
         <v>597500</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="37">
         <v>597500</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>597500</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="76">
         <v>597500</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="82">
         <v>597500</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="37">
         <v>597500</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="36">
         <v>597500</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="76">
         <v>591400</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="67">
         <v>609700</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>609700</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>609700</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="35">
         <v>597500</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="35">
         <v>597500</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="35">
         <v>597500</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="35">
         <v>597500</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="35">
         <v>597500</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="35">
         <v>597500</v>
       </c>
-      <c r="S9" s="38">
+      <c r="S9" s="36">
         <v>597500</v>
       </c>
-      <c r="T9" s="78">
+      <c r="T9" s="76">
         <v>597500</v>
       </c>
-      <c r="U9" s="69">
+      <c r="U9" s="67">
         <v>597500</v>
       </c>
-      <c r="V9" s="38">
+      <c r="V9" s="36">
         <v>597500</v>
       </c>
-      <c r="W9" s="40">
+      <c r="W9" s="38">
         <v>597500</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="37">
         <v>597500</v>
       </c>
-      <c r="Y9" s="37">
+      <c r="Y9" s="35">
         <v>597500</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="35">
         <v>597500</v>
       </c>
-      <c r="AA9" s="38">
+      <c r="AA9" s="36">
         <v>609700</v>
       </c>
-      <c r="AB9" s="38">
+      <c r="AB9" s="36">
         <v>609700</v>
       </c>
-      <c r="AC9" s="38">
+      <c r="AC9" s="36">
         <v>597500</v>
       </c>
-      <c r="AD9" s="37">
+      <c r="AD9" s="35">
         <v>597500</v>
       </c>
-      <c r="AE9" s="70">
+      <c r="AE9" s="68">
         <v>597500</v>
       </c>
-      <c r="AF9" s="52">
+      <c r="AF9" s="50">
         <v>603600</v>
       </c>
-      <c r="AG9" s="37">
+      <c r="AG9" s="35">
         <v>603600</v>
       </c>
-      <c r="AH9" s="38">
+      <c r="AH9" s="36">
         <v>603600</v>
       </c>
-      <c r="AI9" s="38">
+      <c r="AI9" s="36">
         <v>603600</v>
       </c>
-      <c r="AJ9" s="38">
+      <c r="AJ9" s="36">
         <v>603600</v>
       </c>
-      <c r="AK9" s="38">
+      <c r="AK9" s="36">
         <v>603600</v>
       </c>
-      <c r="AL9" s="39">
+      <c r="AL9" s="37">
         <v>603600</v>
       </c>
-      <c r="AM9" s="40">
+      <c r="AM9" s="38">
         <v>603600</v>
       </c>
-      <c r="AN9" s="40">
+      <c r="AN9" s="38">
         <v>603600</v>
       </c>
-      <c r="AO9" s="53">
+      <c r="AO9" s="51">
         <v>603600</v>
       </c>
-      <c r="AP9" s="52">
+      <c r="AP9" s="50">
         <v>603600</v>
       </c>
-      <c r="AQ9" s="37">
+      <c r="AQ9" s="35">
         <v>603600</v>
       </c>
-      <c r="AR9" s="38">
+      <c r="AR9" s="36">
         <v>591400</v>
       </c>
-      <c r="AS9" s="38">
+      <c r="AS9" s="36">
         <v>603600</v>
       </c>
-      <c r="AT9" s="38">
+      <c r="AT9" s="36">
         <v>591400</v>
       </c>
-      <c r="AU9" s="39">
+      <c r="AU9" s="37">
         <v>603600</v>
       </c>
-      <c r="AV9" s="40">
+      <c r="AV9" s="38">
         <v>603600</v>
       </c>
-      <c r="AW9" s="40">
+      <c r="AW9" s="38">
         <v>603600</v>
       </c>
-      <c r="AX9" s="53">
+      <c r="AX9" s="51">
         <v>603600</v>
       </c>
-      <c r="AY9" s="84">
+      <c r="AY9" s="82">
         <v>603600</v>
       </c>
-      <c r="AZ9" s="40">
+      <c r="AZ9" s="38">
         <v>603600</v>
       </c>
-      <c r="BA9" s="40">
+      <c r="BA9" s="38">
         <v>603600</v>
       </c>
-      <c r="BB9" s="39">
+      <c r="BB9" s="37">
         <v>603600</v>
       </c>
-      <c r="BC9" s="40">
+      <c r="BC9" s="38">
         <v>603600</v>
       </c>
-      <c r="BD9" s="40">
+      <c r="BD9" s="38">
         <v>603600</v>
       </c>
-      <c r="BE9" s="38">
+      <c r="BE9" s="36">
         <v>591400</v>
       </c>
-      <c r="BF9" s="38">
+      <c r="BF9" s="36">
         <v>603600</v>
       </c>
-      <c r="BG9" s="38">
+      <c r="BG9" s="36">
         <v>597500</v>
       </c>
-      <c r="BH9" s="70">
+      <c r="BH9" s="68">
         <v>603600</v>
       </c>
     </row>
@@ -3370,181 +3377,181 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="82">
         <v>595100</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="37">
         <v>595100</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>595100</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="76">
         <v>595100</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="82">
         <v>595100</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>595100</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="36">
         <v>595100</v>
       </c>
-      <c r="I10" s="78">
+      <c r="I10" s="76">
         <v>589000</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="67">
         <v>607300</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>607300</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="36">
         <v>607300</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="35">
         <v>595100</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="35">
         <v>595100</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="35">
         <v>595100</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="35">
         <v>595100</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="35">
         <v>595100</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="35">
         <v>595100</v>
       </c>
-      <c r="S10" s="38">
+      <c r="S10" s="36">
         <v>595100</v>
       </c>
-      <c r="T10" s="78">
+      <c r="T10" s="76">
         <v>595100</v>
       </c>
-      <c r="U10" s="69">
+      <c r="U10" s="67">
         <v>595100</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="36">
         <v>595100</v>
       </c>
-      <c r="W10" s="40">
+      <c r="W10" s="38">
         <v>595100</v>
       </c>
-      <c r="X10" s="39">
+      <c r="X10" s="37">
         <v>595100</v>
       </c>
-      <c r="Y10" s="37">
+      <c r="Y10" s="35">
         <v>595100</v>
       </c>
-      <c r="Z10" s="37">
+      <c r="Z10" s="35">
         <v>595100</v>
       </c>
-      <c r="AA10" s="38">
+      <c r="AA10" s="36">
         <v>607300</v>
       </c>
-      <c r="AB10" s="38">
+      <c r="AB10" s="36">
         <v>607300</v>
       </c>
-      <c r="AC10" s="38">
+      <c r="AC10" s="36">
         <v>595100</v>
       </c>
-      <c r="AD10" s="37">
+      <c r="AD10" s="35">
         <v>595100</v>
       </c>
-      <c r="AE10" s="70">
+      <c r="AE10" s="68">
         <v>595100</v>
       </c>
-      <c r="AF10" s="52">
+      <c r="AF10" s="50">
         <v>601200</v>
       </c>
-      <c r="AG10" s="37">
+      <c r="AG10" s="35">
         <v>601200</v>
       </c>
-      <c r="AH10" s="38">
+      <c r="AH10" s="36">
         <v>595100</v>
       </c>
-      <c r="AI10" s="38">
+      <c r="AI10" s="36">
         <v>595100</v>
       </c>
-      <c r="AJ10" s="38">
+      <c r="AJ10" s="36">
         <v>601200</v>
       </c>
-      <c r="AK10" s="38">
+      <c r="AK10" s="36">
         <v>601200</v>
       </c>
-      <c r="AL10" s="39">
+      <c r="AL10" s="37">
         <v>601200</v>
       </c>
-      <c r="AM10" s="40">
+      <c r="AM10" s="38">
         <v>601200</v>
       </c>
-      <c r="AN10" s="40">
+      <c r="AN10" s="38">
         <v>601200</v>
       </c>
-      <c r="AO10" s="53">
+      <c r="AO10" s="51">
         <v>601200</v>
       </c>
-      <c r="AP10" s="52">
+      <c r="AP10" s="50">
         <v>601200</v>
       </c>
-      <c r="AQ10" s="37">
+      <c r="AQ10" s="35">
         <v>601200</v>
       </c>
-      <c r="AR10" s="38">
+      <c r="AR10" s="36">
         <v>589000</v>
       </c>
-      <c r="AS10" s="38">
+      <c r="AS10" s="36">
         <v>601200</v>
       </c>
-      <c r="AT10" s="38">
+      <c r="AT10" s="36">
         <v>589000</v>
       </c>
-      <c r="AU10" s="39">
+      <c r="AU10" s="37">
         <v>601200</v>
       </c>
-      <c r="AV10" s="40">
+      <c r="AV10" s="38">
         <v>601200</v>
       </c>
-      <c r="AW10" s="40">
+      <c r="AW10" s="38">
         <v>601200</v>
       </c>
-      <c r="AX10" s="53">
+      <c r="AX10" s="51">
         <v>601200</v>
       </c>
-      <c r="AY10" s="84">
+      <c r="AY10" s="82">
         <v>601200</v>
       </c>
-      <c r="AZ10" s="40">
+      <c r="AZ10" s="38">
         <v>601200</v>
       </c>
-      <c r="BA10" s="40">
+      <c r="BA10" s="38">
         <v>601200</v>
       </c>
-      <c r="BB10" s="39">
+      <c r="BB10" s="37">
         <v>601200</v>
       </c>
-      <c r="BC10" s="40">
+      <c r="BC10" s="38">
         <v>601200</v>
       </c>
-      <c r="BD10" s="40">
+      <c r="BD10" s="38">
         <v>601200</v>
       </c>
-      <c r="BE10" s="38">
+      <c r="BE10" s="36">
         <v>589000</v>
       </c>
-      <c r="BF10" s="38">
+      <c r="BF10" s="36">
         <v>601200</v>
       </c>
-      <c r="BG10" s="38">
+      <c r="BG10" s="36">
         <v>595100</v>
       </c>
-      <c r="BH10" s="70">
+      <c r="BH10" s="68">
         <v>601200</v>
       </c>
     </row>
@@ -3552,181 +3559,181 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="82">
         <v>592700</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="37">
         <v>592700</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>592700</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="76">
         <v>592700</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="82">
         <v>592700</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="37">
         <v>592700</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="36">
         <v>592700</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="76">
         <v>586600</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="67">
         <v>598800</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>598800</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>598800</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="35">
         <v>592700</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="35">
         <v>592700</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="35">
         <v>592700</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="35">
         <v>592700</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="35">
         <v>592700</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R11" s="35">
         <v>592700</v>
       </c>
-      <c r="S11" s="38">
+      <c r="S11" s="36">
         <v>592700</v>
       </c>
-      <c r="T11" s="78">
+      <c r="T11" s="76">
         <v>592700</v>
       </c>
-      <c r="U11" s="69">
+      <c r="U11" s="67">
         <v>592700</v>
       </c>
-      <c r="V11" s="38">
+      <c r="V11" s="36">
         <v>592700</v>
       </c>
-      <c r="W11" s="40">
+      <c r="W11" s="38">
         <v>592700</v>
       </c>
-      <c r="X11" s="39">
+      <c r="X11" s="37">
         <v>592700</v>
       </c>
-      <c r="Y11" s="37">
+      <c r="Y11" s="35">
         <v>592700</v>
       </c>
-      <c r="Z11" s="37">
+      <c r="Z11" s="35">
         <v>592700</v>
       </c>
-      <c r="AA11" s="38">
+      <c r="AA11" s="36">
         <v>598800</v>
       </c>
-      <c r="AB11" s="38">
+      <c r="AB11" s="36">
         <v>598800</v>
       </c>
-      <c r="AC11" s="38">
+      <c r="AC11" s="36">
         <v>592700</v>
       </c>
-      <c r="AD11" s="37">
+      <c r="AD11" s="35">
         <v>592700</v>
       </c>
-      <c r="AE11" s="70">
+      <c r="AE11" s="68">
         <v>592700</v>
       </c>
-      <c r="AF11" s="52">
+      <c r="AF11" s="50">
         <v>598800</v>
       </c>
-      <c r="AG11" s="37">
+      <c r="AG11" s="35">
         <v>598800</v>
       </c>
-      <c r="AH11" s="38">
+      <c r="AH11" s="36">
         <v>586600</v>
       </c>
-      <c r="AI11" s="38">
+      <c r="AI11" s="36">
         <v>586600</v>
       </c>
-      <c r="AJ11" s="38">
+      <c r="AJ11" s="36">
         <v>598800</v>
       </c>
-      <c r="AK11" s="38">
+      <c r="AK11" s="36">
         <v>598800</v>
       </c>
-      <c r="AL11" s="39">
+      <c r="AL11" s="37">
         <v>598800</v>
       </c>
-      <c r="AM11" s="40">
+      <c r="AM11" s="38">
         <v>598800</v>
       </c>
-      <c r="AN11" s="40">
+      <c r="AN11" s="38">
         <v>598800</v>
       </c>
-      <c r="AO11" s="53">
+      <c r="AO11" s="51">
         <v>598800</v>
       </c>
-      <c r="AP11" s="52">
+      <c r="AP11" s="50">
         <v>598800</v>
       </c>
-      <c r="AQ11" s="37">
+      <c r="AQ11" s="35">
         <v>598800</v>
       </c>
-      <c r="AR11" s="38">
+      <c r="AR11" s="36">
         <v>586600</v>
       </c>
-      <c r="AS11" s="38">
+      <c r="AS11" s="36">
         <v>592700</v>
       </c>
-      <c r="AT11" s="38">
+      <c r="AT11" s="36">
         <v>586600</v>
       </c>
-      <c r="AU11" s="39">
+      <c r="AU11" s="37">
         <v>598800</v>
       </c>
-      <c r="AV11" s="40">
+      <c r="AV11" s="38">
         <v>598800</v>
       </c>
-      <c r="AW11" s="40">
+      <c r="AW11" s="38">
         <v>598800</v>
       </c>
-      <c r="AX11" s="53">
+      <c r="AX11" s="51">
         <v>598800</v>
       </c>
-      <c r="AY11" s="84">
+      <c r="AY11" s="82">
         <v>598800</v>
       </c>
-      <c r="AZ11" s="40">
+      <c r="AZ11" s="38">
         <v>598800</v>
       </c>
-      <c r="BA11" s="40">
+      <c r="BA11" s="38">
         <v>598800</v>
       </c>
-      <c r="BB11" s="39">
+      <c r="BB11" s="37">
         <v>598800</v>
       </c>
-      <c r="BC11" s="40">
+      <c r="BC11" s="38">
         <v>598800</v>
       </c>
-      <c r="BD11" s="40">
+      <c r="BD11" s="38">
         <v>598800</v>
       </c>
-      <c r="BE11" s="38">
+      <c r="BE11" s="36">
         <v>586600</v>
       </c>
-      <c r="BF11" s="38">
+      <c r="BF11" s="36">
         <v>598800</v>
       </c>
-      <c r="BG11" s="38">
+      <c r="BG11" s="36">
         <v>592700</v>
       </c>
-      <c r="BH11" s="70">
+      <c r="BH11" s="68">
         <v>598800</v>
       </c>
     </row>
@@ -3734,181 +3741,181 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="82">
         <v>590300</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <v>590300</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>590300</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="76">
         <v>590300</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="82">
         <v>590300</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <v>590300</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="36">
         <v>590300</v>
       </c>
-      <c r="I12" s="78">
+      <c r="I12" s="76">
         <v>584200</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="65">
         <v>590300</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="32">
         <v>590300</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="32">
         <v>590300</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="31">
         <v>590300</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="35">
         <v>590300</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="35">
         <v>590300</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="35">
         <v>590300</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="35">
         <v>590300</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R12" s="35">
         <v>590300</v>
       </c>
-      <c r="S12" s="38">
+      <c r="S12" s="36">
         <v>590300</v>
       </c>
-      <c r="T12" s="77">
+      <c r="T12" s="75">
         <v>590300</v>
       </c>
-      <c r="U12" s="69">
+      <c r="U12" s="67">
         <v>590300</v>
       </c>
-      <c r="V12" s="38">
+      <c r="V12" s="36">
         <v>590300</v>
       </c>
-      <c r="W12" s="40">
+      <c r="W12" s="38">
         <v>590300</v>
       </c>
-      <c r="X12" s="39">
+      <c r="X12" s="37">
         <v>590300</v>
       </c>
-      <c r="Y12" s="37">
+      <c r="Y12" s="35">
         <v>590300</v>
       </c>
-      <c r="Z12" s="33">
+      <c r="Z12" s="31">
         <v>590300</v>
       </c>
-      <c r="AA12" s="34">
+      <c r="AA12" s="32">
         <v>590300</v>
       </c>
-      <c r="AB12" s="34">
+      <c r="AB12" s="32">
         <v>590300</v>
       </c>
-      <c r="AC12" s="38">
+      <c r="AC12" s="36">
         <v>590300</v>
       </c>
-      <c r="AD12" s="37">
+      <c r="AD12" s="35">
         <v>590300</v>
       </c>
-      <c r="AE12" s="70">
+      <c r="AE12" s="68">
         <v>590300</v>
       </c>
-      <c r="AF12" s="52">
+      <c r="AF12" s="50">
         <v>596400</v>
       </c>
-      <c r="AG12" s="37">
+      <c r="AG12" s="35">
         <v>596400</v>
       </c>
-      <c r="AH12" s="38">
+      <c r="AH12" s="36">
         <v>584200</v>
       </c>
-      <c r="AI12" s="38">
+      <c r="AI12" s="36">
         <v>584200</v>
       </c>
-      <c r="AJ12" s="38">
+      <c r="AJ12" s="36">
         <v>596400</v>
       </c>
-      <c r="AK12" s="38">
+      <c r="AK12" s="36">
         <v>596400</v>
       </c>
-      <c r="AL12" s="39">
+      <c r="AL12" s="37">
         <v>596400</v>
       </c>
-      <c r="AM12" s="40">
+      <c r="AM12" s="38">
         <v>596400</v>
       </c>
-      <c r="AN12" s="40">
+      <c r="AN12" s="38">
         <v>596400</v>
       </c>
-      <c r="AO12" s="53">
+      <c r="AO12" s="51">
         <v>596400</v>
       </c>
-      <c r="AP12" s="52">
+      <c r="AP12" s="50">
         <v>596400</v>
       </c>
-      <c r="AQ12" s="37">
+      <c r="AQ12" s="35">
         <v>596400</v>
       </c>
-      <c r="AR12" s="34">
+      <c r="AR12" s="32">
         <v>584200</v>
       </c>
-      <c r="AS12" s="34">
+      <c r="AS12" s="32">
         <v>584200</v>
       </c>
-      <c r="AT12" s="34">
+      <c r="AT12" s="32">
         <v>584200</v>
       </c>
-      <c r="AU12" s="39">
+      <c r="AU12" s="37">
         <v>596400</v>
       </c>
-      <c r="AV12" s="40">
+      <c r="AV12" s="38">
         <v>596400</v>
       </c>
-      <c r="AW12" s="40">
+      <c r="AW12" s="38">
         <v>596400</v>
       </c>
-      <c r="AX12" s="53">
+      <c r="AX12" s="51">
         <v>596400</v>
       </c>
-      <c r="AY12" s="84">
+      <c r="AY12" s="82">
         <v>596400</v>
       </c>
-      <c r="AZ12" s="40">
+      <c r="AZ12" s="38">
         <v>596400</v>
       </c>
-      <c r="BA12" s="40">
+      <c r="BA12" s="38">
         <v>596400</v>
       </c>
-      <c r="BB12" s="39">
+      <c r="BB12" s="37">
         <v>596400</v>
       </c>
-      <c r="BC12" s="40">
+      <c r="BC12" s="38">
         <v>596400</v>
       </c>
-      <c r="BD12" s="40">
+      <c r="BD12" s="38">
         <v>596400</v>
       </c>
-      <c r="BE12" s="38">
+      <c r="BE12" s="36">
         <v>584200</v>
       </c>
-      <c r="BF12" s="38">
+      <c r="BF12" s="36">
         <v>596400</v>
       </c>
-      <c r="BG12" s="38">
+      <c r="BG12" s="36">
         <v>590300</v>
       </c>
-      <c r="BH12" s="70">
+      <c r="BH12" s="68">
         <v>596400</v>
       </c>
     </row>
@@ -3916,181 +3923,181 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="82">
         <v>587900</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>587900</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>587900</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="76">
         <v>587900</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="82">
         <v>587900</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="37">
         <v>587900</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="36">
         <v>587900</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="76">
         <v>581800</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="67">
         <v>575700</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>575700</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>587900</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="35">
         <v>587900</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="35">
         <v>587900</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="35">
         <v>587900</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="35">
         <v>587900</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="35">
         <v>587900</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="35">
         <v>587900</v>
       </c>
-      <c r="S13" s="38">
+      <c r="S13" s="36">
         <v>587900</v>
       </c>
-      <c r="T13" s="78">
+      <c r="T13" s="76">
         <v>587900</v>
       </c>
-      <c r="U13" s="69">
+      <c r="U13" s="67">
         <v>587900</v>
       </c>
-      <c r="V13" s="38">
+      <c r="V13" s="36">
         <v>587900</v>
       </c>
-      <c r="W13" s="40">
+      <c r="W13" s="38">
         <v>587900</v>
       </c>
-      <c r="X13" s="39">
+      <c r="X13" s="37">
         <v>587900</v>
       </c>
-      <c r="Y13" s="37">
+      <c r="Y13" s="35">
         <v>587900</v>
       </c>
-      <c r="Z13" s="37">
+      <c r="Z13" s="35">
         <v>587900</v>
       </c>
-      <c r="AA13" s="38">
+      <c r="AA13" s="36">
         <v>587900</v>
       </c>
-      <c r="AB13" s="38">
+      <c r="AB13" s="36">
         <v>587900</v>
       </c>
-      <c r="AC13" s="38">
+      <c r="AC13" s="36">
         <v>587900</v>
       </c>
-      <c r="AD13" s="37">
+      <c r="AD13" s="35">
         <v>587900</v>
       </c>
-      <c r="AE13" s="70">
+      <c r="AE13" s="68">
         <v>587900</v>
       </c>
-      <c r="AF13" s="52">
+      <c r="AF13" s="50">
         <v>594000</v>
       </c>
-      <c r="AG13" s="37">
+      <c r="AG13" s="35">
         <v>594000</v>
       </c>
-      <c r="AH13" s="38">
+      <c r="AH13" s="36">
         <v>581800</v>
       </c>
-      <c r="AI13" s="38">
+      <c r="AI13" s="36">
         <v>581800</v>
       </c>
-      <c r="AJ13" s="38">
+      <c r="AJ13" s="36">
         <v>594000</v>
       </c>
-      <c r="AK13" s="38">
+      <c r="AK13" s="36">
         <v>594000</v>
       </c>
-      <c r="AL13" s="39">
+      <c r="AL13" s="37">
         <v>594000</v>
       </c>
-      <c r="AM13" s="40">
+      <c r="AM13" s="38">
         <v>594000</v>
       </c>
-      <c r="AN13" s="40">
+      <c r="AN13" s="38">
         <v>594000</v>
       </c>
-      <c r="AO13" s="53">
+      <c r="AO13" s="51">
         <v>594000</v>
       </c>
-      <c r="AP13" s="52">
+      <c r="AP13" s="50">
         <v>594000</v>
       </c>
-      <c r="AQ13" s="37">
+      <c r="AQ13" s="35">
         <v>594000</v>
       </c>
-      <c r="AR13" s="38">
+      <c r="AR13" s="36">
         <v>581800</v>
       </c>
-      <c r="AS13" s="38">
+      <c r="AS13" s="36">
         <v>581800</v>
       </c>
-      <c r="AT13" s="38">
+      <c r="AT13" s="36">
         <v>581800</v>
       </c>
-      <c r="AU13" s="39">
+      <c r="AU13" s="37">
         <v>594000</v>
       </c>
-      <c r="AV13" s="40">
+      <c r="AV13" s="38">
         <v>594000</v>
       </c>
-      <c r="AW13" s="40">
+      <c r="AW13" s="38">
         <v>594000</v>
       </c>
-      <c r="AX13" s="53">
+      <c r="AX13" s="51">
         <v>594000</v>
       </c>
-      <c r="AY13" s="84">
+      <c r="AY13" s="82">
         <v>594000</v>
       </c>
-      <c r="AZ13" s="40">
+      <c r="AZ13" s="38">
         <v>594000</v>
       </c>
-      <c r="BA13" s="40">
+      <c r="BA13" s="38">
         <v>594000</v>
       </c>
-      <c r="BB13" s="39">
+      <c r="BB13" s="37">
         <v>594000</v>
       </c>
-      <c r="BC13" s="40">
+      <c r="BC13" s="38">
         <v>594000</v>
       </c>
-      <c r="BD13" s="40">
+      <c r="BD13" s="38">
         <v>594000</v>
       </c>
-      <c r="BE13" s="38">
+      <c r="BE13" s="36">
         <v>581800</v>
       </c>
-      <c r="BF13" s="38">
+      <c r="BF13" s="36">
         <v>594000</v>
       </c>
-      <c r="BG13" s="38">
+      <c r="BG13" s="36">
         <v>587900</v>
       </c>
-      <c r="BH13" s="70">
+      <c r="BH13" s="68">
         <v>594000</v>
       </c>
     </row>
@@ -4098,177 +4105,177 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="82">
         <v>585500</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="37">
         <v>585500</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>585500</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="76">
         <v>585500</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="82">
         <v>585500</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="37">
         <v>585500</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>585500</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="76">
         <v>579400</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="67">
         <v>573300</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>573300</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="36">
         <v>585500</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="35">
         <v>585500</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="35">
         <v>585500</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="35">
         <v>585500</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="35">
         <v>585500</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="35">
         <v>585500</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="35">
         <v>585500</v>
       </c>
-      <c r="S14" s="38">
+      <c r="S14" s="36">
         <v>585500</v>
       </c>
-      <c r="T14" s="78">
+      <c r="T14" s="76">
         <v>585500</v>
       </c>
-      <c r="U14" s="67">
+      <c r="U14" s="65">
         <v>585500</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="32">
         <v>585500</v>
       </c>
-      <c r="W14" s="36">
+      <c r="W14" s="34">
         <v>585500</v>
       </c>
-      <c r="X14" s="35">
+      <c r="X14" s="33">
         <v>585500</v>
       </c>
-      <c r="Y14" s="33">
+      <c r="Y14" s="31">
         <v>585500</v>
       </c>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="34">
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="32">
         <v>585500</v>
       </c>
-      <c r="AB14" s="34">
+      <c r="AB14" s="32">
         <v>585500</v>
       </c>
-      <c r="AC14" s="72">
+      <c r="AC14" s="70">
         <v>585500</v>
       </c>
-      <c r="AD14" s="37">
+      <c r="AD14" s="35">
         <v>585500</v>
       </c>
-      <c r="AE14" s="70">
+      <c r="AE14" s="68">
         <v>585500</v>
       </c>
-      <c r="AF14" s="52">
+      <c r="AF14" s="50">
         <v>591600</v>
       </c>
-      <c r="AG14" s="37">
+      <c r="AG14" s="35">
         <v>591600</v>
       </c>
-      <c r="AH14" s="38">
+      <c r="AH14" s="36">
         <v>579400</v>
       </c>
-      <c r="AI14" s="38">
+      <c r="AI14" s="36">
         <v>579400</v>
       </c>
-      <c r="AJ14" s="38">
+      <c r="AJ14" s="36">
         <v>591600</v>
       </c>
-      <c r="AK14" s="38">
+      <c r="AK14" s="36">
         <v>591600</v>
       </c>
-      <c r="AL14" s="39">
+      <c r="AL14" s="37">
         <v>591600</v>
       </c>
-      <c r="AM14" s="40">
+      <c r="AM14" s="38">
         <v>591600</v>
       </c>
-      <c r="AN14" s="40">
+      <c r="AN14" s="38">
         <v>591600</v>
       </c>
-      <c r="AO14" s="53">
+      <c r="AO14" s="51">
         <v>591600</v>
       </c>
-      <c r="AP14" s="50">
+      <c r="AP14" s="48">
         <v>591600</v>
       </c>
-      <c r="AQ14" s="33">
+      <c r="AQ14" s="31">
         <v>591600</v>
       </c>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="34">
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="32">
         <v>579400</v>
       </c>
-      <c r="AT14" s="34">
+      <c r="AT14" s="32">
         <v>579400</v>
       </c>
-      <c r="AU14" s="35">
+      <c r="AU14" s="33">
         <v>591600</v>
       </c>
-      <c r="AV14" s="36">
+      <c r="AV14" s="34">
         <v>591600</v>
       </c>
-      <c r="AW14" s="36">
+      <c r="AW14" s="34">
         <v>591600</v>
       </c>
-      <c r="AX14" s="51">
+      <c r="AX14" s="49">
         <v>591600</v>
       </c>
-      <c r="AY14" s="84">
+      <c r="AY14" s="82">
         <v>591600</v>
       </c>
-      <c r="AZ14" s="40">
+      <c r="AZ14" s="38">
         <v>591600</v>
       </c>
-      <c r="BA14" s="40">
+      <c r="BA14" s="38">
         <v>591600</v>
       </c>
-      <c r="BB14" s="39">
+      <c r="BB14" s="37">
         <v>591600</v>
       </c>
-      <c r="BC14" s="40">
+      <c r="BC14" s="38">
         <v>591600</v>
       </c>
-      <c r="BD14" s="40">
+      <c r="BD14" s="38">
         <v>591600</v>
       </c>
-      <c r="BE14" s="38">
+      <c r="BE14" s="36">
         <v>579400</v>
       </c>
-      <c r="BF14" s="38">
+      <c r="BF14" s="36">
         <v>591600</v>
       </c>
-      <c r="BG14" s="38">
+      <c r="BG14" s="36">
         <v>585500</v>
       </c>
-      <c r="BH14" s="70">
+      <c r="BH14" s="68">
         <v>591600</v>
       </c>
     </row>
@@ -4276,181 +4283,181 @@
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="82">
         <v>583100</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>583100</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>583100</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="76">
         <v>583100</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="82">
         <v>583100</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="37">
         <v>583100</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="36">
         <v>583100</v>
       </c>
-      <c r="I15" s="78">
+      <c r="I15" s="76">
         <v>577000</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="67">
         <v>570900</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>570900</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="36">
         <v>570900</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="35">
         <v>583100</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="35">
         <v>583100</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="35">
         <v>583100</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="35">
         <v>583100</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="35">
         <v>583100</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="35">
         <v>583100</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="36">
         <v>583100</v>
       </c>
-      <c r="T15" s="78">
+      <c r="T15" s="76">
         <v>583100</v>
       </c>
-      <c r="U15" s="69">
+      <c r="U15" s="67">
         <v>583100</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="36">
         <v>583100</v>
       </c>
-      <c r="W15" s="40">
+      <c r="W15" s="38">
         <v>583100</v>
       </c>
-      <c r="X15" s="39">
+      <c r="X15" s="37">
         <v>583100</v>
       </c>
-      <c r="Y15" s="37">
+      <c r="Y15" s="35">
         <v>583100</v>
       </c>
-      <c r="Z15" s="37">
+      <c r="Z15" s="35">
         <v>583100</v>
       </c>
-      <c r="AA15" s="38">
+      <c r="AA15" s="36">
         <v>570900</v>
       </c>
-      <c r="AB15" s="38">
+      <c r="AB15" s="36">
         <v>570900</v>
       </c>
-      <c r="AC15" s="38">
+      <c r="AC15" s="36">
         <v>583100</v>
       </c>
-      <c r="AD15" s="37">
+      <c r="AD15" s="35">
         <v>583100</v>
       </c>
-      <c r="AE15" s="70">
+      <c r="AE15" s="68">
         <v>583100</v>
       </c>
-      <c r="AF15" s="52">
+      <c r="AF15" s="50">
         <v>589200</v>
       </c>
-      <c r="AG15" s="37">
+      <c r="AG15" s="35">
         <v>589200</v>
       </c>
-      <c r="AH15" s="38">
+      <c r="AH15" s="36">
         <v>577000</v>
       </c>
-      <c r="AI15" s="38">
+      <c r="AI15" s="36">
         <v>577000</v>
       </c>
-      <c r="AJ15" s="38">
+      <c r="AJ15" s="36">
         <v>589200</v>
       </c>
-      <c r="AK15" s="38">
+      <c r="AK15" s="36">
         <v>589200</v>
       </c>
-      <c r="AL15" s="39">
+      <c r="AL15" s="37">
         <v>589200</v>
       </c>
-      <c r="AM15" s="40">
+      <c r="AM15" s="38">
         <v>589200</v>
       </c>
-      <c r="AN15" s="40">
+      <c r="AN15" s="38">
         <v>589200</v>
       </c>
-      <c r="AO15" s="53">
+      <c r="AO15" s="51">
         <v>589200</v>
       </c>
-      <c r="AP15" s="52">
+      <c r="AP15" s="50">
         <v>589200</v>
       </c>
-      <c r="AQ15" s="37">
+      <c r="AQ15" s="35">
         <v>589200</v>
       </c>
-      <c r="AR15" s="38">
+      <c r="AR15" s="36">
         <v>577000</v>
       </c>
-      <c r="AS15" s="38">
+      <c r="AS15" s="36">
         <v>564800</v>
       </c>
-      <c r="AT15" s="38">
+      <c r="AT15" s="36">
         <v>577000</v>
       </c>
-      <c r="AU15" s="39">
+      <c r="AU15" s="37">
         <v>589200</v>
       </c>
-      <c r="AV15" s="40">
+      <c r="AV15" s="38">
         <v>589200</v>
       </c>
-      <c r="AW15" s="40">
+      <c r="AW15" s="38">
         <v>589200</v>
       </c>
-      <c r="AX15" s="53">
+      <c r="AX15" s="51">
         <v>589200</v>
       </c>
-      <c r="AY15" s="84">
+      <c r="AY15" s="82">
         <v>589200</v>
       </c>
-      <c r="AZ15" s="40">
+      <c r="AZ15" s="38">
         <v>589200</v>
       </c>
-      <c r="BA15" s="40">
+      <c r="BA15" s="38">
         <v>589200</v>
       </c>
-      <c r="BB15" s="39">
+      <c r="BB15" s="37">
         <v>589200</v>
       </c>
-      <c r="BC15" s="40">
+      <c r="BC15" s="38">
         <v>589200</v>
       </c>
-      <c r="BD15" s="40">
+      <c r="BD15" s="38">
         <v>589200</v>
       </c>
-      <c r="BE15" s="38">
+      <c r="BE15" s="36">
         <v>577000</v>
       </c>
-      <c r="BF15" s="38">
+      <c r="BF15" s="36">
         <v>589200</v>
       </c>
-      <c r="BG15" s="38">
+      <c r="BG15" s="36">
         <v>583100</v>
       </c>
-      <c r="BH15" s="70">
+      <c r="BH15" s="68">
         <v>589200</v>
       </c>
     </row>
@@ -4458,181 +4465,181 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="82">
         <v>577000</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>577000</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>577000</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="76">
         <v>577000</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="82">
         <v>577000</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="37">
         <v>577000</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>577000</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="76">
         <v>570900</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="67">
         <v>552600</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>552600</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="36">
         <v>552600</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="35">
         <v>577000</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="35">
         <v>577000</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="35">
         <v>577000</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="35">
         <v>577000</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="35">
         <v>577000</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="35">
         <v>577000</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="36">
         <v>577000</v>
       </c>
-      <c r="T16" s="78">
+      <c r="T16" s="76">
         <v>577000</v>
       </c>
-      <c r="U16" s="69">
+      <c r="U16" s="67">
         <v>577000</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="36">
         <v>577000</v>
       </c>
-      <c r="W16" s="40">
+      <c r="W16" s="38">
         <v>577000</v>
       </c>
-      <c r="X16" s="39">
+      <c r="X16" s="37">
         <v>577000</v>
       </c>
-      <c r="Y16" s="37">
+      <c r="Y16" s="35">
         <v>577000</v>
       </c>
-      <c r="Z16" s="37">
+      <c r="Z16" s="35">
         <v>577000</v>
       </c>
-      <c r="AA16" s="38">
+      <c r="AA16" s="36">
         <v>552600</v>
       </c>
-      <c r="AB16" s="38">
+      <c r="AB16" s="36">
         <v>552600</v>
       </c>
-      <c r="AC16" s="38">
+      <c r="AC16" s="36">
         <v>577000</v>
       </c>
-      <c r="AD16" s="37">
+      <c r="AD16" s="35">
         <v>577000</v>
       </c>
-      <c r="AE16" s="70">
+      <c r="AE16" s="68">
         <v>577000</v>
       </c>
-      <c r="AF16" s="52">
+      <c r="AF16" s="50">
         <v>583100</v>
       </c>
-      <c r="AG16" s="37">
+      <c r="AG16" s="35">
         <v>583100</v>
       </c>
-      <c r="AH16" s="38">
+      <c r="AH16" s="36">
         <v>570900</v>
       </c>
-      <c r="AI16" s="38">
+      <c r="AI16" s="36">
         <v>570900</v>
       </c>
-      <c r="AJ16" s="38">
+      <c r="AJ16" s="36">
         <v>583100</v>
       </c>
-      <c r="AK16" s="38">
+      <c r="AK16" s="36">
         <v>583100</v>
       </c>
-      <c r="AL16" s="39">
+      <c r="AL16" s="37">
         <v>583100</v>
       </c>
-      <c r="AM16" s="40">
+      <c r="AM16" s="38">
         <v>583100</v>
       </c>
-      <c r="AN16" s="40">
+      <c r="AN16" s="38">
         <v>583100</v>
       </c>
-      <c r="AO16" s="53">
+      <c r="AO16" s="51">
         <v>583100</v>
       </c>
-      <c r="AP16" s="52">
+      <c r="AP16" s="50">
         <v>583100</v>
       </c>
-      <c r="AQ16" s="37">
+      <c r="AQ16" s="35">
         <v>583100</v>
       </c>
-      <c r="AR16" s="38">
+      <c r="AR16" s="36">
         <v>570900</v>
       </c>
-      <c r="AS16" s="38">
+      <c r="AS16" s="36">
         <v>558700</v>
       </c>
-      <c r="AT16" s="38">
+      <c r="AT16" s="36">
         <v>570900</v>
       </c>
-      <c r="AU16" s="39">
+      <c r="AU16" s="37">
         <v>583100</v>
       </c>
-      <c r="AV16" s="40">
+      <c r="AV16" s="38">
         <v>583100</v>
       </c>
-      <c r="AW16" s="40">
+      <c r="AW16" s="38">
         <v>583100</v>
       </c>
-      <c r="AX16" s="53">
+      <c r="AX16" s="51">
         <v>583100</v>
       </c>
-      <c r="AY16" s="84">
+      <c r="AY16" s="82">
         <v>583100</v>
       </c>
-      <c r="AZ16" s="40">
+      <c r="AZ16" s="38">
         <v>583100</v>
       </c>
-      <c r="BA16" s="40">
+      <c r="BA16" s="38">
         <v>583100</v>
       </c>
-      <c r="BB16" s="39">
+      <c r="BB16" s="37">
         <v>583100</v>
       </c>
-      <c r="BC16" s="40">
+      <c r="BC16" s="38">
         <v>583100</v>
       </c>
-      <c r="BD16" s="40">
+      <c r="BD16" s="38">
         <v>583100</v>
       </c>
-      <c r="BE16" s="38">
+      <c r="BE16" s="36">
         <v>570900</v>
       </c>
-      <c r="BF16" s="38">
+      <c r="BF16" s="36">
         <v>583100</v>
       </c>
-      <c r="BG16" s="38">
+      <c r="BG16" s="36">
         <v>577000</v>
       </c>
-      <c r="BH16" s="70">
+      <c r="BH16" s="68">
         <v>583100</v>
       </c>
     </row>
@@ -4640,181 +4647,181 @@
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="82">
         <v>570900</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>570900</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>570900</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="76">
         <v>570900</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="82">
         <v>570900</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="37">
         <v>570900</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="36">
         <v>570900</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="76">
         <v>564800</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="67">
         <v>534300</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="36">
         <v>534300</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="36">
         <v>534300</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="35">
         <v>570900</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="35">
         <v>570900</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="35">
         <v>570900</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="35">
         <v>570900</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="35">
         <v>570900</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="35">
         <v>570900</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17" s="36">
         <v>570900</v>
       </c>
-      <c r="T17" s="78">
+      <c r="T17" s="76">
         <v>570900</v>
       </c>
-      <c r="U17" s="69">
+      <c r="U17" s="67">
         <v>570900</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="36">
         <v>570900</v>
       </c>
-      <c r="W17" s="40">
+      <c r="W17" s="38">
         <v>570900</v>
       </c>
-      <c r="X17" s="39">
+      <c r="X17" s="37">
         <v>570900</v>
       </c>
-      <c r="Y17" s="37">
+      <c r="Y17" s="35">
         <v>570900</v>
       </c>
-      <c r="Z17" s="37">
+      <c r="Z17" s="35">
         <v>570900</v>
       </c>
-      <c r="AA17" s="38">
+      <c r="AA17" s="36">
         <v>534300</v>
       </c>
-      <c r="AB17" s="38">
+      <c r="AB17" s="36">
         <v>534300</v>
       </c>
-      <c r="AC17" s="38">
+      <c r="AC17" s="36">
         <v>570900</v>
       </c>
-      <c r="AD17" s="37">
+      <c r="AD17" s="35">
         <v>570900</v>
       </c>
-      <c r="AE17" s="70">
+      <c r="AE17" s="68">
         <v>570900</v>
       </c>
-      <c r="AF17" s="52">
+      <c r="AF17" s="50">
         <v>577000</v>
       </c>
-      <c r="AG17" s="37">
+      <c r="AG17" s="35">
         <v>577000</v>
       </c>
-      <c r="AH17" s="38">
+      <c r="AH17" s="36">
         <v>564800</v>
       </c>
-      <c r="AI17" s="38">
+      <c r="AI17" s="36">
         <v>564800</v>
       </c>
-      <c r="AJ17" s="38">
+      <c r="AJ17" s="36">
         <v>577000</v>
       </c>
-      <c r="AK17" s="38">
+      <c r="AK17" s="36">
         <v>577000</v>
       </c>
-      <c r="AL17" s="39">
+      <c r="AL17" s="37">
         <v>577000</v>
       </c>
-      <c r="AM17" s="40">
+      <c r="AM17" s="38">
         <v>577000</v>
       </c>
-      <c r="AN17" s="40">
+      <c r="AN17" s="38">
         <v>577000</v>
       </c>
-      <c r="AO17" s="53">
+      <c r="AO17" s="51">
         <v>577000</v>
       </c>
-      <c r="AP17" s="52">
+      <c r="AP17" s="50">
         <v>577000</v>
       </c>
-      <c r="AQ17" s="37">
+      <c r="AQ17" s="35">
         <v>577000</v>
       </c>
-      <c r="AR17" s="38">
+      <c r="AR17" s="36">
         <v>564800</v>
       </c>
-      <c r="AS17" s="38">
+      <c r="AS17" s="36">
         <v>552600</v>
       </c>
-      <c r="AT17" s="38">
+      <c r="AT17" s="36">
         <v>564800</v>
       </c>
-      <c r="AU17" s="39">
+      <c r="AU17" s="37">
         <v>577000</v>
       </c>
-      <c r="AV17" s="40">
+      <c r="AV17" s="38">
         <v>577000</v>
       </c>
-      <c r="AW17" s="40">
+      <c r="AW17" s="38">
         <v>577000</v>
       </c>
-      <c r="AX17" s="53">
+      <c r="AX17" s="51">
         <v>577000</v>
       </c>
-      <c r="AY17" s="84">
+      <c r="AY17" s="82">
         <v>577000</v>
       </c>
-      <c r="AZ17" s="40">
+      <c r="AZ17" s="38">
         <v>577000</v>
       </c>
-      <c r="BA17" s="40">
+      <c r="BA17" s="38">
         <v>577000</v>
       </c>
-      <c r="BB17" s="39">
+      <c r="BB17" s="37">
         <v>577000</v>
       </c>
-      <c r="BC17" s="40">
+      <c r="BC17" s="38">
         <v>577000</v>
       </c>
-      <c r="BD17" s="40">
+      <c r="BD17" s="38">
         <v>577000</v>
       </c>
-      <c r="BE17" s="38">
+      <c r="BE17" s="36">
         <v>564800</v>
       </c>
-      <c r="BF17" s="38">
+      <c r="BF17" s="36">
         <v>577000</v>
       </c>
-      <c r="BG17" s="38">
+      <c r="BG17" s="36">
         <v>570900</v>
       </c>
-      <c r="BH17" s="70">
+      <c r="BH17" s="68">
         <v>577000</v>
       </c>
     </row>
@@ -4822,181 +4829,181 @@
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="82">
         <v>564800</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="37">
         <v>564800</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>564800</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="76">
         <v>564800</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="82">
         <v>564800</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="37">
         <v>564800</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="36">
         <v>564800</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="76">
         <v>558700</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="67">
         <v>528200</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="36">
         <v>528200</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="36">
         <v>528200</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="35">
         <v>564800</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="35">
         <v>564800</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="35">
         <v>564800</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="35">
         <v>564800</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="35">
         <v>564800</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R18" s="35">
         <v>564800</v>
       </c>
-      <c r="S18" s="38">
+      <c r="S18" s="36">
         <v>564800</v>
       </c>
-      <c r="T18" s="78">
+      <c r="T18" s="76">
         <v>564800</v>
       </c>
-      <c r="U18" s="69">
+      <c r="U18" s="67">
         <v>564800</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18" s="36">
         <v>564800</v>
       </c>
-      <c r="W18" s="40">
+      <c r="W18" s="38">
         <v>564800</v>
       </c>
-      <c r="X18" s="39">
+      <c r="X18" s="37">
         <v>564800</v>
       </c>
-      <c r="Y18" s="37">
+      <c r="Y18" s="35">
         <v>564800</v>
       </c>
-      <c r="Z18" s="37">
+      <c r="Z18" s="35">
         <v>564800</v>
       </c>
-      <c r="AA18" s="38">
+      <c r="AA18" s="36">
         <v>528200</v>
       </c>
-      <c r="AB18" s="38">
+      <c r="AB18" s="36">
         <v>528200</v>
       </c>
-      <c r="AC18" s="38">
+      <c r="AC18" s="36">
         <v>564800</v>
       </c>
-      <c r="AD18" s="37">
+      <c r="AD18" s="35">
         <v>564800</v>
       </c>
-      <c r="AE18" s="70">
+      <c r="AE18" s="68">
         <v>564800</v>
       </c>
-      <c r="AF18" s="52">
+      <c r="AF18" s="50">
         <v>570900</v>
       </c>
-      <c r="AG18" s="37">
+      <c r="AG18" s="35">
         <v>570900</v>
       </c>
-      <c r="AH18" s="38">
+      <c r="AH18" s="36">
         <v>558700</v>
       </c>
-      <c r="AI18" s="38">
+      <c r="AI18" s="36">
         <v>558700</v>
       </c>
-      <c r="AJ18" s="38">
+      <c r="AJ18" s="36">
         <v>570900</v>
       </c>
-      <c r="AK18" s="38">
+      <c r="AK18" s="36">
         <v>570900</v>
       </c>
-      <c r="AL18" s="39">
+      <c r="AL18" s="37">
         <v>570900</v>
       </c>
-      <c r="AM18" s="40">
+      <c r="AM18" s="38">
         <v>570900</v>
       </c>
-      <c r="AN18" s="40">
+      <c r="AN18" s="38">
         <v>570900</v>
       </c>
-      <c r="AO18" s="53">
+      <c r="AO18" s="51">
         <v>570900</v>
       </c>
-      <c r="AP18" s="52">
+      <c r="AP18" s="50">
         <v>570900</v>
       </c>
-      <c r="AQ18" s="37">
+      <c r="AQ18" s="35">
         <v>570900</v>
       </c>
-      <c r="AR18" s="38">
+      <c r="AR18" s="36">
         <v>558700</v>
       </c>
-      <c r="AS18" s="38">
+      <c r="AS18" s="36">
         <v>546500</v>
       </c>
-      <c r="AT18" s="38">
+      <c r="AT18" s="36">
         <v>558700</v>
       </c>
-      <c r="AU18" s="39">
+      <c r="AU18" s="37">
         <v>570900</v>
       </c>
-      <c r="AV18" s="40">
+      <c r="AV18" s="38">
         <v>570900</v>
       </c>
-      <c r="AW18" s="40">
+      <c r="AW18" s="38">
         <v>570900</v>
       </c>
-      <c r="AX18" s="53">
+      <c r="AX18" s="51">
         <v>570900</v>
       </c>
-      <c r="AY18" s="84">
+      <c r="AY18" s="82">
         <v>570900</v>
       </c>
-      <c r="AZ18" s="40">
+      <c r="AZ18" s="38">
         <v>570900</v>
       </c>
-      <c r="BA18" s="36">
+      <c r="BA18" s="34">
         <v>570900</v>
       </c>
-      <c r="BB18" s="35">
+      <c r="BB18" s="33">
         <v>570900</v>
       </c>
-      <c r="BC18" s="36">
+      <c r="BC18" s="34">
         <v>570900</v>
       </c>
-      <c r="BD18" s="36">
+      <c r="BD18" s="34">
         <v>570900</v>
       </c>
-      <c r="BE18" s="38">
+      <c r="BE18" s="36">
         <v>558700</v>
       </c>
-      <c r="BF18" s="38">
+      <c r="BF18" s="36">
         <v>570900</v>
       </c>
-      <c r="BG18" s="38">
+      <c r="BG18" s="36">
         <v>564800</v>
       </c>
-      <c r="BH18" s="70">
+      <c r="BH18" s="68">
         <v>570900</v>
       </c>
     </row>
@@ -5004,177 +5011,177 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="81">
         <v>555600</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="33">
         <v>549500</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>549500</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="75">
         <v>555600</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="81">
         <v>555600</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>549500</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="32">
         <v>549500</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="75">
         <v>549500</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="65">
         <v>512900</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="32">
         <v>519000</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="32">
         <v>519000</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="31">
         <v>555600</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="31">
         <v>555600</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="31">
         <v>555600</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="31">
         <v>555600</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="31">
         <v>555600</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="31">
         <v>555600</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="32">
         <v>555600</v>
       </c>
-      <c r="T19" s="77">
+      <c r="T19" s="75">
         <v>549500</v>
       </c>
-      <c r="U19" s="67">
+      <c r="U19" s="65">
         <v>555600</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="32">
         <v>549500</v>
       </c>
-      <c r="W19" s="36">
+      <c r="W19" s="34">
         <v>549500</v>
       </c>
-      <c r="X19" s="35">
+      <c r="X19" s="33">
         <v>555600</v>
       </c>
-      <c r="Y19" s="33">
+      <c r="Y19" s="31">
         <v>555600</v>
       </c>
-      <c r="Z19" s="33">
+      <c r="Z19" s="31">
         <v>555600</v>
       </c>
-      <c r="AA19" s="34">
+      <c r="AA19" s="32">
         <v>512900</v>
       </c>
-      <c r="AB19" s="34">
+      <c r="AB19" s="32">
         <v>512900</v>
       </c>
-      <c r="AC19" s="34">
+      <c r="AC19" s="32">
         <v>555600</v>
       </c>
-      <c r="AD19" s="33">
+      <c r="AD19" s="31">
         <v>555600</v>
       </c>
-      <c r="AE19" s="68">
+      <c r="AE19" s="66">
         <v>555600</v>
       </c>
-      <c r="AF19" s="50">
+      <c r="AF19" s="48">
         <v>561700</v>
       </c>
-      <c r="AG19" s="33">
+      <c r="AG19" s="31">
         <v>561700</v>
       </c>
-      <c r="AH19" s="34">
+      <c r="AH19" s="32">
         <v>549500</v>
       </c>
-      <c r="AI19" s="34">
+      <c r="AI19" s="32">
         <v>549500</v>
       </c>
-      <c r="AJ19" s="34">
+      <c r="AJ19" s="32">
         <v>561700</v>
       </c>
-      <c r="AK19" s="34">
+      <c r="AK19" s="32">
         <v>561700</v>
       </c>
-      <c r="AL19" s="35">
+      <c r="AL19" s="33">
         <v>555600</v>
       </c>
-      <c r="AM19" s="36">
+      <c r="AM19" s="34">
         <v>549500</v>
       </c>
-      <c r="AN19" s="36">
+      <c r="AN19" s="34">
         <v>555600</v>
       </c>
-      <c r="AO19" s="51">
+      <c r="AO19" s="49">
         <v>561700</v>
       </c>
-      <c r="AP19" s="50">
+      <c r="AP19" s="48">
         <v>555600</v>
       </c>
-      <c r="AQ19" s="33">
+      <c r="AQ19" s="31">
         <v>555600</v>
       </c>
-      <c r="AR19" s="34">
+      <c r="AR19" s="32">
         <v>549500</v>
       </c>
-      <c r="AS19" s="34">
+      <c r="AS19" s="32">
         <v>531200</v>
       </c>
-      <c r="AT19" s="34">
+      <c r="AT19" s="32">
         <v>543400</v>
       </c>
-      <c r="AU19" s="35">
+      <c r="AU19" s="33">
         <v>561700</v>
       </c>
-      <c r="AV19" s="36">
+      <c r="AV19" s="34">
         <v>555600</v>
       </c>
-      <c r="AW19" s="36">
+      <c r="AW19" s="34">
         <v>549500</v>
       </c>
-      <c r="AX19" s="51">
+      <c r="AX19" s="49">
         <v>555600</v>
       </c>
-      <c r="AY19" s="83">
+      <c r="AY19" s="81">
         <v>555600</v>
       </c>
-      <c r="AZ19" s="36">
+      <c r="AZ19" s="34">
         <v>549500</v>
       </c>
-      <c r="BA19" s="61"/>
-      <c r="BB19" s="60"/>
-      <c r="BC19" s="36">
+      <c r="BA19" s="59"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="34">
         <v>555600</v>
       </c>
-      <c r="BD19" s="36">
+      <c r="BD19" s="34">
         <v>555600</v>
       </c>
-      <c r="BE19" s="34">
+      <c r="BE19" s="32">
         <v>549500</v>
       </c>
-      <c r="BF19" s="34">
+      <c r="BF19" s="32">
         <v>561700</v>
       </c>
-      <c r="BG19" s="34">
+      <c r="BG19" s="32">
         <v>555600</v>
       </c>
-      <c r="BH19" s="68">
+      <c r="BH19" s="66">
         <v>555600</v>
       </c>
     </row>
@@ -5182,177 +5189,177 @@
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="81">
         <v>546400</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>534200</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>534200</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="75">
         <v>546400</v>
       </c>
-      <c r="F20" s="83">
+      <c r="F20" s="81">
         <v>546400</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="33">
         <v>534200</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="32">
         <v>534200</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="75">
         <v>540300</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="65">
         <v>497600</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="32">
         <v>509800</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="32">
         <v>509800</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="31">
         <v>546400</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="31">
         <v>546400</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="31">
         <v>546400</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="31">
         <v>546400</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="31">
         <v>546400</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="31">
         <v>546400</v>
       </c>
-      <c r="S20" s="34">
+      <c r="S20" s="32">
         <v>546400</v>
       </c>
-      <c r="T20" s="77">
+      <c r="T20" s="75">
         <v>534200</v>
       </c>
-      <c r="U20" s="67">
+      <c r="U20" s="65">
         <v>546400</v>
       </c>
-      <c r="V20" s="34">
+      <c r="V20" s="32">
         <v>534200</v>
       </c>
-      <c r="W20" s="36">
+      <c r="W20" s="34">
         <v>534200</v>
       </c>
-      <c r="X20" s="35">
+      <c r="X20" s="33">
         <v>546400</v>
       </c>
-      <c r="Y20" s="33">
+      <c r="Y20" s="31">
         <v>546400</v>
       </c>
-      <c r="Z20" s="33">
+      <c r="Z20" s="31">
         <v>546400</v>
       </c>
-      <c r="AA20" s="34">
+      <c r="AA20" s="32">
         <v>497600</v>
       </c>
-      <c r="AB20" s="34">
+      <c r="AB20" s="32">
         <v>497600</v>
       </c>
-      <c r="AC20" s="34">
+      <c r="AC20" s="32">
         <v>546400</v>
       </c>
-      <c r="AD20" s="33">
+      <c r="AD20" s="31">
         <v>546400</v>
       </c>
-      <c r="AE20" s="68">
+      <c r="AE20" s="66">
         <v>546400</v>
       </c>
-      <c r="AF20" s="50">
+      <c r="AF20" s="48">
         <v>552500</v>
       </c>
-      <c r="AG20" s="33">
+      <c r="AG20" s="31">
         <v>552500</v>
       </c>
-      <c r="AH20" s="34">
+      <c r="AH20" s="32">
         <v>540300</v>
       </c>
-      <c r="AI20" s="34">
+      <c r="AI20" s="32">
         <v>540300</v>
       </c>
-      <c r="AJ20" s="34">
+      <c r="AJ20" s="32">
         <v>552500</v>
       </c>
-      <c r="AK20" s="34">
+      <c r="AK20" s="32">
         <v>552500</v>
       </c>
-      <c r="AL20" s="35">
+      <c r="AL20" s="33">
         <v>540300</v>
       </c>
-      <c r="AM20" s="36">
+      <c r="AM20" s="34">
         <v>528100</v>
       </c>
-      <c r="AN20" s="36">
+      <c r="AN20" s="34">
         <v>540300</v>
       </c>
-      <c r="AO20" s="51">
+      <c r="AO20" s="49">
         <v>552500</v>
       </c>
-      <c r="AP20" s="50">
+      <c r="AP20" s="48">
         <v>540300</v>
       </c>
-      <c r="AQ20" s="33">
+      <c r="AQ20" s="31">
         <v>540300</v>
       </c>
-      <c r="AR20" s="34">
+      <c r="AR20" s="32">
         <v>540300</v>
       </c>
-      <c r="AS20" s="34">
+      <c r="AS20" s="32">
         <v>515900</v>
       </c>
-      <c r="AT20" s="34">
+      <c r="AT20" s="32">
         <v>528100</v>
       </c>
-      <c r="AU20" s="35">
+      <c r="AU20" s="33">
         <v>552500</v>
       </c>
-      <c r="AV20" s="36">
+      <c r="AV20" s="34">
         <v>540300</v>
       </c>
-      <c r="AW20" s="36">
+      <c r="AW20" s="34">
         <v>528100</v>
       </c>
-      <c r="AX20" s="51">
+      <c r="AX20" s="49">
         <v>540300</v>
       </c>
-      <c r="AY20" s="83">
+      <c r="AY20" s="81">
         <v>540300</v>
       </c>
-      <c r="AZ20" s="36">
+      <c r="AZ20" s="34">
         <v>528100</v>
       </c>
-      <c r="BA20" s="61"/>
-      <c r="BB20" s="60"/>
-      <c r="BC20" s="36">
+      <c r="BA20" s="59"/>
+      <c r="BB20" s="58"/>
+      <c r="BC20" s="34">
         <v>546400</v>
       </c>
-      <c r="BD20" s="36">
+      <c r="BD20" s="34">
         <v>540300</v>
       </c>
-      <c r="BE20" s="34">
+      <c r="BE20" s="32">
         <v>540300</v>
       </c>
-      <c r="BF20" s="34">
+      <c r="BF20" s="32">
         <v>552500</v>
       </c>
-      <c r="BG20" s="34">
+      <c r="BG20" s="32">
         <v>546400</v>
       </c>
-      <c r="BH20" s="68">
+      <c r="BH20" s="66">
         <v>540300</v>
       </c>
     </row>
@@ -5360,169 +5367,169 @@
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="85">
+      <c r="B21" s="83">
         <v>537200</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>525000</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="54">
         <v>525000</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="84">
         <v>525000</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="83">
         <v>525000</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="55">
         <v>525000</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="73">
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="71">
         <v>488400</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="54">
         <v>500600</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L21" s="54">
         <v>500600</v>
       </c>
-      <c r="M21" s="55">
+      <c r="M21" s="53">
         <v>537200</v>
       </c>
-      <c r="N21" s="55">
+      <c r="N21" s="53">
         <v>537200</v>
       </c>
-      <c r="O21" s="55">
+      <c r="O21" s="53">
         <v>537200</v>
       </c>
-      <c r="P21" s="55">
+      <c r="P21" s="53">
         <v>537200</v>
       </c>
-      <c r="Q21" s="55">
+      <c r="Q21" s="53">
         <v>537200</v>
       </c>
-      <c r="R21" s="55">
+      <c r="R21" s="53">
         <v>537200</v>
       </c>
-      <c r="S21" s="79"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="73">
+      <c r="S21" s="77"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="71">
         <v>537200</v>
       </c>
-      <c r="V21" s="56">
+      <c r="V21" s="54">
         <v>512800</v>
       </c>
-      <c r="W21" s="58">
+      <c r="W21" s="56">
         <v>525000</v>
       </c>
-      <c r="X21" s="57">
+      <c r="X21" s="55">
         <v>537200</v>
       </c>
-      <c r="Y21" s="55">
+      <c r="Y21" s="53">
         <v>537200</v>
       </c>
-      <c r="Z21" s="55">
+      <c r="Z21" s="53">
         <v>537200</v>
       </c>
-      <c r="AA21" s="56">
+      <c r="AA21" s="54">
         <v>488400</v>
       </c>
-      <c r="AB21" s="56">
+      <c r="AB21" s="54">
         <v>488400</v>
       </c>
-      <c r="AC21" s="56">
+      <c r="AC21" s="54">
         <v>537200</v>
       </c>
-      <c r="AD21" s="55">
+      <c r="AD21" s="53">
         <v>537200</v>
       </c>
-      <c r="AE21" s="74">
+      <c r="AE21" s="72">
         <v>537200</v>
       </c>
-      <c r="AF21" s="54">
+      <c r="AF21" s="52">
         <v>543300</v>
       </c>
-      <c r="AG21" s="55">
+      <c r="AG21" s="53">
         <v>543300</v>
       </c>
-      <c r="AH21" s="56">
+      <c r="AH21" s="54">
         <v>531100</v>
       </c>
-      <c r="AI21" s="56">
+      <c r="AI21" s="54">
         <v>531100</v>
       </c>
-      <c r="AJ21" s="56">
+      <c r="AJ21" s="54">
         <v>531100</v>
       </c>
-      <c r="AK21" s="56">
+      <c r="AK21" s="54">
         <v>531100</v>
       </c>
-      <c r="AL21" s="57">
+      <c r="AL21" s="55">
         <v>531100</v>
       </c>
-      <c r="AM21" s="58">
+      <c r="AM21" s="56">
         <v>518900</v>
       </c>
-      <c r="AN21" s="58">
+      <c r="AN21" s="56">
         <v>518900</v>
       </c>
-      <c r="AO21" s="59">
+      <c r="AO21" s="57">
         <v>543300</v>
       </c>
-      <c r="AP21" s="54">
+      <c r="AP21" s="52">
         <v>531100</v>
       </c>
-      <c r="AQ21" s="55">
+      <c r="AQ21" s="53">
         <v>531100</v>
       </c>
-      <c r="AR21" s="56">
+      <c r="AR21" s="54">
         <v>531100</v>
       </c>
-      <c r="AS21" s="56">
+      <c r="AS21" s="54">
         <v>506700</v>
       </c>
-      <c r="AT21" s="56">
+      <c r="AT21" s="54">
         <v>518900</v>
       </c>
-      <c r="AU21" s="57">
+      <c r="AU21" s="55">
         <v>543300</v>
       </c>
-      <c r="AV21" s="58">
+      <c r="AV21" s="56">
         <v>531100</v>
       </c>
-      <c r="AW21" s="58">
+      <c r="AW21" s="56">
         <v>518900</v>
       </c>
-      <c r="AX21" s="59">
+      <c r="AX21" s="57">
         <v>531100</v>
       </c>
-      <c r="AY21" s="85">
+      <c r="AY21" s="83">
         <v>531100</v>
       </c>
-      <c r="AZ21" s="58">
+      <c r="AZ21" s="56">
         <v>518900</v>
       </c>
-      <c r="BA21" s="88"/>
-      <c r="BB21" s="89"/>
-      <c r="BC21" s="58">
+      <c r="BA21" s="86"/>
+      <c r="BB21" s="87"/>
+      <c r="BC21" s="56">
         <v>537200</v>
       </c>
-      <c r="BD21" s="58">
+      <c r="BD21" s="56">
         <v>531100</v>
       </c>
-      <c r="BE21" s="56">
+      <c r="BE21" s="54">
         <v>531100</v>
       </c>
-      <c r="BF21" s="56">
+      <c r="BF21" s="54">
         <v>543300</v>
       </c>
-      <c r="BG21" s="56">
+      <c r="BG21" s="54">
         <v>537200</v>
       </c>
-      <c r="BH21" s="74">
+      <c r="BH21" s="72">
         <v>531100</v>
       </c>
     </row>
@@ -5534,79 +5541,79 @@
     </row>
     <row r="24" spans="1:60" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
-      <c r="B24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="s">
+      <c r="B24" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30" t="s">
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30" t="s">
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30" t="s">
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="88"/>
+      <c r="AF24" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30" t="s">
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="88"/>
+      <c r="AI24" s="88"/>
+      <c r="AJ24" s="88"/>
+      <c r="AK24" s="88"/>
+      <c r="AL24" s="88"/>
+      <c r="AM24" s="88"/>
+      <c r="AN24" s="88"/>
+      <c r="AO24" s="88"/>
+      <c r="AP24" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30" t="s">
+      <c r="AQ24" s="88"/>
+      <c r="AR24" s="88"/>
+      <c r="AS24" s="88"/>
+      <c r="AT24" s="88"/>
+      <c r="AU24" s="88"/>
+      <c r="AV24" s="88"/>
+      <c r="AW24" s="88"/>
+      <c r="AX24" s="88"/>
+      <c r="AY24" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AZ24" s="30"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
+      <c r="AZ24" s="88"/>
+      <c r="BA24" s="88"/>
+      <c r="BB24" s="88"/>
+      <c r="BC24" s="88"/>
+      <c r="BD24" s="88"/>
+      <c r="BE24" s="88"/>
+      <c r="BF24" s="88"/>
+      <c r="BG24" s="88"/>
+      <c r="BH24" s="88"/>
     </row>
     <row r="25" spans="1:60" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
@@ -9379,8 +9386,8 @@
       </c>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A52" s="8">
-        <v>19</v>
+      <c r="A52" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D52" s="19">
         <v>607100</v>
@@ -9391,33 +9398,12 @@
       <c r="F52" s="19">
         <v>607100</v>
       </c>
-      <c r="G52" s="19">
-        <v>607100</v>
-      </c>
-      <c r="H52" s="19">
-        <v>607100</v>
-      </c>
       <c r="I52" s="19">
         <v>607100</v>
       </c>
-      <c r="J52" s="19">
-        <v>625400</v>
-      </c>
-      <c r="K52" s="19">
-        <v>625400</v>
-      </c>
-      <c r="M52" s="19">
-        <v>613200</v>
-      </c>
       <c r="N52" s="19">
         <v>613200</v>
       </c>
-      <c r="O52" s="19">
-        <v>613200</v>
-      </c>
-      <c r="P52" s="19">
-        <v>613200</v>
-      </c>
       <c r="Q52" s="19">
         <v>613200</v>
       </c>
@@ -9436,9 +9422,6 @@
       <c r="Z52" s="19">
         <v>613200</v>
       </c>
-      <c r="AC52" s="19">
-        <v>613200</v>
-      </c>
       <c r="AD52" s="19">
         <v>613200</v>
       </c>
@@ -9469,15 +9452,9 @@
       <c r="AO52" s="19">
         <v>613200</v>
       </c>
-      <c r="AP52" s="19">
-        <v>613200</v>
-      </c>
       <c r="AR52" s="19">
         <v>601000</v>
       </c>
-      <c r="AS52" s="19">
-        <v>613200</v>
-      </c>
       <c r="AT52" s="19">
         <v>601000</v>
       </c>
@@ -9490,28 +9467,13 @@
       <c r="AW52" s="19">
         <v>613200</v>
       </c>
-      <c r="AX52" s="19">
-        <v>613200</v>
-      </c>
       <c r="AY52" s="19">
         <v>613200</v>
       </c>
-      <c r="BD52" s="19">
-        <v>613200</v>
-      </c>
-      <c r="BE52" s="19">
-        <v>601000</v>
-      </c>
-      <c r="BF52" s="19">
-        <v>613200</v>
-      </c>
-      <c r="BH52" s="19">
-        <v>613200</v>
-      </c>
     </row>
     <row r="53" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
-        <v>18</v>
+      <c r="A53" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D53" s="19">
         <v>607100</v>
@@ -9522,27 +9484,12 @@
       <c r="G53" s="19">
         <v>607100</v>
       </c>
-      <c r="H53" s="19">
-        <v>607100</v>
-      </c>
       <c r="I53" s="19">
         <v>607100</v>
       </c>
-      <c r="J53" s="19">
-        <v>625400</v>
-      </c>
-      <c r="K53" s="19">
-        <v>625400</v>
-      </c>
-      <c r="M53" s="19">
-        <v>613200</v>
-      </c>
       <c r="N53" s="19">
         <v>613200</v>
       </c>
-      <c r="P53" s="19">
-        <v>613200</v>
-      </c>
       <c r="Q53" s="19">
         <v>613200</v>
       </c>
@@ -9555,15 +9502,6 @@
       <c r="V53" s="19">
         <v>613200</v>
       </c>
-      <c r="Y53" s="19">
-        <v>613200</v>
-      </c>
-      <c r="Z53" s="19">
-        <v>613200</v>
-      </c>
-      <c r="AA53" s="19">
-        <v>625400</v>
-      </c>
       <c r="AD53" s="19">
         <v>613200</v>
       </c>
@@ -9582,9 +9520,6 @@
       <c r="AI53" s="19">
         <v>613200</v>
       </c>
-      <c r="AJ53" s="19">
-        <v>613200</v>
-      </c>
       <c r="AK53" s="19">
         <v>613200</v>
       </c>
@@ -9594,12 +9529,6 @@
       <c r="AO53" s="19">
         <v>613200</v>
       </c>
-      <c r="AP53" s="19">
-        <v>613200</v>
-      </c>
-      <c r="AQ53" s="19">
-        <v>613200</v>
-      </c>
       <c r="AR53" s="19">
         <v>601000</v>
       </c>
@@ -9609,21 +9538,12 @@
       <c r="AU53" s="19">
         <v>613200</v>
       </c>
-      <c r="AV53" s="19">
-        <v>613200</v>
-      </c>
-      <c r="AW53" s="19">
-        <v>613200</v>
-      </c>
       <c r="AX53" s="19">
         <v>613200</v>
       </c>
       <c r="AY53" s="19">
         <v>613200</v>
       </c>
-      <c r="AZ53" s="19">
-        <v>613200</v>
-      </c>
       <c r="BF53" s="19">
         <v>613200</v>
       </c>
@@ -9632,8 +9552,8 @@
       </c>
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
-        <v>17</v>
+      <c r="A54" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E54" s="19">
         <v>604700</v>
@@ -9647,24 +9567,9 @@
       <c r="I54" s="19">
         <v>604700</v>
       </c>
-      <c r="J54" s="19">
-        <v>623000</v>
-      </c>
-      <c r="K54" s="19">
-        <v>623000</v>
-      </c>
-      <c r="L54" s="19">
-        <v>623000</v>
-      </c>
-      <c r="M54" s="19">
-        <v>610800</v>
-      </c>
       <c r="N54" s="19">
         <v>610800</v>
       </c>
-      <c r="P54" s="19">
-        <v>610800</v>
-      </c>
       <c r="Q54" s="19">
         <v>610800</v>
       </c>
@@ -9680,12 +9585,6 @@
       <c r="Y54" s="19">
         <v>610800</v>
       </c>
-      <c r="AA54" s="19">
-        <v>623000</v>
-      </c>
-      <c r="AB54" s="19">
-        <v>623000</v>
-      </c>
       <c r="AD54" s="19">
         <v>610800</v>
       </c>
@@ -9746,22 +9645,16 @@
       <c r="AZ54" s="19">
         <v>610800</v>
       </c>
-      <c r="BE54" s="19">
-        <v>598600</v>
-      </c>
       <c r="BF54" s="19">
         <v>610800</v>
       </c>
       <c r="BG54" s="19">
         <v>604700</v>
       </c>
-      <c r="BH54" s="19">
-        <v>610800</v>
-      </c>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A55" s="8">
-        <v>16</v>
+      <c r="A55" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E55" s="19">
         <v>602300</v>
@@ -9769,24 +9662,9 @@
       <c r="F55" s="19">
         <v>602300</v>
       </c>
-      <c r="G55" s="19">
-        <v>602300</v>
-      </c>
-      <c r="I55" s="19">
-        <v>596200</v>
-      </c>
-      <c r="J55" s="19">
-        <v>620600</v>
-      </c>
-      <c r="K55" s="19">
-        <v>620600</v>
-      </c>
       <c r="N55" s="19">
         <v>608400</v>
       </c>
-      <c r="O55" s="19">
-        <v>608400</v>
-      </c>
       <c r="Q55" s="19">
         <v>608400</v>
       </c>
@@ -9805,12 +9683,6 @@
       <c r="Z55" s="19">
         <v>608400</v>
       </c>
-      <c r="AA55" s="19">
-        <v>620600</v>
-      </c>
-      <c r="AB55" s="19">
-        <v>620600</v>
-      </c>
       <c r="AD55" s="19">
         <v>608400</v>
       </c>
@@ -9835,9 +9707,6 @@
       <c r="AK55" s="19">
         <v>608400</v>
       </c>
-      <c r="AN55" s="19">
-        <v>608400</v>
-      </c>
       <c r="AO55" s="19">
         <v>608400</v>
       </c>
@@ -9871,22 +9740,16 @@
       <c r="AZ55" s="19">
         <v>608400</v>
       </c>
-      <c r="BE55" s="19">
-        <v>596200</v>
-      </c>
       <c r="BF55" s="19">
         <v>608400</v>
       </c>
       <c r="BG55" s="19">
         <v>602300</v>
       </c>
-      <c r="BH55" s="19">
-        <v>608400</v>
-      </c>
     </row>
     <row r="56" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A56" s="8">
-        <v>15</v>
+      <c r="A56" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C56" s="19">
         <v>597500</v>
@@ -9909,21 +9772,12 @@
       <c r="I56" s="19">
         <v>593800</v>
       </c>
-      <c r="J56" s="19">
-        <v>612100</v>
-      </c>
-      <c r="K56" s="19">
-        <v>612100</v>
-      </c>
       <c r="M56" s="19">
         <v>599900</v>
       </c>
       <c r="N56" s="19">
         <v>599900</v>
       </c>
-      <c r="O56" s="19">
-        <v>599900</v>
-      </c>
       <c r="P56" s="19">
         <v>599900</v>
       </c>
@@ -9957,12 +9811,6 @@
       <c r="AA56" s="19">
         <v>612100</v>
       </c>
-      <c r="AB56" s="19">
-        <v>612100</v>
-      </c>
-      <c r="AC56" s="19">
-        <v>599900</v>
-      </c>
       <c r="AD56" s="19">
         <v>599900</v>
       </c>
@@ -10029,25 +9877,13 @@
       <c r="AZ56" s="19">
         <v>606000</v>
       </c>
-      <c r="BD56" s="19">
-        <v>606000</v>
-      </c>
-      <c r="BE56" s="19">
-        <v>593800</v>
-      </c>
-      <c r="BF56" s="19">
-        <v>606000</v>
-      </c>
       <c r="BG56" s="19">
         <v>599900</v>
       </c>
-      <c r="BH56" s="19">
-        <v>606000</v>
-      </c>
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A57" s="8">
-        <v>14</v>
+      <c r="A57" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C57" s="19">
         <v>597500</v>
@@ -10073,18 +9909,12 @@
       <c r="K57" s="19">
         <v>609700</v>
       </c>
-      <c r="L57" s="19">
-        <v>609700</v>
-      </c>
       <c r="M57" s="19">
         <v>597500</v>
       </c>
       <c r="N57" s="19">
         <v>597500</v>
       </c>
-      <c r="O57" s="19">
-        <v>597500</v>
-      </c>
       <c r="P57" s="19">
         <v>597500</v>
       </c>
@@ -10118,12 +9948,6 @@
       <c r="AA57" s="19">
         <v>609700</v>
       </c>
-      <c r="AB57" s="19">
-        <v>609700</v>
-      </c>
-      <c r="AC57" s="19">
-        <v>597500</v>
-      </c>
       <c r="AD57" s="19">
         <v>597500</v>
       </c>
@@ -10190,12 +10014,6 @@
       <c r="AZ57" s="19">
         <v>603600</v>
       </c>
-      <c r="BA57" s="19">
-        <v>603600</v>
-      </c>
-      <c r="BB57" s="19">
-        <v>603600</v>
-      </c>
       <c r="BC57" s="19">
         <v>603600</v>
       </c>
@@ -10216,7 +10034,7 @@
       </c>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
+      <c r="A58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="19">
@@ -10240,18 +10058,12 @@
       <c r="K58" s="19">
         <v>607300</v>
       </c>
-      <c r="L58" s="19">
-        <v>607300</v>
-      </c>
       <c r="M58" s="19">
         <v>595100</v>
       </c>
       <c r="N58" s="19">
         <v>595100</v>
       </c>
-      <c r="O58" s="19">
-        <v>595100</v>
-      </c>
       <c r="P58" s="19">
         <v>595100</v>
       </c>
@@ -10291,9 +10103,6 @@
       <c r="AB58" s="19">
         <v>607300</v>
       </c>
-      <c r="AC58" s="19">
-        <v>595100</v>
-      </c>
       <c r="AD58" s="19">
         <v>595100</v>
       </c>
@@ -10348,9 +10157,6 @@
       <c r="AU58" s="19">
         <v>601200</v>
       </c>
-      <c r="AV58" s="19">
-        <v>601200</v>
-      </c>
       <c r="AW58" s="19">
         <v>601200</v>
       </c>
@@ -10363,18 +10169,6 @@
       <c r="AZ58" s="19">
         <v>601200</v>
       </c>
-      <c r="BA58" s="19">
-        <v>601200</v>
-      </c>
-      <c r="BB58" s="19">
-        <v>601200</v>
-      </c>
-      <c r="BC58" s="19">
-        <v>601200</v>
-      </c>
-      <c r="BD58" s="19">
-        <v>601200</v>
-      </c>
       <c r="BE58" s="19">
         <v>589000</v>
       </c>
@@ -10389,8 +10183,8 @@
       </c>
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A59" s="8">
-        <v>12</v>
+      <c r="A59" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B59" s="19">
         <v>592700</v>
@@ -10524,9 +10318,6 @@
       <c r="AU59" s="19">
         <v>598800</v>
       </c>
-      <c r="AV59" s="19">
-        <v>598800</v>
-      </c>
       <c r="AW59" s="19">
         <v>598800</v>
       </c>
@@ -10539,31 +10330,16 @@
       <c r="AZ59" s="19">
         <v>598800</v>
       </c>
-      <c r="BB59" s="19">
-        <v>598800</v>
-      </c>
-      <c r="BD59" s="19">
-        <v>598800</v>
-      </c>
-      <c r="BE59" s="19">
-        <v>586600</v>
-      </c>
       <c r="BF59" s="19">
         <v>598800</v>
       </c>
       <c r="BG59" s="19">
         <v>592700</v>
       </c>
-      <c r="BH59" s="19">
-        <v>598800</v>
-      </c>
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A60" s="8">
-        <v>11</v>
-      </c>
-      <c r="E60" s="19">
-        <v>590300</v>
+      <c r="A60" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G60" s="19">
         <v>590300</v>
@@ -10571,9 +10347,6 @@
       <c r="H60" s="19">
         <v>590300</v>
       </c>
-      <c r="J60" s="19">
-        <v>590300</v>
-      </c>
       <c r="K60" s="19">
         <v>590300</v>
       </c>
@@ -10586,9 +10359,6 @@
       <c r="N60" s="19">
         <v>590300</v>
       </c>
-      <c r="O60" s="19">
-        <v>590300</v>
-      </c>
       <c r="P60" s="19">
         <v>590300</v>
       </c>
@@ -10694,18 +10464,6 @@
       <c r="AZ60" s="19">
         <v>596400</v>
       </c>
-      <c r="BA60" s="19">
-        <v>596400</v>
-      </c>
-      <c r="BB60" s="19">
-        <v>596400</v>
-      </c>
-      <c r="BC60" s="19">
-        <v>596400</v>
-      </c>
-      <c r="BD60" s="19">
-        <v>596400</v>
-      </c>
       <c r="BE60" s="19">
         <v>584200</v>
       </c>
@@ -10720,8 +10478,8 @@
       </c>
     </row>
     <row r="61" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
-        <v>10</v>
+      <c r="A61" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B61" s="19">
         <v>587900</v>
@@ -10750,9 +10508,6 @@
       <c r="N61" s="19">
         <v>587900</v>
       </c>
-      <c r="O61" s="19">
-        <v>587900</v>
-      </c>
       <c r="P61" s="19">
         <v>587900</v>
       </c>
@@ -10846,9 +10601,6 @@
       <c r="AU61" s="19">
         <v>594000</v>
       </c>
-      <c r="AV61" s="19">
-        <v>594000</v>
-      </c>
       <c r="AW61" s="19">
         <v>594000</v>
       </c>
@@ -10861,18 +10613,12 @@
       <c r="AZ61" s="19">
         <v>594000</v>
       </c>
-      <c r="BA61" s="19">
-        <v>594000</v>
-      </c>
       <c r="BB61" s="19">
         <v>594000</v>
       </c>
       <c r="BC61" s="19">
         <v>594000</v>
       </c>
-      <c r="BD61" s="19">
-        <v>594000</v>
-      </c>
       <c r="BE61" s="19">
         <v>581800</v>
       </c>
@@ -10884,11 +10630,8 @@
       </c>
     </row>
     <row r="62" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A62" s="8">
-        <v>9</v>
-      </c>
-      <c r="B62" s="19">
-        <v>585500</v>
+      <c r="A62" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D62" s="19">
         <v>585500</v>
@@ -10914,9 +10657,6 @@
       <c r="N62" s="19">
         <v>585500</v>
       </c>
-      <c r="O62" s="19">
-        <v>585500</v>
-      </c>
       <c r="P62" s="19">
         <v>585500</v>
       </c>
@@ -10950,9 +10690,6 @@
       <c r="AB62" s="19">
         <v>585500</v>
       </c>
-      <c r="AC62" s="19">
-        <v>585500</v>
-      </c>
       <c r="AD62" s="19">
         <v>585500</v>
       </c>
@@ -11019,18 +10756,12 @@
       <c r="AZ62" s="19">
         <v>591600</v>
       </c>
-      <c r="BA62" s="19">
-        <v>591600</v>
-      </c>
       <c r="BB62" s="19">
         <v>591600</v>
       </c>
       <c r="BC62" s="19">
         <v>591600</v>
       </c>
-      <c r="BD62" s="19">
-        <v>591600</v>
-      </c>
       <c r="BE62" s="19">
         <v>579400</v>
       </c>
@@ -11045,8 +10776,8 @@
       </c>
     </row>
     <row r="63" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A63" s="8">
-        <v>8</v>
+      <c r="A63" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B63" s="19">
         <v>583100</v>
@@ -11069,9 +10800,6 @@
       <c r="J63" s="19">
         <v>570900</v>
       </c>
-      <c r="K63" s="19">
-        <v>570900</v>
-      </c>
       <c r="L63" s="19">
         <v>570900</v>
       </c>
@@ -11081,9 +10809,6 @@
       <c r="N63" s="19">
         <v>583100</v>
       </c>
-      <c r="O63" s="19">
-        <v>583100</v>
-      </c>
       <c r="P63" s="19">
         <v>583100</v>
       </c>
@@ -11218,8 +10943,8 @@
       </c>
     </row>
     <row r="64" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A64" s="8">
-        <v>7</v>
+      <c r="A64" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B64" s="19">
         <v>577000</v>
@@ -11397,8 +11122,8 @@
       </c>
     </row>
     <row r="65" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A65" s="8">
-        <v>6</v>
+      <c r="A65" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B65" s="19">
         <v>570900</v>
@@ -11412,9 +11137,6 @@
       <c r="E65" s="19">
         <v>570900</v>
       </c>
-      <c r="F65" s="19">
-        <v>570900</v>
-      </c>
       <c r="G65" s="19">
         <v>570900</v>
       </c>
@@ -11576,8 +11298,8 @@
       </c>
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
-        <v>5</v>
+      <c r="A66" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B66" s="19">
         <v>564800</v>
@@ -11755,8 +11477,8 @@
       </c>
     </row>
     <row r="67" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A67" s="8">
-        <v>4</v>
+      <c r="A67" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B67" s="19">
         <v>555600</v>
@@ -11931,8 +11653,8 @@
       </c>
     </row>
     <row r="68" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
-        <v>3</v>
+      <c r="A68" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B68" s="19">
         <v>546400</v>
@@ -12101,8 +11823,8 @@
       </c>
     </row>
     <row r="69" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
-        <v>2</v>
+      <c r="A69" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B69" s="19">
         <v>537200</v>
@@ -12266,13 +11988,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AP24:AX24"/>
-    <mergeCell ref="AY24:BH24"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:T24"/>
-    <mergeCell ref="U24:AE24"/>
-    <mergeCell ref="AF24:AO24"/>
     <mergeCell ref="AY1:BH1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
@@ -12281,6 +11996,13 @@
     <mergeCell ref="U1:AE1"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AX1"/>
+    <mergeCell ref="AP24:AX24"/>
+    <mergeCell ref="AY24:BH24"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:T24"/>
+    <mergeCell ref="U24:AE24"/>
+    <mergeCell ref="AF24:AO24"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:XFD3">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
@@ -12326,79 +12048,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:62" x14ac:dyDescent="0.35">
-      <c r="D1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="D1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29" t="s">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29" t="s">
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29" t="s">
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
     </row>
     <row r="2" spans="2:62" x14ac:dyDescent="0.35">
       <c r="D2" s="13">
@@ -20008,79 +19730,79 @@
       </c>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.35">
-      <c r="D51" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29" t="s">
+      <c r="D51" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29" t="s">
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29" t="s">
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29" t="s">
+      <c r="X51" s="89"/>
+      <c r="Y51" s="89"/>
+      <c r="Z51" s="89"/>
+      <c r="AA51" s="89"/>
+      <c r="AB51" s="89"/>
+      <c r="AC51" s="89"/>
+      <c r="AD51" s="89"/>
+      <c r="AE51" s="89"/>
+      <c r="AF51" s="89"/>
+      <c r="AG51" s="89"/>
+      <c r="AH51" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="29"/>
-      <c r="AL51" s="29"/>
-      <c r="AM51" s="29"/>
-      <c r="AN51" s="29"/>
-      <c r="AO51" s="29"/>
-      <c r="AP51" s="29"/>
-      <c r="AQ51" s="29"/>
-      <c r="AR51" s="29" t="s">
+      <c r="AI51" s="89"/>
+      <c r="AJ51" s="89"/>
+      <c r="AK51" s="89"/>
+      <c r="AL51" s="89"/>
+      <c r="AM51" s="89"/>
+      <c r="AN51" s="89"/>
+      <c r="AO51" s="89"/>
+      <c r="AP51" s="89"/>
+      <c r="AQ51" s="89"/>
+      <c r="AR51" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AS51" s="29"/>
-      <c r="AT51" s="29"/>
-      <c r="AU51" s="29"/>
-      <c r="AV51" s="29"/>
-      <c r="AW51" s="29"/>
-      <c r="AX51" s="29"/>
-      <c r="AY51" s="29"/>
-      <c r="AZ51" s="29"/>
-      <c r="BA51" s="29" t="s">
+      <c r="AS51" s="89"/>
+      <c r="AT51" s="89"/>
+      <c r="AU51" s="89"/>
+      <c r="AV51" s="89"/>
+      <c r="AW51" s="89"/>
+      <c r="AX51" s="89"/>
+      <c r="AY51" s="89"/>
+      <c r="AZ51" s="89"/>
+      <c r="BA51" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="BB51" s="29"/>
-      <c r="BC51" s="29"/>
-      <c r="BD51" s="29"/>
-      <c r="BE51" s="29"/>
-      <c r="BF51" s="29"/>
-      <c r="BG51" s="29"/>
-      <c r="BH51" s="29"/>
-      <c r="BI51" s="29"/>
-      <c r="BJ51" s="29"/>
+      <c r="BB51" s="89"/>
+      <c r="BC51" s="89"/>
+      <c r="BD51" s="89"/>
+      <c r="BE51" s="89"/>
+      <c r="BF51" s="89"/>
+      <c r="BG51" s="89"/>
+      <c r="BH51" s="89"/>
+      <c r="BI51" s="89"/>
+      <c r="BJ51" s="89"/>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.35">
       <c r="D52" s="13">

--- a/prices/macpherson prices 4-room.xlsx
+++ b/prices/macpherson prices 4-room.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\PycharmProjects\macpherson-bto\prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33296158-E3E4-4986-90F8-3C6E979D551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5735CC-1362-4339-A4F9-194BCF4756BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A8E0B00A-A670-440C-B89D-320911B388A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A8E0B00A-A670-440C-B89D-320911B388A8}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="1" r:id="rId1"/>
@@ -592,16 +592,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,37 +612,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -675,36 +645,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2075,8 +2015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B15AA9-9AD1-47B6-AD7F-6A6B8F80EFA6}">
   <dimension ref="A1:BH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK44" sqref="AK44"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS22" sqref="BS22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2087,85 +2028,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89" t="s">
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89" t="s">
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89" t="s">
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89" t="s">
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89" t="s">
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AZ1" s="89"/>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="91"/>
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
     </row>
     <row r="2" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="89"/>
+      <c r="A2" s="91"/>
       <c r="B2" s="79">
         <v>522</v>
       </c>
@@ -5619,79 +5560,79 @@
     </row>
     <row r="24" spans="1:60" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
-      <c r="B24" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90" t="s">
+      <c r="B24" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90" t="s">
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90" t="s">
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90" t="s">
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="90"/>
-      <c r="AL24" s="90"/>
-      <c r="AM24" s="90"/>
-      <c r="AN24" s="90"/>
-      <c r="AO24" s="90"/>
-      <c r="AP24" s="90" t="s">
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="92"/>
+      <c r="AN24" s="92"/>
+      <c r="AO24" s="92"/>
+      <c r="AP24" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AQ24" s="90"/>
-      <c r="AR24" s="90"/>
-      <c r="AS24" s="90"/>
-      <c r="AT24" s="90"/>
-      <c r="AU24" s="90"/>
-      <c r="AV24" s="90"/>
-      <c r="AW24" s="90"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="90" t="s">
+      <c r="AQ24" s="92"/>
+      <c r="AR24" s="92"/>
+      <c r="AS24" s="92"/>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="92"/>
+      <c r="AW24" s="92"/>
+      <c r="AX24" s="92"/>
+      <c r="AY24" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AZ24" s="90"/>
-      <c r="BA24" s="90"/>
-      <c r="BB24" s="90"/>
-      <c r="BC24" s="90"/>
-      <c r="BD24" s="90"/>
-      <c r="BE24" s="90"/>
-      <c r="BF24" s="90"/>
-      <c r="BG24" s="90"/>
-      <c r="BH24" s="90"/>
+      <c r="AZ24" s="92"/>
+      <c r="BA24" s="92"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="92"/>
+      <c r="BD24" s="92"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="92"/>
+      <c r="BG24" s="92"/>
+      <c r="BH24" s="92"/>
     </row>
     <row r="25" spans="1:60" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
@@ -9476,9 +9417,6 @@
       <c r="F52" s="19">
         <v>607100</v>
       </c>
-      <c r="I52" s="19">
-        <v>607100</v>
-      </c>
       <c r="Q52" s="19">
         <v>613200</v>
       </c>
@@ -9491,9 +9429,6 @@
       <c r="V52" s="19">
         <v>613200</v>
       </c>
-      <c r="Z52" s="19">
-        <v>613200</v>
-      </c>
       <c r="AD52" s="19">
         <v>613200</v>
       </c>
@@ -9523,9 +9458,6 @@
       </c>
       <c r="AR52" s="19">
         <v>601000</v>
-      </c>
-      <c r="AU52" s="19">
-        <v>613200</v>
       </c>
       <c r="AW52" s="19">
         <v>613200</v>
@@ -9547,9 +9479,6 @@
       <c r="I53" s="19">
         <v>607100</v>
       </c>
-      <c r="N53" s="19">
-        <v>613200</v>
-      </c>
       <c r="Q53" s="19">
         <v>613200</v>
       </c>
@@ -9568,9 +9497,6 @@
       <c r="AE53" s="19">
         <v>613200</v>
       </c>
-      <c r="AF53" s="19">
-        <v>613200</v>
-      </c>
       <c r="AG53" s="19">
         <v>613200</v>
       </c>
@@ -9591,9 +9517,6 @@
       </c>
       <c r="AR53" s="19">
         <v>601000</v>
-      </c>
-      <c r="AU53" s="19">
-        <v>613200</v>
       </c>
       <c r="AX53" s="19">
         <v>613200</v>
@@ -9609,9 +9532,6 @@
       <c r="E54" s="19">
         <v>604700</v>
       </c>
-      <c r="G54" s="19">
-        <v>604700</v>
-      </c>
       <c r="I54" s="19">
         <v>604700</v>
       </c>
@@ -9668,12 +9588,6 @@
       </c>
       <c r="AR54" s="19">
         <v>598600</v>
-      </c>
-      <c r="AT54" s="19">
-        <v>598600</v>
-      </c>
-      <c r="AU54" s="19">
-        <v>610800</v>
       </c>
       <c r="AX54" s="19">
         <v>610800</v>
@@ -9749,9 +9663,6 @@
       <c r="AT55" s="19">
         <v>596200</v>
       </c>
-      <c r="AW55" s="19">
-        <v>608400</v>
-      </c>
       <c r="AX55" s="19">
         <v>608400</v>
       </c>
@@ -9877,9 +9788,6 @@
       <c r="AZ56" s="19">
         <v>606000</v>
       </c>
-      <c r="BG56" s="19">
-        <v>599900</v>
-      </c>
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
@@ -9903,9 +9811,6 @@
       <c r="I57" s="19">
         <v>591400</v>
       </c>
-      <c r="J57" s="19">
-        <v>609700</v>
-      </c>
       <c r="M57" s="19">
         <v>597500</v>
       </c>
@@ -10005,17 +9910,11 @@
       <c r="AZ57" s="19">
         <v>603600</v>
       </c>
-      <c r="BE57" s="19">
-        <v>591400</v>
-      </c>
       <c r="BF57" s="19">
         <v>603600</v>
       </c>
       <c r="BG57" s="19">
         <v>597500</v>
-      </c>
-      <c r="BH57" s="19">
-        <v>603600</v>
       </c>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.35">
@@ -10055,9 +9954,6 @@
       <c r="R58" s="19">
         <v>595100</v>
       </c>
-      <c r="S58" s="19">
-        <v>595100</v>
-      </c>
       <c r="U58" s="19">
         <v>595100</v>
       </c>
@@ -10077,9 +9973,6 @@
         <v>595100</v>
       </c>
       <c r="AA58" s="19">
-        <v>607300</v>
-      </c>
-      <c r="AB58" s="19">
         <v>607300</v>
       </c>
       <c r="AD58" s="19">
@@ -10177,9 +10070,6 @@
       <c r="H59" s="19">
         <v>592700</v>
       </c>
-      <c r="I59" s="19">
-        <v>586600</v>
-      </c>
       <c r="K59" s="19">
         <v>598800</v>
       </c>
@@ -10233,9 +10123,6 @@
       </c>
       <c r="AG59" s="19">
         <v>598800</v>
-      </c>
-      <c r="AH59" s="19">
-        <v>586600</v>
       </c>
       <c r="AI59" s="19">
         <v>586600</v>
@@ -10302,9 +10189,6 @@
       <c r="K60" s="19">
         <v>590300</v>
       </c>
-      <c r="L60" s="19">
-        <v>590300</v>
-      </c>
       <c r="M60" s="19">
         <v>590300</v>
       </c>
@@ -10381,9 +10265,6 @@
         <v>596400</v>
       </c>
       <c r="AO60" s="19">
-        <v>596400</v>
-      </c>
-      <c r="AP60" s="19">
         <v>596400</v>
       </c>
       <c r="AQ60" s="19">
@@ -10460,9 +10341,6 @@
       <c r="N61" s="19">
         <v>587900</v>
       </c>
-      <c r="P61" s="19">
-        <v>587900</v>
-      </c>
       <c r="Q61" s="19">
         <v>587900</v>
       </c>
@@ -10563,9 +10441,6 @@
         <v>581800</v>
       </c>
       <c r="BF61" s="19">
-        <v>594000</v>
-      </c>
-      <c r="BH61" s="19">
         <v>594000</v>
       </c>
     </row>
@@ -10696,9 +10571,6 @@
       <c r="AZ62" s="19">
         <v>591600</v>
       </c>
-      <c r="BC62" s="19">
-        <v>591600</v>
-      </c>
       <c r="BE62" s="19">
         <v>579400</v>
       </c>
@@ -10911,9 +10783,6 @@
         <v>577000</v>
       </c>
       <c r="N64" s="19">
-        <v>577000</v>
-      </c>
-      <c r="O64" s="19">
         <v>577000</v>
       </c>
       <c r="P64" s="19">
@@ -11936,10 +11805,10 @@
     <mergeCell ref="AP1:AX1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:BH44">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>B4&lt;&gt;B52</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11954,7 +11823,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:BH21">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>B4&lt;&gt;B52</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11967,8 +11836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8EFDD4-F9AD-44A6-BB24-105235AE57FA}">
   <dimension ref="A1:BJ74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L55" sqref="D55:V74"/>
+    <sheetView tabSelected="1" topLeftCell="J49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W53" sqref="W53:AG53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11980,79 +11849,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:62" x14ac:dyDescent="0.35">
-      <c r="D1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89" t="s">
+      <c r="D1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89" t="s">
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89" t="s">
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89" t="s">
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89" t="s">
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89"/>
-      <c r="BA1" s="89" t="s">
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="91"/>
+      <c r="BJ1" s="91"/>
     </row>
     <row r="2" spans="2:62" x14ac:dyDescent="0.35">
       <c r="D2" s="13">
@@ -19662,79 +19531,79 @@
       </c>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.35">
-      <c r="D51" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89" t="s">
+      <c r="D51" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89" t="s">
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="89"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="89"/>
-      <c r="V51" s="89"/>
-      <c r="W51" s="89" t="s">
+      <c r="M51" s="91"/>
+      <c r="N51" s="91"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="91"/>
+      <c r="R51" s="91"/>
+      <c r="S51" s="91"/>
+      <c r="T51" s="91"/>
+      <c r="U51" s="91"/>
+      <c r="V51" s="91"/>
+      <c r="W51" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="X51" s="89"/>
-      <c r="Y51" s="89"/>
-      <c r="Z51" s="89"/>
-      <c r="AA51" s="89"/>
-      <c r="AB51" s="89"/>
-      <c r="AC51" s="89"/>
-      <c r="AD51" s="89"/>
-      <c r="AE51" s="89"/>
-      <c r="AF51" s="89"/>
-      <c r="AG51" s="89"/>
-      <c r="AH51" s="89" t="s">
+      <c r="X51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="91"/>
+      <c r="AA51" s="91"/>
+      <c r="AB51" s="91"/>
+      <c r="AC51" s="91"/>
+      <c r="AD51" s="91"/>
+      <c r="AE51" s="91"/>
+      <c r="AF51" s="91"/>
+      <c r="AG51" s="91"/>
+      <c r="AH51" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AI51" s="89"/>
-      <c r="AJ51" s="89"/>
-      <c r="AK51" s="89"/>
-      <c r="AL51" s="89"/>
-      <c r="AM51" s="89"/>
-      <c r="AN51" s="89"/>
-      <c r="AO51" s="89"/>
-      <c r="AP51" s="89"/>
-      <c r="AQ51" s="89"/>
-      <c r="AR51" s="89" t="s">
+      <c r="AI51" s="91"/>
+      <c r="AJ51" s="91"/>
+      <c r="AK51" s="91"/>
+      <c r="AL51" s="91"/>
+      <c r="AM51" s="91"/>
+      <c r="AN51" s="91"/>
+      <c r="AO51" s="91"/>
+      <c r="AP51" s="91"/>
+      <c r="AQ51" s="91"/>
+      <c r="AR51" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AS51" s="89"/>
-      <c r="AT51" s="89"/>
-      <c r="AU51" s="89"/>
-      <c r="AV51" s="89"/>
-      <c r="AW51" s="89"/>
-      <c r="AX51" s="89"/>
-      <c r="AY51" s="89"/>
-      <c r="AZ51" s="89"/>
-      <c r="BA51" s="89" t="s">
+      <c r="AS51" s="91"/>
+      <c r="AT51" s="91"/>
+      <c r="AU51" s="91"/>
+      <c r="AV51" s="91"/>
+      <c r="AW51" s="91"/>
+      <c r="AX51" s="91"/>
+      <c r="AY51" s="91"/>
+      <c r="AZ51" s="91"/>
+      <c r="BA51" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="BB51" s="89"/>
-      <c r="BC51" s="89"/>
-      <c r="BD51" s="89"/>
-      <c r="BE51" s="89"/>
-      <c r="BF51" s="89"/>
-      <c r="BG51" s="89"/>
-      <c r="BH51" s="89"/>
-      <c r="BI51" s="89"/>
-      <c r="BJ51" s="89"/>
+      <c r="BB51" s="91"/>
+      <c r="BC51" s="91"/>
+      <c r="BD51" s="91"/>
+      <c r="BE51" s="91"/>
+      <c r="BF51" s="91"/>
+      <c r="BG51" s="91"/>
+      <c r="BH51" s="91"/>
+      <c r="BI51" s="91"/>
+      <c r="BJ51" s="91"/>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.35">
       <c r="D52" s="13">
@@ -19974,37 +19843,37 @@
         <v>0</v>
       </c>
       <c r="W53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="X53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="7">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="7">
         <v>-6100</v>
@@ -20190,7 +20059,7 @@
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.35">
-      <c r="C55" s="92"/>
+      <c r="C55" s="90"/>
       <c r="D55" s="93" t="s">
         <v>0</v>
       </c>
@@ -20265,7 +20134,7 @@
       <c r="BI55" s="93"/>
       <c r="BJ55" s="93"/>
     </row>
-    <row r="56" spans="1:62" s="91" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:62" s="89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C56" s="88"/>
       <c r="D56" s="88">
         <v>522</v>
@@ -20454,242 +20323,242 @@
         <f>B6-6100</f>
         <v>607100</v>
       </c>
-      <c r="C57" s="92" t="s">
+      <c r="C57" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="92" t="str">
+      <c r="D57" s="90" t="str">
         <f>IF(D6,D6-$B57+D$53,"")</f>
         <v/>
       </c>
-      <c r="E57" s="92" t="str">
+      <c r="E57" s="90" t="str">
         <f t="shared" ref="E57:BJ57" si="37">IF(E6,E6-$B57+E$53,"")</f>
         <v/>
       </c>
-      <c r="F57" s="92">
+      <c r="F57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G57" s="92">
+      <c r="G57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="H57" s="92">
+      <c r="H57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="I57" s="92">
+      <c r="I57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="J57" s="92">
+      <c r="J57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="K57" s="92">
+      <c r="K57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L57" s="92">
+      <c r="L57" s="90">
         <f t="shared" si="37"/>
         <v>18300</v>
       </c>
-      <c r="M57" s="92">
+      <c r="M57" s="90">
         <f t="shared" si="37"/>
         <v>18300</v>
       </c>
-      <c r="N57" s="92">
+      <c r="N57" s="90">
         <f t="shared" si="37"/>
         <v>18300</v>
       </c>
-      <c r="O57" s="92">
+      <c r="O57" s="90">
         <f t="shared" si="37"/>
         <v>6100</v>
       </c>
-      <c r="P57" s="92">
+      <c r="P57" s="90">
         <f t="shared" si="37"/>
         <v>6100</v>
       </c>
-      <c r="Q57" s="92">
+      <c r="Q57" s="90">
         <f t="shared" si="37"/>
         <v>6100</v>
       </c>
-      <c r="R57" s="92">
+      <c r="R57" s="90">
         <f t="shared" si="37"/>
         <v>6100</v>
       </c>
-      <c r="S57" s="92">
+      <c r="S57" s="90">
         <f t="shared" si="37"/>
         <v>6100</v>
       </c>
-      <c r="T57" s="92">
+      <c r="T57" s="90">
         <f t="shared" si="37"/>
         <v>6100</v>
       </c>
-      <c r="U57" s="92" t="str">
+      <c r="U57" s="90" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="V57" s="92" t="str">
+      <c r="V57" s="90" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="W57" s="92">
+      <c r="W57" s="90">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="X57" s="92">
+        <v>6100</v>
+      </c>
+      <c r="X57" s="90">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="92" t="str">
+        <v>6100</v>
+      </c>
+      <c r="Y57" s="90" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="Z57" s="92" t="str">
+      <c r="Z57" s="90" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="AA57" s="92">
+      <c r="AA57" s="90">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AB57" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AB57" s="90">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AC57" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AC57" s="90">
         <f t="shared" si="37"/>
-        <v>12200</v>
-      </c>
-      <c r="AD57" s="92">
+        <v>18300</v>
+      </c>
+      <c r="AD57" s="90">
         <f t="shared" si="37"/>
-        <v>12200</v>
-      </c>
-      <c r="AE57" s="92">
+        <v>18300</v>
+      </c>
+      <c r="AE57" s="90">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF57" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AF57" s="90">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AG57" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AG57" s="90">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AH57" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AH57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AI57" s="92">
+      <c r="AI57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AJ57" s="92">
+      <c r="AJ57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AK57" s="92">
+      <c r="AK57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AL57" s="92">
+      <c r="AL57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AM57" s="92">
+      <c r="AM57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AN57" s="92" t="str">
+      <c r="AN57" s="90" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="AO57" s="92" t="str">
+      <c r="AO57" s="90" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="AP57" s="92">
+      <c r="AP57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AQ57" s="92">
+      <c r="AQ57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AR57" s="92">
+      <c r="AR57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AS57" s="92">
+      <c r="AS57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AT57" s="92">
+      <c r="AT57" s="90">
         <f t="shared" si="37"/>
         <v>-12200</v>
       </c>
-      <c r="AU57" s="92">
+      <c r="AU57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AV57" s="92">
+      <c r="AV57" s="90">
         <f t="shared" si="37"/>
         <v>-12200</v>
       </c>
-      <c r="AW57" s="92">
+      <c r="AW57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AX57" s="92">
+      <c r="AX57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AY57" s="92">
+      <c r="AY57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AZ57" s="92">
+      <c r="AZ57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BA57" s="92">
+      <c r="BA57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BB57" s="92">
+      <c r="BB57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BC57" s="92" t="str">
+      <c r="BC57" s="90" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="BD57" s="92" t="str">
+      <c r="BD57" s="90" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="BE57" s="92">
+      <c r="BE57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BF57" s="92">
+      <c r="BF57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BG57" s="92">
+      <c r="BG57" s="90">
         <f t="shared" si="37"/>
         <v>-12200</v>
       </c>
-      <c r="BH57" s="92">
+      <c r="BH57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BI57" s="92">
+      <c r="BI57" s="90">
         <f t="shared" si="37"/>
         <v>-6100</v>
       </c>
-      <c r="BJ57" s="92">
+      <c r="BJ57" s="90">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -20703,242 +20572,242 @@
         <f>B7-6100</f>
         <v>607100</v>
       </c>
-      <c r="C58" s="92" t="s">
+      <c r="C58" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="92" t="str">
+      <c r="D58" s="90" t="str">
         <f t="shared" ref="D58:BJ58" si="39">IF(D7,D7-$B58+D$53,"")</f>
         <v/>
       </c>
-      <c r="E58" s="92" t="str">
+      <c r="E58" s="90" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F58" s="92">
+      <c r="F58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G58" s="92">
+      <c r="G58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H58" s="92">
+      <c r="H58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I58" s="92">
+      <c r="I58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J58" s="92">
+      <c r="J58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K58" s="92">
+      <c r="K58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L58" s="92">
+      <c r="L58" s="90">
         <f t="shared" si="39"/>
         <v>18300</v>
       </c>
-      <c r="M58" s="92">
+      <c r="M58" s="90">
         <f t="shared" si="39"/>
         <v>18300</v>
       </c>
-      <c r="N58" s="92">
+      <c r="N58" s="90">
         <f t="shared" si="39"/>
         <v>18300</v>
       </c>
-      <c r="O58" s="92">
+      <c r="O58" s="90">
         <f t="shared" si="39"/>
         <v>6100</v>
       </c>
-      <c r="P58" s="92">
+      <c r="P58" s="90">
         <f t="shared" si="39"/>
         <v>6100</v>
       </c>
-      <c r="Q58" s="92">
+      <c r="Q58" s="90">
         <f t="shared" si="39"/>
         <v>6100</v>
       </c>
-      <c r="R58" s="92">
+      <c r="R58" s="90">
         <f t="shared" si="39"/>
         <v>6100</v>
       </c>
-      <c r="S58" s="92">
+      <c r="S58" s="90">
         <f t="shared" si="39"/>
         <v>6100</v>
       </c>
-      <c r="T58" s="92">
+      <c r="T58" s="90">
         <f t="shared" si="39"/>
         <v>6100</v>
       </c>
-      <c r="U58" s="92" t="str">
+      <c r="U58" s="90" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="V58" s="92" t="str">
+      <c r="V58" s="90" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="W58" s="92">
+      <c r="W58" s="90">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="X58" s="92">
+        <v>6100</v>
+      </c>
+      <c r="X58" s="90">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="92" t="str">
+        <v>6100</v>
+      </c>
+      <c r="Y58" s="90" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="Z58" s="92" t="str">
+      <c r="Z58" s="90" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AA58" s="92">
+      <c r="AA58" s="90">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AB58" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AB58" s="90">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AC58" s="90">
         <f t="shared" si="39"/>
-        <v>12200</v>
-      </c>
-      <c r="AD58" s="92">
+        <v>18300</v>
+      </c>
+      <c r="AD58" s="90">
         <f t="shared" si="39"/>
-        <v>12200</v>
-      </c>
-      <c r="AE58" s="92">
+        <v>18300</v>
+      </c>
+      <c r="AE58" s="90">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AF58" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AF58" s="90">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AG58" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AG58" s="90">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AH58" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AH58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI58" s="92">
+      <c r="AI58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AJ58" s="92">
+      <c r="AJ58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AK58" s="92">
+      <c r="AK58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AL58" s="92">
+      <c r="AL58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AM58" s="92">
+      <c r="AM58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AN58" s="92" t="str">
+      <c r="AN58" s="90" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AO58" s="92" t="str">
+      <c r="AO58" s="90" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AP58" s="92">
+      <c r="AP58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AQ58" s="92">
+      <c r="AQ58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AR58" s="92">
+      <c r="AR58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AS58" s="92">
+      <c r="AS58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AT58" s="92">
+      <c r="AT58" s="90">
         <f t="shared" si="39"/>
         <v>-12200</v>
       </c>
-      <c r="AU58" s="92">
+      <c r="AU58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AV58" s="92">
+      <c r="AV58" s="90">
         <f t="shared" si="39"/>
         <v>-12200</v>
       </c>
-      <c r="AW58" s="92">
+      <c r="AW58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AX58" s="92">
+      <c r="AX58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AY58" s="92">
+      <c r="AY58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AZ58" s="92">
+      <c r="AZ58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BA58" s="92">
+      <c r="BA58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BB58" s="92">
+      <c r="BB58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BC58" s="92" t="str">
+      <c r="BC58" s="90" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="BD58" s="92" t="str">
+      <c r="BD58" s="90" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="BE58" s="92">
+      <c r="BE58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BF58" s="92">
+      <c r="BF58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BG58" s="92">
+      <c r="BG58" s="90">
         <f t="shared" si="39"/>
         <v>-12200</v>
       </c>
-      <c r="BH58" s="92">
+      <c r="BH58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BI58" s="92">
+      <c r="BI58" s="90">
         <f t="shared" si="39"/>
         <v>-6100</v>
       </c>
-      <c r="BJ58" s="92">
+      <c r="BJ58" s="90">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -20952,242 +20821,242 @@
         <f>B8-6100</f>
         <v>604700</v>
       </c>
-      <c r="C59" s="92" t="s">
+      <c r="C59" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="92" t="str">
+      <c r="D59" s="90" t="str">
         <f t="shared" ref="D59:BJ59" si="40">IF(D8,D8-$B59+D$53,"")</f>
         <v/>
       </c>
-      <c r="E59" s="92" t="str">
+      <c r="E59" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F59" s="92">
+      <c r="F59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="G59" s="92">
+      <c r="G59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="H59" s="92">
+      <c r="H59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="I59" s="92">
+      <c r="I59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="J59" s="92">
+      <c r="J59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="K59" s="92">
+      <c r="K59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L59" s="92">
+      <c r="L59" s="90">
         <f t="shared" si="40"/>
         <v>18300</v>
       </c>
-      <c r="M59" s="92">
+      <c r="M59" s="90">
         <f t="shared" si="40"/>
         <v>18300</v>
       </c>
-      <c r="N59" s="92">
+      <c r="N59" s="90">
         <f t="shared" si="40"/>
         <v>18300</v>
       </c>
-      <c r="O59" s="92">
+      <c r="O59" s="90">
         <f t="shared" si="40"/>
         <v>6100</v>
       </c>
-      <c r="P59" s="92">
+      <c r="P59" s="90">
         <f t="shared" si="40"/>
         <v>6100</v>
       </c>
-      <c r="Q59" s="92">
+      <c r="Q59" s="90">
         <f t="shared" si="40"/>
         <v>6100</v>
       </c>
-      <c r="R59" s="92">
+      <c r="R59" s="90">
         <f t="shared" si="40"/>
         <v>6100</v>
       </c>
-      <c r="S59" s="92">
+      <c r="S59" s="90">
         <f t="shared" si="40"/>
         <v>6100</v>
       </c>
-      <c r="T59" s="92">
+      <c r="T59" s="90">
         <f t="shared" si="40"/>
         <v>6100</v>
       </c>
-      <c r="U59" s="92" t="str">
+      <c r="U59" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="V59" s="92" t="str">
+      <c r="V59" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="W59" s="92">
+      <c r="W59" s="90">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="X59" s="92">
+        <v>6100</v>
+      </c>
+      <c r="X59" s="90">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="92" t="str">
+        <v>6100</v>
+      </c>
+      <c r="Y59" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="Z59" s="92" t="str">
+      <c r="Z59" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AA59" s="92">
+      <c r="AA59" s="90">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AB59" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AB59" s="90">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AC59" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AC59" s="90">
         <f t="shared" si="40"/>
-        <v>12200</v>
-      </c>
-      <c r="AD59" s="92">
+        <v>18300</v>
+      </c>
+      <c r="AD59" s="90">
         <f t="shared" si="40"/>
-        <v>12200</v>
-      </c>
-      <c r="AE59" s="92">
+        <v>18300</v>
+      </c>
+      <c r="AE59" s="90">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AF59" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AF59" s="90">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AG59" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AG59" s="90">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AH59" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AH59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AI59" s="92">
+      <c r="AI59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ59" s="92">
+      <c r="AJ59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AK59" s="92">
+      <c r="AK59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AL59" s="92">
+      <c r="AL59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AM59" s="92">
+      <c r="AM59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AN59" s="92" t="str">
+      <c r="AN59" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AO59" s="92" t="str">
+      <c r="AO59" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AP59" s="92">
+      <c r="AP59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AQ59" s="92">
+      <c r="AQ59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AR59" s="92">
+      <c r="AR59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AS59" s="92">
+      <c r="AS59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AT59" s="92">
+      <c r="AT59" s="90">
         <f t="shared" si="40"/>
         <v>-12200</v>
       </c>
-      <c r="AU59" s="92">
+      <c r="AU59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AV59" s="92">
+      <c r="AV59" s="90">
         <f t="shared" si="40"/>
         <v>-12200</v>
       </c>
-      <c r="AW59" s="92">
+      <c r="AW59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AX59" s="92">
+      <c r="AX59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AY59" s="92">
+      <c r="AY59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AZ59" s="92">
+      <c r="AZ59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="BA59" s="92">
+      <c r="BA59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="BB59" s="92">
+      <c r="BB59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="BC59" s="92" t="str">
+      <c r="BC59" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="BD59" s="92" t="str">
+      <c r="BD59" s="90" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="BE59" s="92">
+      <c r="BE59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="BF59" s="92">
+      <c r="BF59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="BG59" s="92">
+      <c r="BG59" s="90">
         <f t="shared" si="40"/>
         <v>-12200</v>
       </c>
-      <c r="BH59" s="92">
+      <c r="BH59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="BI59" s="92">
+      <c r="BI59" s="90">
         <f t="shared" si="40"/>
         <v>-6100</v>
       </c>
-      <c r="BJ59" s="92">
+      <c r="BJ59" s="90">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -21201,242 +21070,242 @@
         <f>B9-6100</f>
         <v>602300</v>
       </c>
-      <c r="C60" s="92" t="s">
+      <c r="C60" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="92" t="str">
+      <c r="D60" s="90" t="str">
         <f t="shared" ref="D60:BJ60" si="41">IF(D9,D9-$B60+D$53,"")</f>
         <v/>
       </c>
-      <c r="E60" s="92" t="str">
+      <c r="E60" s="90" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F60" s="92">
+      <c r="F60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="G60" s="92">
+      <c r="G60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="H60" s="92">
+      <c r="H60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="I60" s="92">
+      <c r="I60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J60" s="92">
+      <c r="J60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="K60" s="92">
+      <c r="K60" s="90">
         <f t="shared" si="41"/>
         <v>-6100</v>
       </c>
-      <c r="L60" s="92">
+      <c r="L60" s="90">
         <f t="shared" si="41"/>
         <v>18300</v>
       </c>
-      <c r="M60" s="92">
+      <c r="M60" s="90">
         <f t="shared" si="41"/>
         <v>18300</v>
       </c>
-      <c r="N60" s="92">
+      <c r="N60" s="90">
         <f t="shared" si="41"/>
         <v>18300</v>
       </c>
-      <c r="O60" s="92">
+      <c r="O60" s="90">
         <f t="shared" si="41"/>
         <v>6100</v>
       </c>
-      <c r="P60" s="92">
+      <c r="P60" s="90">
         <f t="shared" si="41"/>
         <v>6100</v>
       </c>
-      <c r="Q60" s="92">
+      <c r="Q60" s="90">
         <f t="shared" si="41"/>
         <v>6100</v>
       </c>
-      <c r="R60" s="92">
+      <c r="R60" s="90">
         <f t="shared" si="41"/>
         <v>6100</v>
       </c>
-      <c r="S60" s="92">
+      <c r="S60" s="90">
         <f t="shared" si="41"/>
         <v>6100</v>
       </c>
-      <c r="T60" s="92">
+      <c r="T60" s="90">
         <f t="shared" si="41"/>
         <v>6100</v>
       </c>
-      <c r="U60" s="92" t="str">
+      <c r="U60" s="90" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="V60" s="92" t="str">
+      <c r="V60" s="90" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="W60" s="92">
+      <c r="W60" s="90">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="X60" s="92">
+        <v>6100</v>
+      </c>
+      <c r="X60" s="90">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="92" t="str">
+        <v>6100</v>
+      </c>
+      <c r="Y60" s="90" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="Z60" s="92" t="str">
+      <c r="Z60" s="90" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AA60" s="92">
+      <c r="AA60" s="90">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AB60" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AB60" s="90">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AC60" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AC60" s="90">
         <f t="shared" si="41"/>
-        <v>12200</v>
-      </c>
-      <c r="AD60" s="92">
+        <v>18300</v>
+      </c>
+      <c r="AD60" s="90">
         <f t="shared" si="41"/>
-        <v>12200</v>
-      </c>
-      <c r="AE60" s="92">
+        <v>18300</v>
+      </c>
+      <c r="AE60" s="90">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AF60" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AF60" s="90">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AG60" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AG60" s="90">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AH60" s="92">
+        <v>6100</v>
+      </c>
+      <c r="AH60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AI60" s="92">
+      <c r="AI60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AJ60" s="92">
+      <c r="AJ60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK60" s="92">
+      <c r="AK60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AL60" s="92">
+      <c r="AL60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AM60" s="92">
+      <c r="AM60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AN60" s="92" t="str">
+      <c r="AN60" s="90" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AO60" s="92" t="str">
+      <c r="AO60" s="90" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AP60" s="92">
+      <c r="AP60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AQ60" s="92">
+      <c r="AQ60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AR60" s="92">
+      <c r="AR60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AS60" s="92">
+      <c r="AS60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AT60" s="92">
+      <c r="AT60" s="90">
         <f t="shared" si="41"/>
         <v>-12200</v>
       </c>
-      <c r="AU60" s="92">
+      <c r="AU60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AV60" s="92">
+      <c r="AV60" s="90">
         <f t="shared" si="41"/>
         <v>-12200</v>
       </c>
-      <c r="AW60" s="92">
+      <c r="AW60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AX60" s="92">
+      <c r="AX60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AY60" s="92">
+      <c r="AY60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AZ60" s="92">
+      <c r="AZ60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BA60" s="92">
+      <c r="BA60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BB60" s="92">
+      <c r="BB60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BC60" s="92" t="str">
+      <c r="BC60" s="90" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="BD60" s="92" t="str">
+      <c r="BD60" s="90" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="BE60" s="92">
+      <c r="BE60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BF60" s="92">
+      <c r="BF60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BG60" s="92">
+      <c r="BG60" s="90">
         <f t="shared" si="41"/>
         <v>-12200</v>
       </c>
-      <c r="BH60" s="92">
+      <c r="BH60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BI60" s="92">
+      <c r="BI60" s="90">
         <f t="shared" si="41"/>
         <v>-6100</v>
       </c>
-      <c r="BJ60" s="92">
+      <c r="BJ60" s="90">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -21450,242 +21319,242 @@
         <f>B10-6100</f>
         <v>599900</v>
       </c>
-      <c r="C61" s="92" t="s">
+      <c r="C61" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="92">
+      <c r="D61" s="90">
         <f t="shared" ref="D61:BJ61" si="42">IF(D10,D10-$B61+D$53,"")</f>
         <v>-2400</v>
       </c>
-      <c r="E61" s="92">
+      <c r="E61" s="90">
         <f t="shared" si="42"/>
         <v>-2400</v>
       </c>
-      <c r="F61" s="92">
+      <c r="F61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="G61" s="92">
+      <c r="G61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="H61" s="92">
+      <c r="H61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="I61" s="92">
+      <c r="I61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="J61" s="92">
+      <c r="J61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="K61" s="92">
+      <c r="K61" s="90">
         <f t="shared" si="42"/>
         <v>-6100</v>
       </c>
-      <c r="L61" s="92">
+      <c r="L61" s="90">
         <f t="shared" si="42"/>
         <v>12200</v>
       </c>
-      <c r="M61" s="92">
+      <c r="M61" s="90">
         <f t="shared" si="42"/>
         <v>12200</v>
       </c>
-      <c r="N61" s="92">
+      <c r="N61" s="90">
         <f t="shared" si="42"/>
         <v>12200</v>
       </c>
-      <c r="O61" s="92">
+      <c r="O61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="P61" s="92">
+      <c r="P61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="92">
+      <c r="Q61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="R61" s="92">
+      <c r="R61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="S61" s="92">
+      <c r="S61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="T61" s="92">
+      <c r="T61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="U61" s="92">
+      <c r="U61" s="90">
         <f t="shared" si="42"/>
         <v>-2400</v>
       </c>
-      <c r="V61" s="92">
+      <c r="V61" s="90">
         <f t="shared" si="42"/>
         <v>-2400</v>
       </c>
-      <c r="W61" s="92">
+      <c r="W61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="90">
+        <f t="shared" si="42"/>
+        <v>-2400</v>
+      </c>
+      <c r="Z61" s="90">
+        <f t="shared" si="42"/>
+        <v>-2400</v>
+      </c>
+      <c r="AA61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="90">
+        <f t="shared" si="42"/>
+        <v>12200</v>
+      </c>
+      <c r="AD61" s="90">
+        <f t="shared" si="42"/>
+        <v>12200</v>
+      </c>
+      <c r="AE61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AH61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AK61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AL61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AM61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN61" s="90">
+        <f t="shared" si="42"/>
+        <v>-2400</v>
+      </c>
+      <c r="AO61" s="90">
+        <f t="shared" si="42"/>
+        <v>-2400</v>
+      </c>
+      <c r="AP61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AR61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AS61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AT61" s="90">
+        <f t="shared" si="42"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AV61" s="90">
+        <f t="shared" si="42"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AX61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AY61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AZ61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BA61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BB61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BC61" s="90">
+        <f t="shared" si="42"/>
+        <v>-2400</v>
+      </c>
+      <c r="BD61" s="90">
+        <f t="shared" si="42"/>
+        <v>-2400</v>
+      </c>
+      <c r="BE61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BF61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BG61" s="90">
+        <f t="shared" si="42"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH61" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BI61" s="90">
         <f t="shared" si="42"/>
         <v>-6100</v>
       </c>
-      <c r="X61" s="92">
-        <f t="shared" si="42"/>
-        <v>-6100</v>
-      </c>
-      <c r="Y61" s="92">
-        <f t="shared" si="42"/>
-        <v>-8500</v>
-      </c>
-      <c r="Z61" s="92">
-        <f t="shared" si="42"/>
-        <v>-8500</v>
-      </c>
-      <c r="AA61" s="92">
-        <f t="shared" si="42"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB61" s="92">
-        <f t="shared" si="42"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC61" s="92">
-        <f t="shared" si="42"/>
-        <v>6100</v>
-      </c>
-      <c r="AD61" s="92">
-        <f t="shared" si="42"/>
-        <v>6100</v>
-      </c>
-      <c r="AE61" s="92">
-        <f t="shared" si="42"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF61" s="92">
-        <f t="shared" si="42"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG61" s="92">
-        <f t="shared" si="42"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AI61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AK61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AL61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AM61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AN61" s="92">
-        <f t="shared" si="42"/>
-        <v>-2400</v>
-      </c>
-      <c r="AO61" s="92">
-        <f t="shared" si="42"/>
-        <v>-2400</v>
-      </c>
-      <c r="AP61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AQ61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AR61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AS61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AT61" s="92">
-        <f t="shared" si="42"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AV61" s="92">
-        <f t="shared" si="42"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AX61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AY61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AZ61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="BA61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="BB61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="BC61" s="92">
-        <f t="shared" si="42"/>
-        <v>-2400</v>
-      </c>
-      <c r="BD61" s="92">
-        <f t="shared" si="42"/>
-        <v>-2400</v>
-      </c>
-      <c r="BE61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="BF61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="BG61" s="92">
-        <f t="shared" si="42"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH61" s="92">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="BI61" s="92">
-        <f t="shared" si="42"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ61" s="92">
+      <c r="BJ61" s="90">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
@@ -21699,242 +21568,242 @@
         <f>B11</f>
         <v>597500</v>
       </c>
-      <c r="C62" s="92" t="s">
+      <c r="C62" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="92">
+      <c r="D62" s="90">
         <f t="shared" ref="D62:BJ62" si="43">IF(D11,D11-$B62+D$53,"")</f>
         <v>0</v>
       </c>
-      <c r="E62" s="92">
+      <c r="E62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="F62" s="92">
+      <c r="F62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="G62" s="92">
+      <c r="G62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="H62" s="92">
+      <c r="H62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="I62" s="92">
+      <c r="I62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J62" s="92">
+      <c r="J62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="K62" s="92">
+      <c r="K62" s="90">
         <f t="shared" si="43"/>
         <v>-6100</v>
       </c>
-      <c r="L62" s="92">
+      <c r="L62" s="90">
         <f t="shared" si="43"/>
         <v>12200</v>
       </c>
-      <c r="M62" s="92">
+      <c r="M62" s="90">
         <f t="shared" si="43"/>
         <v>12200</v>
       </c>
-      <c r="N62" s="92">
+      <c r="N62" s="90">
         <f t="shared" si="43"/>
         <v>12200</v>
       </c>
-      <c r="O62" s="92">
+      <c r="O62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="P62" s="92">
+      <c r="P62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="92">
+      <c r="Q62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="R62" s="92">
+      <c r="R62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="S62" s="92">
+      <c r="S62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="T62" s="92">
+      <c r="T62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U62" s="92">
+      <c r="U62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="V62" s="92">
+      <c r="V62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="W62" s="92">
+      <c r="W62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AB62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="90">
+        <f t="shared" si="43"/>
+        <v>12200</v>
+      </c>
+      <c r="AD62" s="90">
+        <f t="shared" si="43"/>
+        <v>12200</v>
+      </c>
+      <c r="AE62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AH62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AI62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AK62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AL62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AM62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AN62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AO62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AP62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AR62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AS62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AT62" s="90">
+        <f t="shared" si="43"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AV62" s="90">
+        <f t="shared" si="43"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AX62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AY62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BA62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BB62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BC62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BD62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BE62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BF62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BG62" s="90">
+        <f t="shared" si="43"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH62" s="90">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BI62" s="90">
         <f t="shared" si="43"/>
         <v>-6100</v>
       </c>
-      <c r="X62" s="92">
-        <f t="shared" si="43"/>
-        <v>-6100</v>
-      </c>
-      <c r="Y62" s="92">
-        <f t="shared" si="43"/>
-        <v>-6100</v>
-      </c>
-      <c r="Z62" s="92">
-        <f t="shared" si="43"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA62" s="92">
-        <f t="shared" si="43"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB62" s="92">
-        <f t="shared" si="43"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC62" s="92">
-        <f t="shared" si="43"/>
-        <v>6100</v>
-      </c>
-      <c r="AD62" s="92">
-        <f t="shared" si="43"/>
-        <v>6100</v>
-      </c>
-      <c r="AE62" s="92">
-        <f t="shared" si="43"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF62" s="92">
-        <f t="shared" si="43"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG62" s="92">
-        <f t="shared" si="43"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AI62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AK62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AL62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AM62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AN62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AO62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AP62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AQ62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AR62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AS62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AT62" s="92">
-        <f t="shared" si="43"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AV62" s="92">
-        <f t="shared" si="43"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AX62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AY62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AZ62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="BA62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="BB62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="BC62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="BD62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="BE62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="BF62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="BG62" s="92">
-        <f t="shared" si="43"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH62" s="92">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="BI62" s="92">
-        <f t="shared" si="43"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ62" s="92">
+      <c r="BJ62" s="90">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -21948,242 +21817,242 @@
         <f>B12</f>
         <v>595100</v>
       </c>
-      <c r="C63" s="92" t="s">
+      <c r="C63" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="92">
+      <c r="D63" s="90">
         <f t="shared" ref="D63:BJ63" si="44">IF(D12,D12-$B63+D$53,"")</f>
         <v>0</v>
       </c>
-      <c r="E63" s="92">
+      <c r="E63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="F63" s="92">
+      <c r="F63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="G63" s="92">
+      <c r="G63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="H63" s="92">
+      <c r="H63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="I63" s="92">
+      <c r="I63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="J63" s="92">
+      <c r="J63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K63" s="92">
+      <c r="K63" s="90">
         <f t="shared" si="44"/>
         <v>-6100</v>
       </c>
-      <c r="L63" s="92">
+      <c r="L63" s="90">
         <f t="shared" si="44"/>
         <v>12200</v>
       </c>
-      <c r="M63" s="92">
+      <c r="M63" s="90">
         <f t="shared" si="44"/>
         <v>12200</v>
       </c>
-      <c r="N63" s="92">
+      <c r="N63" s="90">
         <f t="shared" si="44"/>
         <v>12200</v>
       </c>
-      <c r="O63" s="92">
+      <c r="O63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="P63" s="92">
+      <c r="P63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="92">
+      <c r="Q63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="R63" s="92">
+      <c r="R63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="S63" s="92">
+      <c r="S63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="T63" s="92">
+      <c r="T63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="U63" s="92">
+      <c r="U63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V63" s="92">
+      <c r="V63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="W63" s="92">
+      <c r="W63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="90">
+        <f t="shared" si="44"/>
+        <v>12200</v>
+      </c>
+      <c r="AD63" s="90">
+        <f t="shared" si="44"/>
+        <v>12200</v>
+      </c>
+      <c r="AE63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AH63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AI63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="90">
         <f t="shared" si="44"/>
         <v>-6100</v>
       </c>
-      <c r="X63" s="92">
+      <c r="AK63" s="90">
         <f t="shared" si="44"/>
         <v>-6100</v>
       </c>
-      <c r="Y63" s="92">
+      <c r="AL63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AM63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AN63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AO63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AP63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AR63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AS63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AT63" s="90">
+        <f t="shared" si="44"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AV63" s="90">
+        <f t="shared" si="44"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AX63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AY63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="BA63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="BB63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="BC63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="BD63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="BE63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="BF63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="BG63" s="90">
+        <f t="shared" si="44"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH63" s="90">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="BI63" s="90">
         <f t="shared" si="44"/>
         <v>-6100</v>
       </c>
-      <c r="Z63" s="92">
-        <f t="shared" si="44"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA63" s="92">
-        <f t="shared" si="44"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB63" s="92">
-        <f t="shared" si="44"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC63" s="92">
-        <f t="shared" si="44"/>
-        <v>6100</v>
-      </c>
-      <c r="AD63" s="92">
-        <f t="shared" si="44"/>
-        <v>6100</v>
-      </c>
-      <c r="AE63" s="92">
-        <f t="shared" si="44"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF63" s="92">
-        <f t="shared" si="44"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG63" s="92">
-        <f t="shared" si="44"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AI63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="92">
-        <f t="shared" si="44"/>
-        <v>-6100</v>
-      </c>
-      <c r="AK63" s="92">
-        <f t="shared" si="44"/>
-        <v>-6100</v>
-      </c>
-      <c r="AL63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AM63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AN63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AO63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AP63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AQ63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AR63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AS63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AT63" s="92">
-        <f t="shared" si="44"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AV63" s="92">
-        <f t="shared" si="44"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AX63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AY63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AZ63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="BA63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="BB63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="BC63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="BD63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="BE63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="BF63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="BG63" s="92">
-        <f t="shared" si="44"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH63" s="92">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="BI63" s="92">
-        <f t="shared" si="44"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ63" s="92">
+      <c r="BJ63" s="90">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -22197,242 +22066,242 @@
         <f>B13-6100</f>
         <v>592700</v>
       </c>
-      <c r="C64" s="92" t="s">
+      <c r="C64" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="92">
+      <c r="D64" s="90">
         <f t="shared" ref="D64:BJ64" si="45">IF(D13,D13-$B64+D$53,"")</f>
         <v>0</v>
       </c>
-      <c r="E64" s="92">
+      <c r="E64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F64" s="92">
+      <c r="F64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="G64" s="92">
+      <c r="G64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="H64" s="92">
+      <c r="H64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="I64" s="92">
+      <c r="I64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="J64" s="92">
+      <c r="J64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="K64" s="92">
+      <c r="K64" s="90">
         <f t="shared" si="45"/>
         <v>-6100</v>
       </c>
-      <c r="L64" s="92">
+      <c r="L64" s="90">
         <f t="shared" si="45"/>
         <v>6100</v>
       </c>
-      <c r="M64" s="92">
+      <c r="M64" s="90">
         <f t="shared" si="45"/>
         <v>6100</v>
       </c>
-      <c r="N64" s="92">
+      <c r="N64" s="90">
         <f t="shared" si="45"/>
         <v>6100</v>
       </c>
-      <c r="O64" s="92">
+      <c r="O64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="P64" s="92">
+      <c r="P64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="92">
+      <c r="Q64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="R64" s="92">
+      <c r="R64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S64" s="92">
+      <c r="S64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="T64" s="92">
+      <c r="T64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="U64" s="92">
+      <c r="U64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="V64" s="92">
+      <c r="V64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W64" s="92">
+      <c r="W64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="90">
+        <f t="shared" si="45"/>
+        <v>6100</v>
+      </c>
+      <c r="AD64" s="90">
+        <f t="shared" si="45"/>
+        <v>6100</v>
+      </c>
+      <c r="AE64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="90">
+        <f t="shared" si="45"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK64" s="90">
+        <f t="shared" si="45"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AM64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AN64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AO64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AP64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AR64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AS64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AT64" s="90">
+        <f t="shared" si="45"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU64" s="90">
         <f t="shared" si="45"/>
         <v>-6100</v>
       </c>
-      <c r="X64" s="92">
+      <c r="AV64" s="90">
+        <f t="shared" si="45"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AX64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AY64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BA64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BB64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BC64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BD64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BE64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BF64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BG64" s="90">
+        <f t="shared" si="45"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH64" s="90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="BI64" s="90">
         <f t="shared" si="45"/>
         <v>-6100</v>
       </c>
-      <c r="Y64" s="92">
-        <f t="shared" si="45"/>
-        <v>-6100</v>
-      </c>
-      <c r="Z64" s="92">
-        <f t="shared" si="45"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA64" s="92">
-        <f t="shared" si="45"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB64" s="92">
-        <f t="shared" si="45"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AD64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AE64" s="92">
-        <f t="shared" si="45"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF64" s="92">
-        <f t="shared" si="45"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG64" s="92">
-        <f t="shared" si="45"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AI64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="92">
-        <f t="shared" si="45"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK64" s="92">
-        <f t="shared" si="45"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AM64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AN64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AO64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AP64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AR64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AS64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AT64" s="92">
-        <f t="shared" si="45"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU64" s="92">
-        <f t="shared" si="45"/>
-        <v>-6100</v>
-      </c>
-      <c r="AV64" s="92">
-        <f t="shared" si="45"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AX64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AY64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AZ64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="BA64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="BB64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="BC64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="BD64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="BE64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="BF64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="BG64" s="92">
-        <f t="shared" si="45"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH64" s="92">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="BI64" s="92">
-        <f t="shared" si="45"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ64" s="92">
+      <c r="BJ64" s="90">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -22443,246 +22312,246 @@
         <v>11</v>
       </c>
       <c r="B65" s="27">
-        <f>B14</f>
+        <f t="shared" ref="B65:B74" si="46">B14</f>
         <v>590300</v>
       </c>
-      <c r="C65" s="92" t="s">
+      <c r="C65" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="92">
-        <f t="shared" ref="D65:BJ65" si="46">IF(D14,D14-$B65+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="92">
-        <f t="shared" si="46"/>
+      <c r="D65" s="90">
+        <f t="shared" ref="D65:BJ65" si="47">IF(D14,D14-$B65+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="90">
+        <f t="shared" si="47"/>
         <v>-6100</v>
       </c>
-      <c r="L65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="92">
-        <f t="shared" si="46"/>
+      <c r="L65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="90">
+        <f t="shared" si="47"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK65" s="90">
+        <f t="shared" si="47"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AM65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AN65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AO65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AP65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AR65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AS65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AT65" s="90">
+        <f t="shared" si="47"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU65" s="90">
+        <f t="shared" si="47"/>
+        <v>-12200</v>
+      </c>
+      <c r="AV65" s="90">
+        <f t="shared" si="47"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AX65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AY65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="BA65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="BB65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="BC65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="BD65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="BE65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="BF65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="BG65" s="90">
+        <f t="shared" si="47"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH65" s="90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="BI65" s="90">
+        <f t="shared" si="47"/>
         <v>-6100</v>
       </c>
-      <c r="X65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="Y65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="Z65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="AD65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="AE65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AI65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="92">
-        <f t="shared" si="46"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK65" s="92">
-        <f t="shared" si="46"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AM65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AN65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AO65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AP65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AR65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AS65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AT65" s="92">
-        <f t="shared" si="46"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU65" s="92">
-        <f t="shared" si="46"/>
-        <v>-12200</v>
-      </c>
-      <c r="AV65" s="92">
-        <f t="shared" si="46"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AX65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AY65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AZ65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="BA65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="BB65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="BC65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="BD65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="BE65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="BF65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="BG65" s="92">
-        <f t="shared" si="46"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH65" s="92">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="BI65" s="92">
-        <f t="shared" si="46"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ65" s="92">
-        <f t="shared" si="46"/>
+      <c r="BJ65" s="90">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -22692,246 +22561,246 @@
         <v>10</v>
       </c>
       <c r="B66" s="27">
-        <f>B15</f>
+        <f t="shared" si="46"/>
         <v>587900</v>
       </c>
-      <c r="C66" s="92" t="s">
+      <c r="C66" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="92">
-        <f t="shared" ref="D66:BJ66" si="47">IF(D15,D15-$B66+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="92">
-        <f t="shared" si="47"/>
+      <c r="D66" s="90">
+        <f t="shared" ref="D66:BJ66" si="48">IF(D15,D15-$B66+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="90">
+        <f t="shared" si="48"/>
         <v>-6100</v>
       </c>
-      <c r="L66" s="92">
-        <f t="shared" si="47"/>
+      <c r="L66" s="90">
+        <f t="shared" si="48"/>
         <v>-12200</v>
       </c>
-      <c r="M66" s="92">
-        <f t="shared" si="47"/>
+      <c r="M66" s="90">
+        <f t="shared" si="48"/>
         <v>-12200</v>
       </c>
-      <c r="N66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="R66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="92">
-        <f t="shared" si="47"/>
+      <c r="N66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AH66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AI66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="90">
+        <f t="shared" si="48"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK66" s="90">
+        <f t="shared" si="48"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AM66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AO66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AP66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AR66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AS66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AT66" s="90">
+        <f t="shared" si="48"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU66" s="90">
+        <f t="shared" si="48"/>
+        <v>-12200</v>
+      </c>
+      <c r="AV66" s="90">
+        <f t="shared" si="48"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AX66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AY66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="BA66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="BB66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="BC66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="BD66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="BE66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="BF66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="BG66" s="90">
+        <f t="shared" si="48"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH66" s="90">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="BI66" s="90">
+        <f t="shared" si="48"/>
         <v>-6100</v>
       </c>
-      <c r="X66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="Y66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="Z66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="AD66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="AE66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AI66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="92">
-        <f t="shared" si="47"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK66" s="92">
-        <f t="shared" si="47"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AM66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AN66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AO66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AP66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AQ66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AR66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AS66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AT66" s="92">
-        <f t="shared" si="47"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU66" s="92">
-        <f t="shared" si="47"/>
-        <v>-12200</v>
-      </c>
-      <c r="AV66" s="92">
-        <f t="shared" si="47"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AX66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AY66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AZ66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="BA66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="BB66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="BC66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="BD66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="BE66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="BF66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="BG66" s="92">
-        <f t="shared" si="47"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH66" s="92">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="BI66" s="92">
-        <f t="shared" si="47"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ66" s="92">
-        <f t="shared" si="47"/>
+      <c r="BJ66" s="90">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -22941,246 +22810,246 @@
         <v>9</v>
       </c>
       <c r="B67" s="27">
-        <f>B16</f>
+        <f t="shared" si="46"/>
         <v>585500</v>
       </c>
-      <c r="C67" s="92" t="s">
+      <c r="C67" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="92">
-        <f t="shared" ref="D67:BJ67" si="48">IF(D16,D16-$B67+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="92">
-        <f t="shared" si="48"/>
+      <c r="D67" s="90">
+        <f t="shared" ref="D67:BJ67" si="49">IF(D16,D16-$B67+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="90">
+        <f t="shared" si="49"/>
         <v>-6100</v>
       </c>
-      <c r="L67" s="92">
-        <f t="shared" si="48"/>
+      <c r="L67" s="90">
+        <f t="shared" si="49"/>
         <v>-12200</v>
       </c>
-      <c r="M67" s="92">
-        <f t="shared" si="48"/>
+      <c r="M67" s="90">
+        <f t="shared" si="49"/>
         <v>-12200</v>
       </c>
-      <c r="N67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="R67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="92">
-        <f t="shared" si="48"/>
+      <c r="N67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="90" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="AC67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AH67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AI67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="90">
+        <f t="shared" si="49"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK67" s="90">
+        <f t="shared" si="49"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AM67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AN67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AO67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AP67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AR67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AS67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AT67" s="90" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="AU67" s="90">
+        <f t="shared" si="49"/>
+        <v>-12200</v>
+      </c>
+      <c r="AV67" s="90">
+        <f t="shared" si="49"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AX67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AY67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="BA67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="BB67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="BC67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="BD67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="BE67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="BF67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="BG67" s="90">
+        <f t="shared" si="49"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH67" s="90">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="BI67" s="90">
+        <f t="shared" si="49"/>
         <v>-6100</v>
       </c>
-      <c r="X67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="Y67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="Z67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB67" s="92" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AC67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="AD67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="AE67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AI67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="92">
-        <f t="shared" si="48"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK67" s="92">
-        <f t="shared" si="48"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AM67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AN67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AO67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AP67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AQ67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AR67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AS67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AT67" s="92" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="AU67" s="92">
-        <f t="shared" si="48"/>
-        <v>-12200</v>
-      </c>
-      <c r="AV67" s="92">
-        <f t="shared" si="48"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AX67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AY67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AZ67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BA67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BB67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BC67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BD67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BE67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BF67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BG67" s="92">
-        <f t="shared" si="48"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH67" s="92">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BI67" s="92">
-        <f t="shared" si="48"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ67" s="92">
-        <f t="shared" si="48"/>
+      <c r="BJ67" s="90">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -23190,246 +23059,246 @@
         <v>8</v>
       </c>
       <c r="B68" s="27">
-        <f>B17</f>
+        <f t="shared" si="46"/>
         <v>583100</v>
       </c>
-      <c r="C68" s="92" t="s">
+      <c r="C68" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="92">
-        <f t="shared" ref="D68:BJ68" si="49">IF(D17,D17-$B68+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="92">
-        <f t="shared" si="49"/>
+      <c r="D68" s="90">
+        <f t="shared" ref="D68:BJ68" si="50">IF(D17,D17-$B68+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="90">
+        <f t="shared" si="50"/>
         <v>-6100</v>
       </c>
-      <c r="L68" s="92">
-        <f t="shared" si="49"/>
+      <c r="L68" s="90">
+        <f t="shared" si="50"/>
         <v>-12200</v>
       </c>
-      <c r="M68" s="92">
-        <f t="shared" si="49"/>
+      <c r="M68" s="90">
+        <f t="shared" si="50"/>
         <v>-12200</v>
       </c>
-      <c r="N68" s="92">
-        <f t="shared" si="49"/>
+      <c r="N68" s="90">
+        <f t="shared" si="50"/>
         <v>-12200</v>
       </c>
-      <c r="O68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="R68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="S68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="T68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="W68" s="92">
-        <f t="shared" si="49"/>
+      <c r="O68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="90">
+        <f t="shared" si="50"/>
+        <v>-12200</v>
+      </c>
+      <c r="AD68" s="90">
+        <f t="shared" si="50"/>
+        <v>-12200</v>
+      </c>
+      <c r="AE68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AI68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="90">
+        <f t="shared" si="50"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK68" s="90">
+        <f t="shared" si="50"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AM68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AN68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AO68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AP68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AR68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AS68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AT68" s="90">
+        <f t="shared" si="50"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU68" s="90">
+        <f t="shared" si="50"/>
+        <v>-24400</v>
+      </c>
+      <c r="AV68" s="90">
+        <f t="shared" si="50"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AX68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AY68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BA68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BB68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BC68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BD68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BE68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BF68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BG68" s="90">
+        <f t="shared" si="50"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH68" s="90">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="BI68" s="90">
+        <f t="shared" si="50"/>
         <v>-6100</v>
       </c>
-      <c r="X68" s="92">
-        <f t="shared" si="49"/>
-        <v>-6100</v>
-      </c>
-      <c r="Y68" s="92">
-        <f t="shared" si="49"/>
-        <v>-6100</v>
-      </c>
-      <c r="Z68" s="92">
-        <f t="shared" si="49"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA68" s="92">
-        <f t="shared" si="49"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB68" s="92">
-        <f t="shared" si="49"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC68" s="92">
-        <f t="shared" si="49"/>
-        <v>-18300</v>
-      </c>
-      <c r="AD68" s="92">
-        <f t="shared" si="49"/>
-        <v>-18300</v>
-      </c>
-      <c r="AE68" s="92">
-        <f t="shared" si="49"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF68" s="92">
-        <f t="shared" si="49"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG68" s="92">
-        <f t="shared" si="49"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AI68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="92">
-        <f t="shared" si="49"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK68" s="92">
-        <f t="shared" si="49"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AM68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AN68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AO68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AP68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AQ68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AR68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AS68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AT68" s="92">
-        <f t="shared" si="49"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU68" s="92">
-        <f t="shared" si="49"/>
-        <v>-24400</v>
-      </c>
-      <c r="AV68" s="92">
-        <f t="shared" si="49"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AX68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AY68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AZ68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BA68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BB68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BC68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BD68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BE68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BF68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BG68" s="92">
-        <f t="shared" si="49"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH68" s="92">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BI68" s="92">
-        <f t="shared" si="49"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ68" s="92">
-        <f t="shared" si="49"/>
+      <c r="BJ68" s="90">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -23439,246 +23308,246 @@
         <v>7</v>
       </c>
       <c r="B69" s="27">
-        <f>B18</f>
+        <f t="shared" si="46"/>
         <v>577000</v>
       </c>
-      <c r="C69" s="92" t="s">
+      <c r="C69" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="92">
-        <f t="shared" ref="D69:BJ69" si="50">IF(D18,D18-$B69+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="92">
-        <f t="shared" si="50"/>
+      <c r="D69" s="90">
+        <f t="shared" ref="D69:BJ69" si="51">IF(D18,D18-$B69+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="90">
+        <f t="shared" si="51"/>
         <v>-6100</v>
       </c>
-      <c r="L69" s="92">
-        <f t="shared" si="50"/>
+      <c r="L69" s="90">
+        <f t="shared" si="51"/>
         <v>-24400</v>
       </c>
-      <c r="M69" s="92">
-        <f t="shared" si="50"/>
+      <c r="M69" s="90">
+        <f t="shared" si="51"/>
         <v>-24400</v>
       </c>
-      <c r="N69" s="92">
-        <f t="shared" si="50"/>
+      <c r="N69" s="90">
+        <f t="shared" si="51"/>
         <v>-24400</v>
       </c>
-      <c r="O69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="W69" s="92">
-        <f t="shared" si="50"/>
+      <c r="O69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="90">
+        <f t="shared" si="51"/>
+        <v>-24400</v>
+      </c>
+      <c r="AD69" s="90">
+        <f t="shared" si="51"/>
+        <v>-24400</v>
+      </c>
+      <c r="AE69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AH69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AI69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="90">
+        <f t="shared" si="51"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK69" s="90">
+        <f t="shared" si="51"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AM69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AN69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AO69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AP69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AR69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AS69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AT69" s="90">
+        <f t="shared" si="51"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU69" s="90">
+        <f t="shared" si="51"/>
+        <v>-24400</v>
+      </c>
+      <c r="AV69" s="90">
+        <f t="shared" si="51"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AX69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AY69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AZ69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BA69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BB69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BC69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BD69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BE69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BF69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BG69" s="90">
+        <f t="shared" si="51"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH69" s="90">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BI69" s="90">
+        <f t="shared" si="51"/>
         <v>-6100</v>
       </c>
-      <c r="X69" s="92">
-        <f t="shared" si="50"/>
-        <v>-6100</v>
-      </c>
-      <c r="Y69" s="92">
-        <f t="shared" si="50"/>
-        <v>-6100</v>
-      </c>
-      <c r="Z69" s="92">
-        <f t="shared" si="50"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA69" s="92">
-        <f t="shared" si="50"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB69" s="92">
-        <f t="shared" si="50"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC69" s="92">
-        <f t="shared" si="50"/>
-        <v>-30500</v>
-      </c>
-      <c r="AD69" s="92">
-        <f t="shared" si="50"/>
-        <v>-30500</v>
-      </c>
-      <c r="AE69" s="92">
-        <f t="shared" si="50"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF69" s="92">
-        <f t="shared" si="50"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG69" s="92">
-        <f t="shared" si="50"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AI69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AJ69" s="92">
-        <f t="shared" si="50"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK69" s="92">
-        <f t="shared" si="50"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AM69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AN69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AO69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AP69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AQ69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AR69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AS69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AT69" s="92">
-        <f t="shared" si="50"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU69" s="92">
-        <f t="shared" si="50"/>
-        <v>-24400</v>
-      </c>
-      <c r="AV69" s="92">
-        <f t="shared" si="50"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AX69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AY69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AZ69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BA69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BB69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BC69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BD69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BE69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BF69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BG69" s="92">
-        <f t="shared" si="50"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH69" s="92">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BI69" s="92">
-        <f t="shared" si="50"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ69" s="92">
-        <f t="shared" si="50"/>
+      <c r="BJ69" s="90">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -23688,246 +23557,246 @@
         <v>6</v>
       </c>
       <c r="B70" s="27">
-        <f>B19</f>
+        <f t="shared" si="46"/>
         <v>570900</v>
       </c>
-      <c r="C70" s="92" t="s">
+      <c r="C70" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="92">
-        <f t="shared" ref="D70:BJ70" si="51">IF(D19,D19-$B70+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="92">
-        <f t="shared" si="51"/>
+      <c r="D70" s="90">
+        <f t="shared" ref="D70:BJ70" si="52">IF(D19,D19-$B70+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="90">
+        <f t="shared" si="52"/>
         <v>-6100</v>
       </c>
-      <c r="L70" s="92">
-        <f t="shared" si="51"/>
+      <c r="L70" s="90">
+        <f t="shared" si="52"/>
         <v>-36600</v>
       </c>
-      <c r="M70" s="92">
-        <f t="shared" si="51"/>
+      <c r="M70" s="90">
+        <f t="shared" si="52"/>
         <v>-36600</v>
       </c>
-      <c r="N70" s="92">
-        <f t="shared" si="51"/>
+      <c r="N70" s="90">
+        <f t="shared" si="52"/>
         <v>-36600</v>
       </c>
-      <c r="O70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="S70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W70" s="92">
-        <f t="shared" si="51"/>
+      <c r="O70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="90">
+        <f t="shared" si="52"/>
+        <v>-36600</v>
+      </c>
+      <c r="AD70" s="90">
+        <f t="shared" si="52"/>
+        <v>-36600</v>
+      </c>
+      <c r="AE70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AI70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="90">
+        <f t="shared" si="52"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK70" s="90">
+        <f t="shared" si="52"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AM70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AN70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AO70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AP70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AR70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AS70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AT70" s="90">
+        <f t="shared" si="52"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU70" s="90">
+        <f t="shared" si="52"/>
+        <v>-24400</v>
+      </c>
+      <c r="AV70" s="90">
+        <f t="shared" si="52"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AX70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AY70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AZ70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="BA70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="BB70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="BC70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="BD70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="BE70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="BF70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="BG70" s="90">
+        <f t="shared" si="52"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH70" s="90">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="BI70" s="90">
+        <f t="shared" si="52"/>
         <v>-6100</v>
       </c>
-      <c r="X70" s="92">
-        <f t="shared" si="51"/>
-        <v>-6100</v>
-      </c>
-      <c r="Y70" s="92">
-        <f t="shared" si="51"/>
-        <v>-6100</v>
-      </c>
-      <c r="Z70" s="92">
-        <f t="shared" si="51"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA70" s="92">
-        <f t="shared" si="51"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB70" s="92">
-        <f t="shared" si="51"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC70" s="92">
-        <f t="shared" si="51"/>
-        <v>-42700</v>
-      </c>
-      <c r="AD70" s="92">
-        <f t="shared" si="51"/>
-        <v>-42700</v>
-      </c>
-      <c r="AE70" s="92">
-        <f t="shared" si="51"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF70" s="92">
-        <f t="shared" si="51"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG70" s="92">
-        <f t="shared" si="51"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AI70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="92">
-        <f t="shared" si="51"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK70" s="92">
-        <f t="shared" si="51"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AM70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AN70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AO70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AP70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AQ70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AR70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AS70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AT70" s="92">
-        <f t="shared" si="51"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU70" s="92">
-        <f t="shared" si="51"/>
-        <v>-24400</v>
-      </c>
-      <c r="AV70" s="92">
-        <f t="shared" si="51"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AX70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AY70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AZ70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="BA70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="BB70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="BC70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="BD70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="BE70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="BF70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="BG70" s="92">
-        <f t="shared" si="51"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH70" s="92">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="BI70" s="92">
-        <f t="shared" si="51"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ70" s="92">
-        <f t="shared" si="51"/>
+      <c r="BJ70" s="90">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -23937,246 +23806,246 @@
         <v>5</v>
       </c>
       <c r="B71" s="27">
-        <f>B20</f>
+        <f t="shared" si="46"/>
         <v>564800</v>
       </c>
-      <c r="C71" s="92" t="s">
+      <c r="C71" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="92">
-        <f t="shared" ref="D71:BJ71" si="52">IF(D20,D20-$B71+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="92">
-        <f t="shared" si="52"/>
+      <c r="D71" s="90">
+        <f t="shared" ref="D71:BJ71" si="53">IF(D20,D20-$B71+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="90">
+        <f t="shared" si="53"/>
         <v>-6100</v>
       </c>
-      <c r="L71" s="92">
-        <f t="shared" si="52"/>
+      <c r="L71" s="90">
+        <f t="shared" si="53"/>
         <v>-36600</v>
       </c>
-      <c r="M71" s="92">
-        <f t="shared" si="52"/>
+      <c r="M71" s="90">
+        <f t="shared" si="53"/>
         <v>-36600</v>
       </c>
-      <c r="N71" s="92">
-        <f t="shared" si="52"/>
+      <c r="N71" s="90">
+        <f t="shared" si="53"/>
         <v>-36600</v>
       </c>
-      <c r="O71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="R71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="S71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="T71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="U71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="V71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="W71" s="92">
-        <f t="shared" si="52"/>
+      <c r="O71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AC71" s="90">
+        <f t="shared" si="53"/>
+        <v>-36600</v>
+      </c>
+      <c r="AD71" s="90">
+        <f t="shared" si="53"/>
+        <v>-36600</v>
+      </c>
+      <c r="AE71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AH71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AI71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="90">
+        <f t="shared" si="53"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK71" s="90">
+        <f t="shared" si="53"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AM71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AN71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AO71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AP71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AR71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AS71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AT71" s="90">
+        <f t="shared" si="53"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU71" s="90">
+        <f t="shared" si="53"/>
+        <v>-24400</v>
+      </c>
+      <c r="AV71" s="90">
+        <f t="shared" si="53"/>
+        <v>-12200</v>
+      </c>
+      <c r="AW71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AX71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AY71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AZ71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BA71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BB71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BC71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BD71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BE71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BF71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BG71" s="90">
+        <f t="shared" si="53"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH71" s="90">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BI71" s="90">
+        <f t="shared" si="53"/>
         <v>-6100</v>
       </c>
-      <c r="X71" s="92">
-        <f t="shared" si="52"/>
-        <v>-6100</v>
-      </c>
-      <c r="Y71" s="92">
-        <f t="shared" si="52"/>
-        <v>-6100</v>
-      </c>
-      <c r="Z71" s="92">
-        <f t="shared" si="52"/>
-        <v>-6100</v>
-      </c>
-      <c r="AA71" s="92">
-        <f t="shared" si="52"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB71" s="92">
-        <f t="shared" si="52"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC71" s="92">
-        <f t="shared" si="52"/>
-        <v>-42700</v>
-      </c>
-      <c r="AD71" s="92">
-        <f t="shared" si="52"/>
-        <v>-42700</v>
-      </c>
-      <c r="AE71" s="92">
-        <f t="shared" si="52"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF71" s="92">
-        <f t="shared" si="52"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG71" s="92">
-        <f t="shared" si="52"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AI71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AJ71" s="92">
-        <f t="shared" si="52"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK71" s="92">
-        <f t="shared" si="52"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AM71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AN71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AP71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AQ71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AR71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AS71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AT71" s="92">
-        <f t="shared" si="52"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU71" s="92">
-        <f t="shared" si="52"/>
-        <v>-24400</v>
-      </c>
-      <c r="AV71" s="92">
-        <f t="shared" si="52"/>
-        <v>-12200</v>
-      </c>
-      <c r="AW71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AX71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AY71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AZ71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BA71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BB71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BC71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BD71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BE71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BF71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BG71" s="92">
-        <f t="shared" si="52"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH71" s="92">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BI71" s="92">
-        <f t="shared" si="52"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ71" s="92">
-        <f t="shared" si="52"/>
+      <c r="BJ71" s="90">
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -24186,246 +24055,246 @@
         <v>4</v>
       </c>
       <c r="B72" s="27">
-        <f>B21</f>
+        <f t="shared" si="46"/>
         <v>555600</v>
       </c>
-      <c r="C72" s="92" t="s">
+      <c r="C72" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="92">
-        <f t="shared" ref="D72:BJ72" si="53">IF(D21,D21-$B72+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="92">
-        <f t="shared" si="53"/>
+      <c r="D72" s="90">
+        <f t="shared" ref="D72:BJ72" si="54">IF(D21,D21-$B72+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="F72" s="92">
-        <f t="shared" si="53"/>
+      <c r="F72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="G72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="92">
-        <f t="shared" si="53"/>
+      <c r="G72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="J72" s="92">
-        <f t="shared" si="53"/>
+      <c r="J72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="K72" s="92">
-        <f t="shared" si="53"/>
+      <c r="K72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="L72" s="92">
-        <f t="shared" si="53"/>
+      <c r="L72" s="90">
+        <f t="shared" si="54"/>
         <v>-42700</v>
       </c>
-      <c r="M72" s="92">
-        <f t="shared" si="53"/>
+      <c r="M72" s="90">
+        <f t="shared" si="54"/>
         <v>-36600</v>
       </c>
-      <c r="N72" s="92">
-        <f t="shared" si="53"/>
+      <c r="N72" s="90">
+        <f t="shared" si="54"/>
         <v>-36600</v>
       </c>
-      <c r="O72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="R72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="S72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="T72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="V72" s="92">
-        <f t="shared" si="53"/>
+      <c r="O72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="W72" s="92">
-        <f t="shared" si="53"/>
+      <c r="W72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="X72" s="92">
-        <f t="shared" si="53"/>
+      <c r="Y72" s="90">
+        <f t="shared" si="54"/>
+        <v>-6100</v>
+      </c>
+      <c r="Z72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="90">
+        <f t="shared" si="54"/>
+        <v>-42700</v>
+      </c>
+      <c r="AD72" s="90">
+        <f t="shared" si="54"/>
+        <v>-42700</v>
+      </c>
+      <c r="AE72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AH72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AI72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="90">
+        <f t="shared" si="54"/>
         <v>-12200</v>
       </c>
-      <c r="Y72" s="92">
-        <f t="shared" si="53"/>
+      <c r="AK72" s="90">
+        <f t="shared" si="54"/>
         <v>-12200</v>
       </c>
-      <c r="Z72" s="92">
-        <f t="shared" si="53"/>
+      <c r="AL72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AM72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AN72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="AA72" s="92">
-        <f t="shared" si="53"/>
+      <c r="AO72" s="90">
+        <f t="shared" si="54"/>
+        <v>-12200</v>
+      </c>
+      <c r="AP72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="AB72" s="92">
-        <f t="shared" si="53"/>
+      <c r="AQ72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AR72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="AC72" s="92">
-        <f t="shared" si="53"/>
-        <v>-48800</v>
-      </c>
-      <c r="AD72" s="92">
-        <f t="shared" si="53"/>
-        <v>-48800</v>
-      </c>
-      <c r="AE72" s="92">
-        <f t="shared" si="53"/>
+      <c r="AS72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="AF72" s="92">
-        <f t="shared" si="53"/>
+      <c r="AT72" s="90">
+        <f t="shared" si="54"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU72" s="90">
+        <f t="shared" si="54"/>
+        <v>-30500</v>
+      </c>
+      <c r="AV72" s="90">
+        <f t="shared" si="54"/>
+        <v>-18300</v>
+      </c>
+      <c r="AW72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AX72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="AG72" s="92">
-        <f t="shared" si="53"/>
+      <c r="AY72" s="90">
+        <f t="shared" si="54"/>
+        <v>-12200</v>
+      </c>
+      <c r="AZ72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="AH72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AI72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="92">
-        <f t="shared" si="53"/>
+      <c r="BA72" s="90">
+        <f t="shared" si="54"/>
+        <v>-6100</v>
+      </c>
+      <c r="BB72" s="90">
+        <f t="shared" si="54"/>
         <v>-12200</v>
       </c>
-      <c r="AK72" s="92">
-        <f t="shared" si="53"/>
+      <c r="BC72" s="90" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="BD72" s="90" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="BE72" s="90">
+        <f t="shared" si="54"/>
+        <v>-6100</v>
+      </c>
+      <c r="BF72" s="90">
+        <f t="shared" si="54"/>
+        <v>-6100</v>
+      </c>
+      <c r="BG72" s="90">
+        <f t="shared" si="54"/>
         <v>-12200</v>
       </c>
-      <c r="AL72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AM72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AN72" s="92">
-        <f t="shared" si="53"/>
+      <c r="BH72" s="90">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BI72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
-      <c r="AO72" s="92">
-        <f t="shared" si="53"/>
-        <v>-12200</v>
-      </c>
-      <c r="AP72" s="92">
-        <f t="shared" si="53"/>
-        <v>-6100</v>
-      </c>
-      <c r="AQ72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AR72" s="92">
-        <f t="shared" si="53"/>
-        <v>-6100</v>
-      </c>
-      <c r="AS72" s="92">
-        <f t="shared" si="53"/>
-        <v>-6100</v>
-      </c>
-      <c r="AT72" s="92">
-        <f t="shared" si="53"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU72" s="92">
-        <f t="shared" si="53"/>
-        <v>-30500</v>
-      </c>
-      <c r="AV72" s="92">
-        <f t="shared" si="53"/>
-        <v>-18300</v>
-      </c>
-      <c r="AW72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="AX72" s="92">
-        <f t="shared" si="53"/>
-        <v>-6100</v>
-      </c>
-      <c r="AY72" s="92">
-        <f t="shared" si="53"/>
-        <v>-12200</v>
-      </c>
-      <c r="AZ72" s="92">
-        <f t="shared" si="53"/>
-        <v>-6100</v>
-      </c>
-      <c r="BA72" s="92">
-        <f t="shared" si="53"/>
-        <v>-6100</v>
-      </c>
-      <c r="BB72" s="92">
-        <f t="shared" si="53"/>
-        <v>-12200</v>
-      </c>
-      <c r="BC72" s="92" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="BD72" s="92" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="BE72" s="92">
-        <f t="shared" si="53"/>
-        <v>-6100</v>
-      </c>
-      <c r="BF72" s="92">
-        <f t="shared" si="53"/>
-        <v>-6100</v>
-      </c>
-      <c r="BG72" s="92">
-        <f t="shared" si="53"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH72" s="92">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="BI72" s="92">
-        <f t="shared" si="53"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ72" s="92">
-        <f t="shared" si="53"/>
+      <c r="BJ72" s="90">
+        <f t="shared" si="54"/>
         <v>-6100</v>
       </c>
     </row>
@@ -24435,246 +24304,246 @@
         <v>3</v>
       </c>
       <c r="B73" s="27">
-        <f>B22</f>
+        <f t="shared" si="46"/>
         <v>546400</v>
       </c>
-      <c r="C73" s="92" t="s">
+      <c r="C73" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="92">
-        <f t="shared" ref="D73:BJ73" si="54">IF(D22,D22-$B73+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="92">
-        <f t="shared" si="54"/>
+      <c r="D73" s="90">
+        <f t="shared" ref="D73:BJ73" si="55">IF(D22,D22-$B73+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="90">
+        <f t="shared" si="55"/>
         <v>-12200</v>
       </c>
-      <c r="F73" s="92">
-        <f t="shared" si="54"/>
+      <c r="F73" s="90">
+        <f t="shared" si="55"/>
         <v>-12200</v>
       </c>
-      <c r="G73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="92">
-        <f t="shared" si="54"/>
+      <c r="G73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="90">
+        <f t="shared" si="55"/>
         <v>-12200</v>
       </c>
-      <c r="J73" s="92">
-        <f t="shared" si="54"/>
+      <c r="J73" s="90">
+        <f t="shared" si="55"/>
         <v>-12200</v>
       </c>
-      <c r="K73" s="92">
-        <f t="shared" si="54"/>
+      <c r="K73" s="90">
+        <f t="shared" si="55"/>
         <v>-6100</v>
       </c>
-      <c r="L73" s="92">
-        <f t="shared" si="54"/>
+      <c r="L73" s="90">
+        <f t="shared" si="55"/>
         <v>-48800</v>
       </c>
-      <c r="M73" s="92">
-        <f t="shared" si="54"/>
+      <c r="M73" s="90">
+        <f t="shared" si="55"/>
         <v>-36600</v>
       </c>
-      <c r="N73" s="92">
-        <f t="shared" si="54"/>
+      <c r="N73" s="90">
+        <f t="shared" si="55"/>
         <v>-36600</v>
       </c>
-      <c r="O73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="92">
-        <f t="shared" si="54"/>
+      <c r="O73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="90">
+        <f t="shared" si="55"/>
         <v>-12200</v>
       </c>
-      <c r="W73" s="92">
-        <f t="shared" si="54"/>
+      <c r="W73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="Y73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="Z73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="90">
+        <f t="shared" si="55"/>
+        <v>-48800</v>
+      </c>
+      <c r="AD73" s="90">
+        <f t="shared" si="55"/>
+        <v>-48800</v>
+      </c>
+      <c r="AE73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AI73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AM73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AN73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="AO73" s="90">
+        <f t="shared" si="55"/>
+        <v>-24400</v>
+      </c>
+      <c r="AP73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="AQ73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AR73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="AS73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="AT73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU73" s="90">
+        <f t="shared" si="55"/>
+        <v>-36600</v>
+      </c>
+      <c r="AV73" s="90">
+        <f t="shared" si="55"/>
+        <v>-24400</v>
+      </c>
+      <c r="AW73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AX73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="AY73" s="90">
+        <f t="shared" si="55"/>
+        <v>-24400</v>
+      </c>
+      <c r="AZ73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="BA73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="BB73" s="90">
+        <f t="shared" si="55"/>
+        <v>-24400</v>
+      </c>
+      <c r="BC73" s="90" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="BD73" s="90" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="BE73" s="90">
+        <f t="shared" si="55"/>
         <v>-6100</v>
       </c>
-      <c r="X73" s="92">
-        <f t="shared" si="54"/>
-        <v>-18300</v>
-      </c>
-      <c r="Y73" s="92">
-        <f t="shared" si="54"/>
-        <v>-18300</v>
-      </c>
-      <c r="Z73" s="92">
-        <f t="shared" si="54"/>
+      <c r="BF73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="BG73" s="90">
+        <f t="shared" si="55"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH73" s="90">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BI73" s="90">
+        <f t="shared" si="55"/>
         <v>-6100</v>
       </c>
-      <c r="AA73" s="92">
-        <f t="shared" si="54"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB73" s="92">
-        <f t="shared" si="54"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC73" s="92">
-        <f t="shared" si="54"/>
-        <v>-54900</v>
-      </c>
-      <c r="AD73" s="92">
-        <f t="shared" si="54"/>
-        <v>-54900</v>
-      </c>
-      <c r="AE73" s="92">
-        <f t="shared" si="54"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF73" s="92">
-        <f t="shared" si="54"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG73" s="92">
-        <f t="shared" si="54"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AI73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AM73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AN73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="AO73" s="92">
-        <f t="shared" si="54"/>
-        <v>-24400</v>
-      </c>
-      <c r="AP73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="AQ73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AR73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="AS73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="AT73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU73" s="92">
-        <f t="shared" si="54"/>
-        <v>-36600</v>
-      </c>
-      <c r="AV73" s="92">
-        <f t="shared" si="54"/>
-        <v>-24400</v>
-      </c>
-      <c r="AW73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AX73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="AY73" s="92">
-        <f t="shared" si="54"/>
-        <v>-24400</v>
-      </c>
-      <c r="AZ73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="BA73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="BB73" s="92">
-        <f t="shared" si="54"/>
-        <v>-24400</v>
-      </c>
-      <c r="BC73" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="BD73" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="BE73" s="92">
-        <f t="shared" si="54"/>
-        <v>-6100</v>
-      </c>
-      <c r="BF73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="BG73" s="92">
-        <f t="shared" si="54"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH73" s="92">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="BI73" s="92">
-        <f t="shared" si="54"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ73" s="92">
-        <f t="shared" si="54"/>
+      <c r="BJ73" s="90">
+        <f t="shared" si="55"/>
         <v>-12200</v>
       </c>
     </row>
@@ -24684,246 +24553,246 @@
         <v>2</v>
       </c>
       <c r="B74" s="27">
-        <f>B23</f>
+        <f t="shared" si="46"/>
         <v>537200</v>
       </c>
-      <c r="C74" s="92" t="s">
+      <c r="C74" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="92">
-        <f t="shared" ref="D74:BJ74" si="55">IF(D23,D23-$B74+D$53,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="92">
-        <f t="shared" si="55"/>
+      <c r="D74" s="90">
+        <f t="shared" ref="D74:BJ74" si="56">IF(D23,D23-$B74+D$53,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="90">
+        <f t="shared" si="56"/>
         <v>-12200</v>
       </c>
-      <c r="F74" s="92">
-        <f t="shared" si="55"/>
+      <c r="F74" s="90">
+        <f t="shared" si="56"/>
         <v>-12200</v>
       </c>
-      <c r="G74" s="92">
-        <f t="shared" si="55"/>
+      <c r="G74" s="90">
+        <f t="shared" si="56"/>
         <v>-12200</v>
       </c>
-      <c r="H74" s="92">
-        <f t="shared" si="55"/>
+      <c r="H74" s="90">
+        <f t="shared" si="56"/>
         <v>-12200</v>
       </c>
-      <c r="I74" s="92">
-        <f t="shared" si="55"/>
+      <c r="I74" s="90">
+        <f t="shared" si="56"/>
         <v>-12200</v>
       </c>
-      <c r="J74" s="92" t="str">
-        <f t="shared" si="55"/>
+      <c r="J74" s="90" t="str">
+        <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="K74" s="92" t="str">
-        <f t="shared" si="55"/>
+      <c r="K74" s="90" t="str">
+        <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="L74" s="92">
-        <f t="shared" si="55"/>
+      <c r="L74" s="90">
+        <f t="shared" si="56"/>
         <v>-48800</v>
       </c>
-      <c r="M74" s="92">
-        <f t="shared" si="55"/>
+      <c r="M74" s="90">
+        <f t="shared" si="56"/>
         <v>-36600</v>
       </c>
-      <c r="N74" s="92">
-        <f t="shared" si="55"/>
+      <c r="N74" s="90">
+        <f t="shared" si="56"/>
         <v>-36600</v>
       </c>
-      <c r="O74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="T74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="92" t="str">
-        <f t="shared" si="55"/>
+      <c r="O74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="90" t="str">
+        <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="V74" s="92" t="str">
-        <f t="shared" si="55"/>
+      <c r="V74" s="90" t="str">
+        <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="W74" s="92">
-        <f t="shared" si="55"/>
+      <c r="W74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="90">
+        <f t="shared" si="56"/>
+        <v>-24400</v>
+      </c>
+      <c r="Y74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="Z74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="90">
+        <f t="shared" si="56"/>
+        <v>-48800</v>
+      </c>
+      <c r="AD74" s="90">
+        <f t="shared" si="56"/>
+        <v>-48800</v>
+      </c>
+      <c r="AE74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AI74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="AK74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="AL74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="AM74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="AN74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="AO74" s="90">
+        <f t="shared" si="56"/>
+        <v>-24400</v>
+      </c>
+      <c r="AP74" s="90">
+        <f t="shared" si="56"/>
+        <v>-24400</v>
+      </c>
+      <c r="AQ74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AR74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="AS74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="AT74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="AU74" s="90">
+        <f t="shared" si="56"/>
+        <v>-36600</v>
+      </c>
+      <c r="AV74" s="90">
+        <f t="shared" si="56"/>
+        <v>-24400</v>
+      </c>
+      <c r="AW74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AX74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="AY74" s="90">
+        <f t="shared" si="56"/>
+        <v>-24400</v>
+      </c>
+      <c r="AZ74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="BA74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="BB74" s="90">
+        <f t="shared" si="56"/>
+        <v>-24400</v>
+      </c>
+      <c r="BC74" s="90" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="BD74" s="90" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="BE74" s="90">
+        <f t="shared" si="56"/>
         <v>-6100</v>
       </c>
-      <c r="X74" s="92">
-        <f t="shared" si="55"/>
-        <v>-30500</v>
-      </c>
-      <c r="Y74" s="92">
-        <f t="shared" si="55"/>
-        <v>-18300</v>
-      </c>
-      <c r="Z74" s="92">
-        <f t="shared" si="55"/>
+      <c r="BF74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="BG74" s="90">
+        <f t="shared" si="56"/>
+        <v>-12200</v>
+      </c>
+      <c r="BH74" s="90">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BI74" s="90">
+        <f t="shared" si="56"/>
         <v>-6100</v>
       </c>
-      <c r="AA74" s="92">
-        <f t="shared" si="55"/>
-        <v>-6100</v>
-      </c>
-      <c r="AB74" s="92">
-        <f t="shared" si="55"/>
-        <v>-6100</v>
-      </c>
-      <c r="AC74" s="92">
-        <f t="shared" si="55"/>
-        <v>-54900</v>
-      </c>
-      <c r="AD74" s="92">
-        <f t="shared" si="55"/>
-        <v>-54900</v>
-      </c>
-      <c r="AE74" s="92">
-        <f t="shared" si="55"/>
-        <v>-6100</v>
-      </c>
-      <c r="AF74" s="92">
-        <f t="shared" si="55"/>
-        <v>-6100</v>
-      </c>
-      <c r="AG74" s="92">
-        <f t="shared" si="55"/>
-        <v>-6100</v>
-      </c>
-      <c r="AH74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AI74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="AK74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="AL74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="AM74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="AN74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="AO74" s="92">
-        <f t="shared" si="55"/>
-        <v>-24400</v>
-      </c>
-      <c r="AP74" s="92">
-        <f t="shared" si="55"/>
-        <v>-24400</v>
-      </c>
-      <c r="AQ74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AR74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="AS74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="AT74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="AU74" s="92">
-        <f t="shared" si="55"/>
-        <v>-36600</v>
-      </c>
-      <c r="AV74" s="92">
-        <f t="shared" si="55"/>
-        <v>-24400</v>
-      </c>
-      <c r="AW74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AX74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="AY74" s="92">
-        <f t="shared" si="55"/>
-        <v>-24400</v>
-      </c>
-      <c r="AZ74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="BA74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="BB74" s="92">
-        <f t="shared" si="55"/>
-        <v>-24400</v>
-      </c>
-      <c r="BC74" s="92" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="BD74" s="92" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="BE74" s="92">
-        <f t="shared" si="55"/>
-        <v>-6100</v>
-      </c>
-      <c r="BF74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="BG74" s="92">
-        <f t="shared" si="55"/>
-        <v>-12200</v>
-      </c>
-      <c r="BH74" s="92">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="BI74" s="92">
-        <f t="shared" si="55"/>
-        <v>-6100</v>
-      </c>
-      <c r="BJ74" s="92">
-        <f t="shared" si="55"/>
+      <c r="BJ74" s="90">
+        <f t="shared" si="56"/>
         <v>-12200</v>
       </c>
     </row>
@@ -24988,7 +24857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:BJ54">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
